--- a/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
+++ b/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2457 +454,5857 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671095700000</v>
+        <v>1671095640000</v>
       </c>
       <c r="B2">
-        <v>5468900</v>
+        <v>2651900</v>
       </c>
       <c r="C2">
-        <v>6511000</v>
+        <v>1315800</v>
       </c>
       <c r="D2">
-        <v>6443800</v>
+        <v>6377200</v>
       </c>
       <c r="E2">
-        <v>86468126000</v>
+        <v>41468554000</v>
       </c>
       <c r="F2">
-        <v>110495170000</v>
+        <v>22387762000</v>
       </c>
       <c r="G2">
-        <v>69770565000</v>
+        <v>68793369000</v>
       </c>
       <c r="H2">
-        <v>18423700</v>
+        <v>10344900</v>
       </c>
       <c r="I2">
-        <v>266733861000</v>
+        <v>132649685000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-15T09:15:00.000Z</v>
+        <v>2022-12-15T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>266733861000</v>
+        <v>132649685000</v>
       </c>
       <c r="L2">
-        <v>18423700</v>
+        <v>10344900</v>
       </c>
       <c r="M2">
-        <v>1042100</v>
+        <v>-1336100</v>
       </c>
       <c r="N2">
-        <v>24027044000</v>
+        <v>-19080792000</v>
       </c>
       <c r="O2">
-        <v>1042100</v>
+        <v>-1336100</v>
       </c>
       <c r="P2">
-        <v>24027044000</v>
+        <v>-19080792000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671096000000</v>
+        <v>1671095760000</v>
       </c>
       <c r="B3">
-        <v>4905400</v>
+        <v>1450700</v>
       </c>
       <c r="C3">
-        <v>10545900</v>
+        <v>2377800</v>
       </c>
       <c r="D3">
-        <v>69800</v>
+        <v>12900</v>
       </c>
       <c r="E3">
-        <v>77143691000</v>
+        <v>23705233000</v>
       </c>
       <c r="F3">
-        <v>183367591000</v>
+        <v>38838895000</v>
       </c>
       <c r="G3">
-        <v>750401000</v>
+        <v>114833000</v>
       </c>
       <c r="H3">
-        <v>15521100</v>
+        <v>3841400</v>
       </c>
       <c r="I3">
-        <v>261261683000</v>
+        <v>62658961000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-15T09:20:00.000Z</v>
+        <v>2022-12-15T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>527995544000</v>
+        <v>195308646000</v>
       </c>
       <c r="L3">
-        <v>33944800</v>
+        <v>14186300</v>
       </c>
       <c r="M3">
-        <v>5640500</v>
+        <v>927100</v>
       </c>
       <c r="N3">
-        <v>106223900000</v>
+        <v>15133662000</v>
       </c>
       <c r="O3">
-        <v>6682600</v>
+        <v>-409000</v>
       </c>
       <c r="P3">
-        <v>130250944000</v>
+        <v>-3947130000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671096300000</v>
+        <v>1671095880000</v>
       </c>
       <c r="B4">
-        <v>5976300</v>
+        <v>1366300</v>
       </c>
       <c r="C4">
-        <v>6750900</v>
+        <v>2817400</v>
       </c>
       <c r="D4">
-        <v>214100</v>
+        <v>53700</v>
       </c>
       <c r="E4">
-        <v>104325440000</v>
+        <v>21294339000</v>
       </c>
       <c r="F4">
-        <v>116005487000</v>
+        <v>49268513000</v>
       </c>
       <c r="G4">
-        <v>3644079000</v>
+        <v>862363000</v>
       </c>
       <c r="H4">
-        <v>12941300</v>
+        <v>4237400</v>
       </c>
       <c r="I4">
-        <v>223975006000</v>
+        <v>71425215000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-15T09:25:00.000Z</v>
+        <v>2022-12-15T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>751970550000</v>
+        <v>266733861000</v>
       </c>
       <c r="L4">
-        <v>46886100</v>
+        <v>18423700</v>
       </c>
       <c r="M4">
-        <v>774600</v>
+        <v>1451100</v>
       </c>
       <c r="N4">
-        <v>11680047000</v>
+        <v>27974174000</v>
       </c>
       <c r="O4">
-        <v>7457200</v>
+        <v>1042100</v>
       </c>
       <c r="P4">
-        <v>141930991000</v>
+        <v>24027044000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671096600000</v>
+        <v>1671096000000</v>
       </c>
       <c r="B5">
-        <v>6083500</v>
+        <v>1541600</v>
       </c>
       <c r="C5">
-        <v>5583300</v>
+        <v>4221600</v>
       </c>
       <c r="D5">
-        <v>12400</v>
+        <v>9200</v>
       </c>
       <c r="E5">
-        <v>97522820000</v>
+        <v>26474069000</v>
       </c>
       <c r="F5">
-        <v>96985153000</v>
+        <v>75729317000</v>
       </c>
       <c r="G5">
-        <v>213720000</v>
+        <v>159539000</v>
       </c>
       <c r="H5">
-        <v>11679200</v>
+        <v>5772400</v>
       </c>
       <c r="I5">
-        <v>194721693000</v>
+        <v>102362925000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-15T09:30:00.000Z</v>
+        <v>2022-12-15T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>946692243000</v>
+        <v>369096786000</v>
       </c>
       <c r="L5">
-        <v>58565300</v>
+        <v>24196100</v>
       </c>
       <c r="M5">
-        <v>-500200</v>
+        <v>2680000</v>
       </c>
       <c r="N5">
-        <v>-537667000</v>
+        <v>49255248000</v>
       </c>
       <c r="O5">
-        <v>6957000</v>
+        <v>3722100</v>
       </c>
       <c r="P5">
-        <v>141393324000</v>
+        <v>73282292000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671096900000</v>
+        <v>1671096120000</v>
       </c>
       <c r="B6">
-        <v>4199000</v>
+        <v>2225100</v>
       </c>
       <c r="C6">
-        <v>10693100</v>
+        <v>4183300</v>
       </c>
       <c r="D6">
-        <v>13200</v>
+        <v>27400</v>
       </c>
       <c r="E6">
-        <v>71292412000</v>
+        <v>34307894000</v>
       </c>
       <c r="F6">
-        <v>186714083000</v>
+        <v>71170193000</v>
       </c>
       <c r="G6">
-        <v>240582000</v>
+        <v>272894000</v>
       </c>
       <c r="H6">
-        <v>14905300</v>
+        <v>6435800</v>
       </c>
       <c r="I6">
-        <v>258247077000</v>
+        <v>105750981000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-15T09:35:00.000Z</v>
+        <v>2022-12-15T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1204939320000</v>
+        <v>474847767000</v>
       </c>
       <c r="L6">
-        <v>73470600</v>
+        <v>30631900</v>
       </c>
       <c r="M6">
-        <v>6494100</v>
+        <v>1958200</v>
       </c>
       <c r="N6">
-        <v>115421671000</v>
+        <v>36862299000</v>
       </c>
       <c r="O6">
-        <v>13451100</v>
+        <v>5680300</v>
       </c>
       <c r="P6">
-        <v>256814995000</v>
+        <v>110144591000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671097200000</v>
+        <v>1671096240000</v>
       </c>
       <c r="B7">
-        <v>3953300</v>
+        <v>2207100</v>
       </c>
       <c r="C7">
-        <v>20600000</v>
+        <v>4054200</v>
       </c>
       <c r="D7">
-        <v>171700</v>
+        <v>206000</v>
       </c>
       <c r="E7">
-        <v>74469394000</v>
+        <v>36260998000</v>
       </c>
       <c r="F7">
-        <v>364193114000</v>
+        <v>69594095000</v>
       </c>
       <c r="G7">
-        <v>2169682000</v>
+        <v>3426898000</v>
       </c>
       <c r="H7">
-        <v>24725000</v>
+        <v>6467300</v>
       </c>
       <c r="I7">
-        <v>440832190000</v>
+        <v>109281991000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-15T09:40:00.000Z</v>
+        <v>2022-12-15T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1645771510000</v>
+        <v>584129758000</v>
       </c>
       <c r="L7">
-        <v>98195600</v>
+        <v>37099200</v>
       </c>
       <c r="M7">
-        <v>16646700</v>
+        <v>1847100</v>
       </c>
       <c r="N7">
-        <v>289723720000</v>
+        <v>33333097000</v>
       </c>
       <c r="O7">
-        <v>30097800</v>
+        <v>7527400</v>
       </c>
       <c r="P7">
-        <v>546538715000</v>
+        <v>143477688000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671097500000</v>
+        <v>1671096360000</v>
       </c>
       <c r="B8">
-        <v>8094600</v>
+        <v>2543200</v>
       </c>
       <c r="C8">
-        <v>13615600</v>
+        <v>2756000</v>
       </c>
       <c r="D8">
-        <v>40600</v>
+        <v>3200</v>
       </c>
       <c r="E8">
-        <v>137644232000</v>
+        <v>43452480000</v>
       </c>
       <c r="F8">
-        <v>233310394000</v>
+        <v>47508133000</v>
       </c>
       <c r="G8">
-        <v>836926000</v>
+        <v>39693000</v>
       </c>
       <c r="H8">
-        <v>21750800</v>
+        <v>5302400</v>
       </c>
       <c r="I8">
-        <v>371791552000</v>
+        <v>91000306000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-15T09:45:00.000Z</v>
+        <v>2022-12-15T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>2017563062000</v>
+        <v>675130064000</v>
       </c>
       <c r="L8">
-        <v>119946400</v>
+        <v>42401600</v>
       </c>
       <c r="M8">
-        <v>5521000</v>
+        <v>212800</v>
       </c>
       <c r="N8">
-        <v>95666162000</v>
+        <v>4055653000</v>
       </c>
       <c r="O8">
-        <v>35618800</v>
+        <v>7740200</v>
       </c>
       <c r="P8">
-        <v>642204877000</v>
+        <v>147533341000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671097800000</v>
+        <v>1671096480000</v>
       </c>
       <c r="B9">
-        <v>9275500</v>
+        <v>2364700</v>
       </c>
       <c r="C9">
-        <v>6055000</v>
+        <v>2081700</v>
       </c>
       <c r="D9">
-        <v>49700</v>
+        <v>38100</v>
       </c>
       <c r="E9">
-        <v>151526720000</v>
+        <v>40973690000</v>
       </c>
       <c r="F9">
-        <v>112611990000</v>
+        <v>35371340000</v>
       </c>
       <c r="G9">
-        <v>696439000</v>
+        <v>495456000</v>
       </c>
       <c r="H9">
-        <v>15380200</v>
+        <v>4484500</v>
       </c>
       <c r="I9">
-        <v>264835149000</v>
+        <v>76840486000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-15T09:50:00.000Z</v>
+        <v>2022-12-15T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2282398211000</v>
+        <v>751970550000</v>
       </c>
       <c r="L9">
-        <v>135326600</v>
+        <v>46886100</v>
       </c>
       <c r="M9">
-        <v>-3220500</v>
+        <v>-283000</v>
       </c>
       <c r="N9">
-        <v>-38914730000</v>
+        <v>-5602350000</v>
       </c>
       <c r="O9">
-        <v>32398300</v>
+        <v>7457200</v>
       </c>
       <c r="P9">
-        <v>603290147000</v>
+        <v>141930991000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671098100000</v>
+        <v>1671096600000</v>
       </c>
       <c r="B10">
-        <v>4414200</v>
+        <v>2256300</v>
       </c>
       <c r="C10">
-        <v>6202900</v>
+        <v>2288300</v>
       </c>
       <c r="D10">
-        <v>31800</v>
+        <v>2300</v>
       </c>
       <c r="E10">
-        <v>75499066000</v>
+        <v>36541643000</v>
       </c>
       <c r="F10">
-        <v>124945361000</v>
+        <v>35732127000</v>
       </c>
       <c r="G10">
-        <v>1111402000</v>
+        <v>29580000</v>
       </c>
       <c r="H10">
-        <v>10648900</v>
+        <v>4546900</v>
       </c>
       <c r="I10">
-        <v>201555829000</v>
+        <v>72303350000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-15T09:55:00.000Z</v>
+        <v>2022-12-15T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2483954040000</v>
+        <v>824273900000</v>
       </c>
       <c r="L10">
-        <v>145975500</v>
+        <v>51433000</v>
       </c>
       <c r="M10">
-        <v>1788700</v>
+        <v>32000</v>
       </c>
       <c r="N10">
-        <v>49446295000</v>
+        <v>-809516000</v>
       </c>
       <c r="O10">
-        <v>34187000</v>
+        <v>7489200</v>
       </c>
       <c r="P10">
-        <v>652736442000</v>
+        <v>141121475000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671098400000</v>
+        <v>1671096720000</v>
       </c>
       <c r="B11">
-        <v>3778300</v>
+        <v>2118200</v>
       </c>
       <c r="C11">
-        <v>7092100</v>
+        <v>1722100</v>
       </c>
       <c r="D11">
-        <v>20100</v>
+        <v>8100</v>
       </c>
       <c r="E11">
-        <v>69049983000</v>
+        <v>33986414000</v>
       </c>
       <c r="F11">
-        <v>143627167000</v>
+        <v>30576884000</v>
       </c>
       <c r="G11">
-        <v>433573000</v>
+        <v>168240000</v>
       </c>
       <c r="H11">
-        <v>10890500</v>
+        <v>3848400</v>
       </c>
       <c r="I11">
-        <v>213110723000</v>
+        <v>64731538000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-15T10:00:00.000Z</v>
+        <v>2022-12-15T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2697064763000</v>
+        <v>889005438000</v>
       </c>
       <c r="L11">
-        <v>156866000</v>
+        <v>55281400</v>
       </c>
       <c r="M11">
-        <v>3313800</v>
+        <v>-396100</v>
       </c>
       <c r="N11">
-        <v>74577184000</v>
+        <v>-3409530000</v>
       </c>
       <c r="O11">
-        <v>37500800</v>
+        <v>7093100</v>
       </c>
       <c r="P11">
-        <v>727313626000</v>
+        <v>137711945000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671098700000</v>
+        <v>1671096840000</v>
       </c>
       <c r="B12">
-        <v>6334500</v>
+        <v>2737500</v>
       </c>
       <c r="C12">
-        <v>4806900</v>
+        <v>4053100</v>
       </c>
       <c r="D12">
-        <v>95600</v>
+        <v>3000</v>
       </c>
       <c r="E12">
-        <v>115872464000</v>
+        <v>41189394000</v>
       </c>
       <c r="F12">
-        <v>98882002000</v>
+        <v>73376659000</v>
       </c>
       <c r="G12">
-        <v>1368798000</v>
+        <v>62930000</v>
       </c>
       <c r="H12">
-        <v>11237000</v>
+        <v>6793600</v>
       </c>
       <c r="I12">
-        <v>216123264000</v>
+        <v>114628983000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-15T10:05:00.000Z</v>
+        <v>2022-12-15T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2913188027000</v>
+        <v>1003634421000</v>
       </c>
       <c r="L12">
-        <v>168103000</v>
+        <v>62075000</v>
       </c>
       <c r="M12">
-        <v>-1527600</v>
+        <v>1315600</v>
       </c>
       <c r="N12">
-        <v>-16990462000</v>
+        <v>32187265000</v>
       </c>
       <c r="O12">
-        <v>35973200</v>
+        <v>8408700</v>
       </c>
       <c r="P12">
-        <v>710323164000</v>
+        <v>169899210000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671099000000</v>
+        <v>1671096960000</v>
       </c>
       <c r="B13">
-        <v>5176400</v>
+        <v>1495000</v>
       </c>
       <c r="C13">
-        <v>4299600</v>
+        <v>4110600</v>
       </c>
       <c r="D13">
-        <v>25700</v>
+        <v>9900</v>
       </c>
       <c r="E13">
-        <v>93192829000</v>
+        <v>26293547000</v>
       </c>
       <c r="F13">
-        <v>88396839000</v>
+        <v>71385863000</v>
       </c>
       <c r="G13">
-        <v>742258000</v>
+        <v>160910000</v>
       </c>
       <c r="H13">
-        <v>9501700</v>
+        <v>5615500</v>
       </c>
       <c r="I13">
-        <v>182331926000</v>
+        <v>97840320000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-15T10:10:00.000Z</v>
+        <v>2022-12-15T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>3095519953000</v>
+        <v>1101474741000</v>
       </c>
       <c r="L13">
-        <v>177604700</v>
+        <v>67690500</v>
       </c>
       <c r="M13">
-        <v>-876800</v>
+        <v>2615600</v>
       </c>
       <c r="N13">
-        <v>-4795990000</v>
+        <v>45092316000</v>
       </c>
       <c r="O13">
-        <v>35096400</v>
+        <v>11024300</v>
       </c>
       <c r="P13">
-        <v>705527174000</v>
+        <v>214991526000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671099300000</v>
+        <v>1671097080000</v>
       </c>
       <c r="B14">
-        <v>5815300</v>
+        <v>1675500</v>
       </c>
       <c r="C14">
-        <v>3432100</v>
+        <v>4102300</v>
       </c>
       <c r="D14">
-        <v>72900</v>
+        <v>2300</v>
       </c>
       <c r="E14">
-        <v>97505670000</v>
+        <v>30804234000</v>
       </c>
       <c r="F14">
-        <v>68016826000</v>
+        <v>72627703000</v>
       </c>
       <c r="G14">
-        <v>951296000</v>
+        <v>32642000</v>
       </c>
       <c r="H14">
-        <v>9320300</v>
+        <v>5780100</v>
       </c>
       <c r="I14">
-        <v>166473792000</v>
+        <v>103464579000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-15T10:15:00.000Z</v>
+        <v>2022-12-15T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3261993745000</v>
+        <v>1204939320000</v>
       </c>
       <c r="L14">
-        <v>186925000</v>
+        <v>73470600</v>
       </c>
       <c r="M14">
-        <v>-2383200</v>
+        <v>2426800</v>
       </c>
       <c r="N14">
-        <v>-29488844000</v>
+        <v>41823469000</v>
       </c>
       <c r="O14">
-        <v>32713200</v>
+        <v>13451100</v>
       </c>
       <c r="P14">
-        <v>676038330000</v>
+        <v>256814995000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671099600000</v>
+        <v>1671097200000</v>
       </c>
       <c r="B15">
-        <v>4773800</v>
+        <v>1301300</v>
       </c>
       <c r="C15">
-        <v>3609300</v>
+        <v>4821000</v>
       </c>
       <c r="D15">
-        <v>42100</v>
+        <v>8600</v>
       </c>
       <c r="E15">
-        <v>75517434000</v>
+        <v>25916952000</v>
       </c>
       <c r="F15">
-        <v>78249275000</v>
+        <v>83278362000</v>
       </c>
       <c r="G15">
-        <v>584474000</v>
+        <v>175196000</v>
       </c>
       <c r="H15">
-        <v>8425200</v>
+        <v>6130900</v>
       </c>
       <c r="I15">
-        <v>154351183000</v>
+        <v>109370510000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-15T10:20:00.000Z</v>
+        <v>2022-12-15T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3416344928000</v>
+        <v>1314309830000</v>
       </c>
       <c r="L15">
-        <v>195350200</v>
+        <v>79601500</v>
       </c>
       <c r="M15">
-        <v>-1164500</v>
+        <v>3519700</v>
       </c>
       <c r="N15">
-        <v>2731841000</v>
+        <v>57361410000</v>
       </c>
       <c r="O15">
-        <v>31548700</v>
+        <v>16970800</v>
       </c>
       <c r="P15">
-        <v>678770171000</v>
+        <v>314176405000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671099900000</v>
+        <v>1671097320000</v>
       </c>
       <c r="B16">
-        <v>5463000</v>
+        <v>1496900</v>
       </c>
       <c r="C16">
-        <v>5073400</v>
+        <v>9004200</v>
       </c>
       <c r="D16">
-        <v>35000</v>
+        <v>12100</v>
       </c>
       <c r="E16">
-        <v>98142134000</v>
+        <v>25982821000</v>
       </c>
       <c r="F16">
-        <v>116168773000</v>
+        <v>162159703000</v>
       </c>
       <c r="G16">
-        <v>743921000</v>
+        <v>343214000</v>
       </c>
       <c r="H16">
-        <v>10571400</v>
+        <v>10513200</v>
       </c>
       <c r="I16">
-        <v>215054828000</v>
+        <v>188485738000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-15T10:25:00.000Z</v>
+        <v>2022-12-15T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3631399756000</v>
+        <v>1502795568000</v>
       </c>
       <c r="L16">
-        <v>205921600</v>
+        <v>90114700</v>
       </c>
       <c r="M16">
-        <v>-389600</v>
+        <v>7507300</v>
       </c>
       <c r="N16">
-        <v>18026639000</v>
+        <v>136176882000</v>
       </c>
       <c r="O16">
-        <v>31159100</v>
+        <v>24478100</v>
       </c>
       <c r="P16">
-        <v>696796810000</v>
+        <v>450353287000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671100200000</v>
+        <v>1671097440000</v>
       </c>
       <c r="B17">
-        <v>10701600</v>
+        <v>2105200</v>
       </c>
       <c r="C17">
-        <v>2463000</v>
+        <v>11825700</v>
       </c>
       <c r="D17">
-        <v>19200</v>
+        <v>163800</v>
       </c>
       <c r="E17">
-        <v>191213800000</v>
+        <v>38519483000</v>
       </c>
       <c r="F17">
-        <v>48913707000</v>
+        <v>206756338000</v>
       </c>
       <c r="G17">
-        <v>408748000</v>
+        <v>2005129000</v>
       </c>
       <c r="H17">
-        <v>13183800</v>
+        <v>14094700</v>
       </c>
       <c r="I17">
-        <v>240536255000</v>
+        <v>247280950000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-15T10:30:00.000Z</v>
+        <v>2022-12-15T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3871936011000</v>
+        <v>1750076518000</v>
       </c>
       <c r="L17">
-        <v>219105400</v>
+        <v>104209400</v>
       </c>
       <c r="M17">
-        <v>-8238600</v>
+        <v>9720500</v>
       </c>
       <c r="N17">
-        <v>-142300093000</v>
+        <v>168236855000</v>
       </c>
       <c r="O17">
-        <v>22920500</v>
+        <v>34198600</v>
       </c>
       <c r="P17">
-        <v>554496717000</v>
+        <v>618590142000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671100500000</v>
+        <v>1671097560000</v>
       </c>
       <c r="B18">
-        <v>8715300</v>
+        <v>2995700</v>
       </c>
       <c r="C18">
-        <v>3477500</v>
+        <v>5884300</v>
       </c>
       <c r="D18">
-        <v>28300</v>
+        <v>18400</v>
       </c>
       <c r="E18">
-        <v>144846335000</v>
+        <v>52396344000</v>
       </c>
       <c r="F18">
-        <v>65786197000</v>
+        <v>100938580000</v>
       </c>
       <c r="G18">
-        <v>326312000</v>
+        <v>284644000</v>
       </c>
       <c r="H18">
-        <v>12221100</v>
+        <v>8898400</v>
       </c>
       <c r="I18">
-        <v>210958844000</v>
+        <v>153619568000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-15T10:35:00.000Z</v>
+        <v>2022-12-15T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>4082894855000</v>
+        <v>1903696086000</v>
       </c>
       <c r="L18">
-        <v>231326500</v>
+        <v>113107800</v>
       </c>
       <c r="M18">
-        <v>-5237800</v>
+        <v>2888600</v>
       </c>
       <c r="N18">
-        <v>-79060138000</v>
+        <v>48542236000</v>
       </c>
       <c r="O18">
-        <v>17682700</v>
+        <v>37087200</v>
       </c>
       <c r="P18">
-        <v>475436579000</v>
+        <v>667132378000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671100800000</v>
+        <v>1671097680000</v>
       </c>
       <c r="B19">
-        <v>4871200</v>
+        <v>4148800</v>
       </c>
       <c r="C19">
-        <v>4262200</v>
+        <v>2680400</v>
       </c>
       <c r="D19">
-        <v>38400</v>
+        <v>9400</v>
       </c>
       <c r="E19">
-        <v>78960740000</v>
+        <v>69298026000</v>
       </c>
       <c r="F19">
-        <v>79869417000</v>
+        <v>44370525000</v>
       </c>
       <c r="G19">
-        <v>690331000</v>
+        <v>198425000</v>
       </c>
       <c r="H19">
-        <v>9171800</v>
+        <v>6838600</v>
       </c>
       <c r="I19">
-        <v>159520488000</v>
+        <v>113866976000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-15T10:40:00.000Z</v>
+        <v>2022-12-15T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4242415343000</v>
+        <v>2017563062000</v>
       </c>
       <c r="L19">
-        <v>240498300</v>
+        <v>119946400</v>
       </c>
       <c r="M19">
-        <v>-609000</v>
+        <v>-1468400</v>
       </c>
       <c r="N19">
-        <v>908677000</v>
+        <v>-24927501000</v>
       </c>
       <c r="O19">
-        <v>17073700</v>
+        <v>35618800</v>
       </c>
       <c r="P19">
-        <v>476345256000</v>
+        <v>642204877000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671101100000</v>
+        <v>1671097800000</v>
       </c>
       <c r="B20">
-        <v>2935100</v>
+        <v>4937900</v>
       </c>
       <c r="C20">
-        <v>3551200</v>
+        <v>2098400</v>
       </c>
       <c r="D20">
-        <v>6500</v>
+        <v>24100</v>
       </c>
       <c r="E20">
-        <v>52864159000</v>
+        <v>80770143000</v>
       </c>
       <c r="F20">
-        <v>68803217000</v>
+        <v>39482405000</v>
       </c>
       <c r="G20">
-        <v>165807000</v>
+        <v>248001000</v>
       </c>
       <c r="H20">
-        <v>6492800</v>
+        <v>7060400</v>
       </c>
       <c r="I20">
-        <v>121833183000</v>
+        <v>120500549000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-15T10:45:00.000Z</v>
+        <v>2022-12-15T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4364248526000</v>
+        <v>2138063611000</v>
       </c>
       <c r="L20">
-        <v>246991100</v>
+        <v>127006800</v>
       </c>
       <c r="M20">
-        <v>616100</v>
+        <v>-2839500</v>
       </c>
       <c r="N20">
-        <v>15939058000</v>
+        <v>-41287738000</v>
       </c>
       <c r="O20">
-        <v>17689800</v>
+        <v>32779300</v>
       </c>
       <c r="P20">
-        <v>492284314000</v>
+        <v>600917139000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671101400000</v>
+        <v>1671097920000</v>
       </c>
       <c r="B21">
-        <v>3226800</v>
+        <v>3345800</v>
       </c>
       <c r="C21">
-        <v>2312200</v>
+        <v>2968600</v>
       </c>
       <c r="D21">
-        <v>4400</v>
+        <v>16600</v>
       </c>
       <c r="E21">
-        <v>54937263000</v>
+        <v>53582992000</v>
       </c>
       <c r="F21">
-        <v>47506190000</v>
+        <v>54414817000</v>
       </c>
       <c r="G21">
-        <v>166152000</v>
+        <v>240015000</v>
       </c>
       <c r="H21">
-        <v>5543400</v>
+        <v>6331000</v>
       </c>
       <c r="I21">
-        <v>102609605000</v>
+        <v>108237824000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-15T10:50:00.000Z</v>
+        <v>2022-12-15T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4466858131000</v>
+        <v>2246301435000</v>
       </c>
       <c r="L21">
-        <v>252534500</v>
+        <v>133337800</v>
       </c>
       <c r="M21">
-        <v>-914600</v>
+        <v>-377200</v>
       </c>
       <c r="N21">
-        <v>-7431073000</v>
+        <v>831825000</v>
       </c>
       <c r="O21">
-        <v>16775200</v>
+        <v>32402100</v>
       </c>
       <c r="P21">
-        <v>484853241000</v>
+        <v>601748964000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671101700000</v>
+        <v>1671098040000</v>
       </c>
       <c r="B22">
-        <v>1563700</v>
+        <v>1766400</v>
       </c>
       <c r="C22">
-        <v>3111400</v>
+        <v>1694800</v>
       </c>
       <c r="D22">
-        <v>2300</v>
+        <v>15400</v>
       </c>
       <c r="E22">
-        <v>31443796000</v>
+        <v>30266737000</v>
       </c>
       <c r="F22">
-        <v>57286536000</v>
+        <v>31287572000</v>
       </c>
       <c r="G22">
-        <v>15285000</v>
+        <v>420643000</v>
       </c>
       <c r="H22">
-        <v>4677400</v>
+        <v>3476600</v>
       </c>
       <c r="I22">
-        <v>88745617000</v>
+        <v>61974952000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-15T10:55:00.000Z</v>
+        <v>2022-12-15T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4555603748000</v>
+        <v>2308276387000</v>
       </c>
       <c r="L22">
-        <v>257211900</v>
+        <v>136814400</v>
       </c>
       <c r="M22">
-        <v>1547700</v>
+        <v>-71600</v>
       </c>
       <c r="N22">
-        <v>25842740000</v>
+        <v>1020835000</v>
       </c>
       <c r="O22">
-        <v>18322900</v>
+        <v>32330500</v>
       </c>
       <c r="P22">
-        <v>510695981000</v>
+        <v>602769799000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671102000000</v>
+        <v>1671098160000</v>
       </c>
       <c r="B23">
-        <v>2715100</v>
+        <v>1953400</v>
       </c>
       <c r="C23">
-        <v>1947800</v>
+        <v>2058500</v>
       </c>
       <c r="D23">
-        <v>50400</v>
+        <v>3900</v>
       </c>
       <c r="E23">
-        <v>43796790000</v>
+        <v>32208475000</v>
       </c>
       <c r="F23">
-        <v>38574940000</v>
+        <v>33089882000</v>
       </c>
       <c r="G23">
-        <v>577028000</v>
+        <v>225870000</v>
       </c>
       <c r="H23">
-        <v>4713300</v>
+        <v>4015800</v>
       </c>
       <c r="I23">
-        <v>82948758000</v>
+        <v>65524227000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-15T11:00:00.000Z</v>
+        <v>2022-12-15T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4638552506000</v>
+        <v>2373800614000</v>
       </c>
       <c r="L23">
-        <v>261925200</v>
+        <v>140830200</v>
       </c>
       <c r="M23">
-        <v>-767300</v>
+        <v>105100</v>
       </c>
       <c r="N23">
-        <v>-5221850000</v>
+        <v>881407000</v>
       </c>
       <c r="O23">
-        <v>17555600</v>
+        <v>32435600</v>
       </c>
       <c r="P23">
-        <v>505474131000</v>
+        <v>603651206000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671102300000</v>
+        <v>1671098280000</v>
       </c>
       <c r="B24">
-        <v>2754900</v>
+        <v>1686200</v>
       </c>
       <c r="C24">
-        <v>2144000</v>
+        <v>3437600</v>
       </c>
       <c r="D24">
-        <v>4800</v>
+        <v>21500</v>
       </c>
       <c r="E24">
-        <v>50005799000</v>
+        <v>30197439000</v>
       </c>
       <c r="F24">
-        <v>39370065000</v>
+        <v>79282675000</v>
       </c>
       <c r="G24">
-        <v>78551000</v>
+        <v>673312000</v>
       </c>
       <c r="H24">
-        <v>4903700</v>
+        <v>5145300</v>
       </c>
       <c r="I24">
-        <v>89454415000</v>
+        <v>110153426000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-15T11:05:00.000Z</v>
+        <v>2022-12-15T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4728006921000</v>
+        <v>2483954040000</v>
       </c>
       <c r="L24">
-        <v>266828900</v>
+        <v>145975500</v>
       </c>
       <c r="M24">
-        <v>-610900</v>
+        <v>1751400</v>
       </c>
       <c r="N24">
-        <v>-10635734000</v>
+        <v>49085236000</v>
       </c>
       <c r="O24">
-        <v>16944700</v>
+        <v>34187000</v>
       </c>
       <c r="P24">
-        <v>494838397000</v>
+        <v>652736442000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671102600000</v>
+        <v>1671098400000</v>
       </c>
       <c r="B25">
-        <v>3835000</v>
+        <v>1316300</v>
       </c>
       <c r="C25">
-        <v>1743400</v>
+        <v>2733000</v>
       </c>
       <c r="D25">
-        <v>16100</v>
+        <v>18700</v>
       </c>
       <c r="E25">
-        <v>65466931000</v>
+        <v>24398318000</v>
       </c>
       <c r="F25">
-        <v>35680197000</v>
+        <v>57369183000</v>
       </c>
       <c r="G25">
-        <v>397692000</v>
+        <v>389978000</v>
       </c>
       <c r="H25">
-        <v>5594500</v>
+        <v>4068000</v>
       </c>
       <c r="I25">
-        <v>101544820000</v>
+        <v>82157479000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-15T11:10:00.000Z</v>
+        <v>2022-12-15T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4829551741000</v>
+        <v>2566111519000</v>
       </c>
       <c r="L25">
-        <v>272423400</v>
+        <v>150043500</v>
       </c>
       <c r="M25">
-        <v>-2091600</v>
+        <v>1416700</v>
       </c>
       <c r="N25">
-        <v>-29786734000</v>
+        <v>32970865000</v>
       </c>
       <c r="O25">
-        <v>14853100</v>
+        <v>35603700</v>
       </c>
       <c r="P25">
-        <v>465051663000</v>
+        <v>685707307000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671102900000</v>
+        <v>1671098520000</v>
       </c>
       <c r="B26">
-        <v>2292600</v>
+        <v>1475100</v>
       </c>
       <c r="C26">
-        <v>2836200</v>
+        <v>2802300</v>
       </c>
       <c r="D26">
-        <v>9400</v>
+        <v>1300</v>
       </c>
       <c r="E26">
-        <v>39280242000</v>
+        <v>26618326000</v>
       </c>
       <c r="F26">
-        <v>59900526000</v>
+        <v>54812963000</v>
       </c>
       <c r="G26">
-        <v>127406000</v>
+        <v>32355000</v>
       </c>
       <c r="H26">
-        <v>5138200</v>
+        <v>4278700</v>
       </c>
       <c r="I26">
-        <v>99308174000</v>
+        <v>81463644000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-15T11:15:00.000Z</v>
+        <v>2022-12-15T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4928859915000</v>
+        <v>2647575163000</v>
       </c>
       <c r="L26">
-        <v>277561600</v>
+        <v>154322200</v>
       </c>
       <c r="M26">
-        <v>543600</v>
+        <v>1327200</v>
       </c>
       <c r="N26">
-        <v>20620284000</v>
+        <v>28194637000</v>
       </c>
       <c r="O26">
-        <v>15396700</v>
+        <v>36930900</v>
       </c>
       <c r="P26">
-        <v>485671947000</v>
+        <v>713901944000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671103200000</v>
+        <v>1671098640000</v>
       </c>
       <c r="B27">
-        <v>2820900</v>
+        <v>2687300</v>
       </c>
       <c r="C27">
-        <v>2193000</v>
+        <v>2756000</v>
       </c>
       <c r="D27">
-        <v>19400</v>
+        <v>55300</v>
       </c>
       <c r="E27">
-        <v>49593858000</v>
+        <v>47896316000</v>
       </c>
       <c r="F27">
-        <v>35095127000</v>
+        <v>54372803000</v>
       </c>
       <c r="G27">
-        <v>968992000</v>
+        <v>703998000</v>
       </c>
       <c r="H27">
-        <v>5033300</v>
+        <v>5498600</v>
       </c>
       <c r="I27">
-        <v>85657977000</v>
+        <v>102973117000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-15T11:20:00.000Z</v>
+        <v>2022-12-15T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5014517892000</v>
+        <v>2750548280000</v>
       </c>
       <c r="L27">
-        <v>282594900</v>
+        <v>159820800</v>
       </c>
       <c r="M27">
-        <v>-627900</v>
+        <v>68700</v>
       </c>
       <c r="N27">
-        <v>-14498731000</v>
+        <v>6476487000</v>
       </c>
       <c r="O27">
-        <v>14768800</v>
+        <v>36999600</v>
       </c>
       <c r="P27">
-        <v>471173216000</v>
+        <v>720378431000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671103500000</v>
+        <v>1671098760000</v>
       </c>
       <c r="B28">
-        <v>3816600</v>
+        <v>2796700</v>
       </c>
       <c r="C28">
-        <v>1487500</v>
+        <v>1723500</v>
       </c>
       <c r="D28">
-        <v>7900</v>
+        <v>16900</v>
       </c>
       <c r="E28">
-        <v>69294155000</v>
+        <v>54517608000</v>
       </c>
       <c r="F28">
-        <v>25026389000</v>
+        <v>34203515000</v>
       </c>
       <c r="G28">
-        <v>224995000</v>
+        <v>154280000</v>
       </c>
       <c r="H28">
-        <v>5312000</v>
+        <v>4537100</v>
       </c>
       <c r="I28">
-        <v>94545539000</v>
+        <v>88875403000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-15T11:25:00.000Z</v>
+        <v>2022-12-15T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5109063431000</v>
+        <v>2839423683000</v>
       </c>
       <c r="L28">
-        <v>287906900</v>
+        <v>164357900</v>
       </c>
       <c r="M28">
-        <v>-2329100</v>
+        <v>-1073200</v>
       </c>
       <c r="N28">
-        <v>-44267766000</v>
+        <v>-20314093000</v>
       </c>
       <c r="O28">
-        <v>12439700</v>
+        <v>35926400</v>
       </c>
       <c r="P28">
-        <v>426905450000</v>
+        <v>700064338000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671103800000</v>
+        <v>1671098880000</v>
       </c>
       <c r="B29">
-        <v>3100</v>
+        <v>1837400</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>1884200</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="E29">
-        <v>35495000</v>
+        <v>31491879000</v>
       </c>
       <c r="F29">
-        <v>2335000</v>
+        <v>41750705000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>521760000</v>
       </c>
       <c r="H29">
-        <v>3200</v>
+        <v>3745100</v>
       </c>
       <c r="I29">
-        <v>37830000</v>
+        <v>73764344000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-15T11:30:00.000Z</v>
+        <v>2022-12-15T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5109101261000</v>
+        <v>2913188027000</v>
       </c>
       <c r="L29">
-        <v>287910100</v>
+        <v>168103000</v>
       </c>
       <c r="M29">
-        <v>-3000</v>
+        <v>46800</v>
       </c>
       <c r="N29">
-        <v>-33160000</v>
+        <v>10258826000</v>
       </c>
       <c r="O29">
-        <v>12436700</v>
+        <v>35973200</v>
       </c>
       <c r="P29">
-        <v>426872290000</v>
+        <v>710323164000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671109200000</v>
+        <v>1671099000000</v>
       </c>
       <c r="B30">
-        <v>15296200</v>
+        <v>1708700</v>
       </c>
       <c r="C30">
-        <v>7704700</v>
+        <v>2407300</v>
       </c>
       <c r="D30">
-        <v>539100</v>
+        <v>18800</v>
       </c>
       <c r="E30">
-        <v>238008987000</v>
+        <v>32341125000</v>
       </c>
       <c r="F30">
-        <v>133351951000</v>
+        <v>52010341000</v>
       </c>
       <c r="G30">
-        <v>6944773000</v>
+        <v>567306000</v>
       </c>
       <c r="H30">
-        <v>23540000</v>
+        <v>4134800</v>
       </c>
       <c r="I30">
-        <v>378305711000</v>
+        <v>84918772000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-15T13:00:00.000Z</v>
+        <v>2022-12-15T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5487406972000</v>
+        <v>2998106799000</v>
       </c>
       <c r="L30">
-        <v>311450100</v>
+        <v>172237800</v>
       </c>
       <c r="M30">
-        <v>-7591500</v>
+        <v>698600</v>
       </c>
       <c r="N30">
-        <v>-104657036000</v>
+        <v>19669216000</v>
       </c>
       <c r="O30">
-        <v>4845200</v>
+        <v>36671800</v>
       </c>
       <c r="P30">
-        <v>322215254000</v>
+        <v>729992380000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671109500000</v>
+        <v>1671099120000</v>
       </c>
       <c r="B31">
-        <v>6828800</v>
+        <v>2001700</v>
       </c>
       <c r="C31">
-        <v>7453800</v>
+        <v>1160700</v>
       </c>
       <c r="D31">
-        <v>29000</v>
+        <v>2600</v>
       </c>
       <c r="E31">
-        <v>112203349000</v>
+        <v>37009212000</v>
       </c>
       <c r="F31">
-        <v>136265408000</v>
+        <v>20864539000</v>
       </c>
       <c r="G31">
-        <v>405002000</v>
+        <v>49262000</v>
       </c>
       <c r="H31">
-        <v>14311600</v>
+        <v>3165000</v>
       </c>
       <c r="I31">
-        <v>248873759000</v>
+        <v>57923013000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-15T13:05:00.000Z</v>
+        <v>2022-12-15T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5736280731000</v>
+        <v>3056029812000</v>
       </c>
       <c r="L31">
-        <v>325761700</v>
+        <v>175402800</v>
       </c>
       <c r="M31">
-        <v>625000</v>
+        <v>-841000</v>
       </c>
       <c r="N31">
-        <v>24062059000</v>
+        <v>-16144673000</v>
       </c>
       <c r="O31">
-        <v>5470200</v>
+        <v>35830800</v>
       </c>
       <c r="P31">
-        <v>346277313000</v>
+        <v>713847707000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671109800000</v>
+        <v>1671099240000</v>
       </c>
       <c r="B32">
-        <v>6652800</v>
+        <v>2564600</v>
       </c>
       <c r="C32">
-        <v>4315500</v>
+        <v>1665400</v>
       </c>
       <c r="D32">
-        <v>102300</v>
+        <v>48100</v>
       </c>
       <c r="E32">
-        <v>108126147000</v>
+        <v>43977643000</v>
       </c>
       <c r="F32">
-        <v>68832019000</v>
+        <v>34045106000</v>
       </c>
       <c r="G32">
-        <v>788832000</v>
+        <v>754847000</v>
       </c>
       <c r="H32">
-        <v>11070600</v>
+        <v>4278100</v>
       </c>
       <c r="I32">
-        <v>177746998000</v>
+        <v>78777596000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-15T13:10:00.000Z</v>
+        <v>2022-12-15T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5914027729000</v>
+        <v>3134807408000</v>
       </c>
       <c r="L32">
-        <v>336832300</v>
+        <v>179680900</v>
       </c>
       <c r="M32">
-        <v>-2337300</v>
+        <v>-899200</v>
       </c>
       <c r="N32">
-        <v>-39294128000</v>
+        <v>-9932537000</v>
       </c>
       <c r="O32">
-        <v>3132900</v>
+        <v>34931600</v>
       </c>
       <c r="P32">
-        <v>306983185000</v>
+        <v>703915170000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671110100000</v>
+        <v>1671099360000</v>
       </c>
       <c r="B33">
-        <v>4163300</v>
+        <v>2500100</v>
       </c>
       <c r="C33">
-        <v>9842300</v>
+        <v>1405900</v>
       </c>
       <c r="D33">
-        <v>66700</v>
+        <v>16100</v>
       </c>
       <c r="E33">
-        <v>65474789000</v>
+        <v>40860858000</v>
       </c>
       <c r="F33">
-        <v>175289064000</v>
+        <v>29623895000</v>
       </c>
       <c r="G33">
-        <v>1426886000</v>
+        <v>116216000</v>
       </c>
       <c r="H33">
-        <v>14072300</v>
+        <v>3922100</v>
       </c>
       <c r="I33">
-        <v>242190739000</v>
+        <v>70600969000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-15T13:15:00.000Z</v>
+        <v>2022-12-15T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6156218468000</v>
+        <v>3205408377000</v>
       </c>
       <c r="L33">
-        <v>350904600</v>
+        <v>183603000</v>
       </c>
       <c r="M33">
-        <v>5679000</v>
+        <v>-1094200</v>
       </c>
       <c r="N33">
-        <v>109814275000</v>
+        <v>-11236963000</v>
       </c>
       <c r="O33">
-        <v>8811900</v>
+        <v>33837400</v>
       </c>
       <c r="P33">
-        <v>416797460000</v>
+        <v>692678207000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671110400000</v>
+        <v>1671099480000</v>
       </c>
       <c r="B34">
-        <v>5269500</v>
+        <v>2216600</v>
       </c>
       <c r="C34">
-        <v>8683600</v>
+        <v>1092400</v>
       </c>
       <c r="D34">
-        <v>221200</v>
+        <v>13000</v>
       </c>
       <c r="E34">
-        <v>92905661000</v>
+        <v>36509661000</v>
       </c>
       <c r="F34">
-        <v>153510387000</v>
+        <v>19869784000</v>
       </c>
       <c r="G34">
-        <v>2999796000</v>
+        <v>205923000</v>
       </c>
       <c r="H34">
-        <v>14174300</v>
+        <v>3322000</v>
       </c>
       <c r="I34">
-        <v>249415844000</v>
+        <v>56585368000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-15T13:20:00.000Z</v>
+        <v>2022-12-15T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6405634312000</v>
+        <v>3261993745000</v>
       </c>
       <c r="L34">
-        <v>365078900</v>
+        <v>186925000</v>
       </c>
       <c r="M34">
-        <v>3414100</v>
+        <v>-1124200</v>
       </c>
       <c r="N34">
-        <v>60604726000</v>
+        <v>-16639877000</v>
       </c>
       <c r="O34">
-        <v>12226000</v>
+        <v>32713200</v>
       </c>
       <c r="P34">
-        <v>477402186000</v>
+        <v>676038330000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671110700000</v>
+        <v>1671099600000</v>
       </c>
       <c r="B35">
-        <v>5335400</v>
+        <v>1915900</v>
       </c>
       <c r="C35">
-        <v>3841100</v>
+        <v>1252200</v>
       </c>
       <c r="D35">
-        <v>26300</v>
+        <v>5700</v>
       </c>
       <c r="E35">
-        <v>94370271000</v>
+        <v>30127747000</v>
       </c>
       <c r="F35">
-        <v>63299072000</v>
+        <v>24855003000</v>
       </c>
       <c r="G35">
-        <v>338098000</v>
+        <v>136050000</v>
       </c>
       <c r="H35">
-        <v>9202800</v>
+        <v>3173800</v>
       </c>
       <c r="I35">
-        <v>158007441000</v>
+        <v>55118800000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-15T13:25:00.000Z</v>
+        <v>2022-12-15T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6563641753000</v>
+        <v>3317112545000</v>
       </c>
       <c r="L35">
-        <v>374281700</v>
+        <v>190098800</v>
       </c>
       <c r="M35">
-        <v>-1494300</v>
+        <v>-663700</v>
       </c>
       <c r="N35">
-        <v>-31071199000</v>
+        <v>-5272744000</v>
       </c>
       <c r="O35">
-        <v>10731700</v>
+        <v>32049500</v>
       </c>
       <c r="P35">
-        <v>446330987000</v>
+        <v>670765586000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671111000000</v>
+        <v>1671099720000</v>
       </c>
       <c r="B36">
-        <v>6279000</v>
+        <v>1931900</v>
       </c>
       <c r="C36">
-        <v>4926200</v>
+        <v>1570700</v>
       </c>
       <c r="D36">
-        <v>15300</v>
+        <v>27000</v>
       </c>
       <c r="E36">
-        <v>111891412000</v>
+        <v>32060978000</v>
       </c>
       <c r="F36">
-        <v>78959933000</v>
+        <v>34862501000</v>
       </c>
       <c r="G36">
-        <v>303898000</v>
+        <v>284978000</v>
       </c>
       <c r="H36">
-        <v>11220500</v>
+        <v>3529600</v>
       </c>
       <c r="I36">
-        <v>191155243000</v>
+        <v>67208457000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-15T13:30:00.000Z</v>
+        <v>2022-12-15T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>6754796996000</v>
+        <v>3384321002000</v>
       </c>
       <c r="L36">
-        <v>385502200</v>
+        <v>193628400</v>
       </c>
       <c r="M36">
-        <v>-1352800</v>
+        <v>-361200</v>
       </c>
       <c r="N36">
-        <v>-32931479000</v>
+        <v>2801523000</v>
       </c>
       <c r="O36">
-        <v>9378900</v>
+        <v>31688300</v>
       </c>
       <c r="P36">
-        <v>413399508000</v>
+        <v>673567109000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671111300000</v>
+        <v>1671099840000</v>
       </c>
       <c r="B37">
-        <v>5316000</v>
+        <v>2323600</v>
       </c>
       <c r="C37">
-        <v>15944700</v>
+        <v>2273800</v>
       </c>
       <c r="D37">
-        <v>72600</v>
+        <v>15900</v>
       </c>
       <c r="E37">
-        <v>89696307000</v>
+        <v>35356900000</v>
       </c>
       <c r="F37">
-        <v>258116888000</v>
+        <v>52214480000</v>
       </c>
       <c r="G37">
-        <v>1139111000</v>
+        <v>397870000</v>
       </c>
       <c r="H37">
-        <v>21333300</v>
+        <v>4613300</v>
       </c>
       <c r="I37">
-        <v>348952306000</v>
+        <v>87969250000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-15T13:35:00.000Z</v>
+        <v>2022-12-15T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7103749302000</v>
+        <v>3472290252000</v>
       </c>
       <c r="L37">
-        <v>406835500</v>
+        <v>198241700</v>
       </c>
       <c r="M37">
-        <v>10628700</v>
+        <v>-49800</v>
       </c>
       <c r="N37">
-        <v>168420581000</v>
+        <v>16857580000</v>
       </c>
       <c r="O37">
-        <v>20007600</v>
+        <v>31638500</v>
       </c>
       <c r="P37">
-        <v>581820089000</v>
+        <v>690424689000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671111600000</v>
+        <v>1671099960000</v>
       </c>
       <c r="B38">
-        <v>7641700</v>
+        <v>1819900</v>
       </c>
       <c r="C38">
-        <v>19572700</v>
+        <v>2331800</v>
       </c>
       <c r="D38">
-        <v>85200</v>
+        <v>18400</v>
       </c>
       <c r="E38">
-        <v>126674880000</v>
+        <v>27026758000</v>
       </c>
       <c r="F38">
-        <v>336352351000</v>
+        <v>53465875000</v>
       </c>
       <c r="G38">
-        <v>957118000</v>
+        <v>295335000</v>
       </c>
       <c r="H38">
-        <v>27299600</v>
+        <v>4170100</v>
       </c>
       <c r="I38">
-        <v>463984349000</v>
+        <v>80787968000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-15T13:40:00.000Z</v>
+        <v>2022-12-15T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>7567733651000</v>
+        <v>3553078220000</v>
       </c>
       <c r="L38">
-        <v>434135100</v>
+        <v>202411800</v>
       </c>
       <c r="M38">
-        <v>11931000</v>
+        <v>511900</v>
       </c>
       <c r="N38">
-        <v>209677471000</v>
+        <v>26439117000</v>
       </c>
       <c r="O38">
-        <v>31938600</v>
+        <v>32150400</v>
       </c>
       <c r="P38">
-        <v>791497560000</v>
+        <v>716863806000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671111900000</v>
+        <v>1671100080000</v>
       </c>
       <c r="B39">
-        <v>6111700</v>
+        <v>2245500</v>
       </c>
       <c r="C39">
-        <v>5550500</v>
+        <v>1254200</v>
       </c>
       <c r="D39">
-        <v>33800</v>
+        <v>10100</v>
       </c>
       <c r="E39">
-        <v>109392195000</v>
+        <v>49087185000</v>
       </c>
       <c r="F39">
-        <v>106090003000</v>
+        <v>29020189000</v>
       </c>
       <c r="G39">
-        <v>415955000</v>
+        <v>214162000</v>
       </c>
       <c r="H39">
-        <v>11696000</v>
+        <v>3509800</v>
       </c>
       <c r="I39">
-        <v>215898153000</v>
+        <v>78321536000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-15T13:45:00.000Z</v>
+        <v>2022-12-15T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>7783631804000</v>
+        <v>3631399756000</v>
       </c>
       <c r="L39">
-        <v>445831100</v>
+        <v>205921600</v>
       </c>
       <c r="M39">
-        <v>-561200</v>
+        <v>-991300</v>
       </c>
       <c r="N39">
-        <v>-3302192000</v>
+        <v>-20066996000</v>
       </c>
       <c r="O39">
-        <v>31377400</v>
+        <v>31159100</v>
       </c>
       <c r="P39">
-        <v>788195368000</v>
+        <v>696796810000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671112200000</v>
+        <v>1671100200000</v>
       </c>
       <c r="B40">
-        <v>4370500</v>
+        <v>4071900</v>
       </c>
       <c r="C40">
-        <v>10246700</v>
+        <v>1168100</v>
       </c>
       <c r="D40">
-        <v>103700</v>
+        <v>4100</v>
       </c>
       <c r="E40">
-        <v>78758397000</v>
+        <v>72076554000</v>
       </c>
       <c r="F40">
-        <v>193156054000</v>
+        <v>21154038000</v>
       </c>
       <c r="G40">
-        <v>1967037000</v>
+        <v>112360000</v>
       </c>
       <c r="H40">
-        <v>14720900</v>
+        <v>5244100</v>
       </c>
       <c r="I40">
-        <v>273881488000</v>
+        <v>93342952000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-15T13:50:00.000Z</v>
+        <v>2022-12-15T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8057513292000</v>
+        <v>3724742708000</v>
       </c>
       <c r="L40">
-        <v>460552000</v>
+        <v>211165700</v>
       </c>
       <c r="M40">
-        <v>5876200</v>
+        <v>-2903800</v>
       </c>
       <c r="N40">
-        <v>114397657000</v>
+        <v>-50922516000</v>
       </c>
       <c r="O40">
-        <v>37253600</v>
+        <v>28255300</v>
       </c>
       <c r="P40">
-        <v>902593025000</v>
+        <v>645874294000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671112500000</v>
+        <v>1671100320000</v>
       </c>
       <c r="B41">
-        <v>5300900</v>
+        <v>4114500</v>
       </c>
       <c r="C41">
-        <v>16856200</v>
+        <v>813800</v>
       </c>
       <c r="D41">
-        <v>63700</v>
+        <v>6500</v>
       </c>
       <c r="E41">
-        <v>92821060000</v>
+        <v>74439192000</v>
       </c>
       <c r="F41">
-        <v>272153809000</v>
+        <v>17765740000</v>
       </c>
       <c r="G41">
-        <v>1170394000</v>
+        <v>85428000</v>
       </c>
       <c r="H41">
-        <v>22220800</v>
+        <v>4934800</v>
       </c>
       <c r="I41">
-        <v>366145263000</v>
+        <v>92290360000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-15T13:55:00.000Z</v>
+        <v>2022-12-15T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8423658555000</v>
+        <v>3817033068000</v>
       </c>
       <c r="L41">
-        <v>482772800</v>
+        <v>216100500</v>
       </c>
       <c r="M41">
-        <v>11555300</v>
+        <v>-3300700</v>
       </c>
       <c r="N41">
-        <v>179332749000</v>
+        <v>-56673452000</v>
       </c>
       <c r="O41">
-        <v>48808900</v>
+        <v>24954600</v>
       </c>
       <c r="P41">
-        <v>1081925774000</v>
+        <v>589200842000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671112800000</v>
+        <v>1671100440000</v>
       </c>
       <c r="B42">
-        <v>11817400</v>
+        <v>4383500</v>
       </c>
       <c r="C42">
-        <v>5590300</v>
+        <v>1284300</v>
       </c>
       <c r="D42">
-        <v>45300</v>
+        <v>13200</v>
       </c>
       <c r="E42">
-        <v>212138853000</v>
+        <v>72750316000</v>
       </c>
       <c r="F42">
-        <v>96854679000</v>
+        <v>25613213000</v>
       </c>
       <c r="G42">
-        <v>1063601000</v>
+        <v>253280000</v>
       </c>
       <c r="H42">
-        <v>17453000</v>
+        <v>5681000</v>
       </c>
       <c r="I42">
-        <v>310057133000</v>
+        <v>98616809000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-15T14:00:00.000Z</v>
+        <v>2022-12-15T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>8733715688000</v>
+        <v>3915649877000</v>
       </c>
       <c r="L42">
-        <v>500225800</v>
+        <v>221781500</v>
       </c>
       <c r="M42">
-        <v>-6227100</v>
+        <v>-3099200</v>
       </c>
       <c r="N42">
-        <v>-115284174000</v>
+        <v>-47137103000</v>
       </c>
       <c r="O42">
-        <v>42581800</v>
+        <v>21855400</v>
       </c>
       <c r="P42">
-        <v>966641600000</v>
+        <v>542063739000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671113100000</v>
+        <v>1671100560000</v>
       </c>
       <c r="B43">
-        <v>5578100</v>
+        <v>3382600</v>
       </c>
       <c r="C43">
-        <v>4234800</v>
+        <v>1330800</v>
       </c>
       <c r="D43">
-        <v>28400</v>
+        <v>10200</v>
       </c>
       <c r="E43">
-        <v>103223382000</v>
+        <v>56785929000</v>
       </c>
       <c r="F43">
-        <v>77658460000</v>
+        <v>23555076000</v>
       </c>
       <c r="G43">
-        <v>357845000</v>
+        <v>99925000</v>
       </c>
       <c r="H43">
-        <v>9841300</v>
+        <v>4723600</v>
       </c>
       <c r="I43">
-        <v>181239687000</v>
+        <v>80440930000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-15T14:05:00.000Z</v>
+        <v>2022-12-15T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>8914955375000</v>
+        <v>3996090807000</v>
       </c>
       <c r="L43">
-        <v>510067100</v>
+        <v>226505100</v>
       </c>
       <c r="M43">
-        <v>-1343300</v>
+        <v>-2051800</v>
       </c>
       <c r="N43">
-        <v>-25564922000</v>
+        <v>-33230853000</v>
       </c>
       <c r="O43">
-        <v>41238500</v>
+        <v>19803600</v>
       </c>
       <c r="P43">
-        <v>941076678000</v>
+        <v>508832886000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671113400000</v>
+        <v>1671100680000</v>
       </c>
       <c r="B44">
-        <v>11693800</v>
+        <v>3464400</v>
       </c>
       <c r="C44">
-        <v>4523700</v>
+        <v>1343500</v>
       </c>
       <c r="D44">
-        <v>91800</v>
+        <v>13500</v>
       </c>
       <c r="E44">
-        <v>201874582000</v>
+        <v>60008144000</v>
       </c>
       <c r="F44">
-        <v>78402283000</v>
+        <v>26611837000</v>
       </c>
       <c r="G44">
-        <v>1496919000</v>
+        <v>184067000</v>
       </c>
       <c r="H44">
-        <v>16309300</v>
+        <v>4821400</v>
       </c>
       <c r="I44">
-        <v>281773784000</v>
+        <v>86804048000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-15T14:10:00.000Z</v>
+        <v>2022-12-15T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>9196729159000</v>
+        <v>4082894855000</v>
       </c>
       <c r="L44">
-        <v>526376400</v>
+        <v>231326500</v>
       </c>
       <c r="M44">
-        <v>-7170100</v>
+        <v>-2120900</v>
       </c>
       <c r="N44">
-        <v>-123472299000</v>
+        <v>-33396307000</v>
       </c>
       <c r="O44">
-        <v>34068400</v>
+        <v>17682700</v>
       </c>
       <c r="P44">
-        <v>817604379000</v>
+        <v>475436579000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671113700000</v>
+        <v>1671100800000</v>
       </c>
       <c r="B45">
-        <v>20230900</v>
+        <v>2361000</v>
       </c>
       <c r="C45">
-        <v>8938800</v>
+        <v>1290800</v>
       </c>
       <c r="D45">
-        <v>154500</v>
+        <v>7400</v>
       </c>
       <c r="E45">
-        <v>384708074000</v>
+        <v>40882625000</v>
       </c>
       <c r="F45">
-        <v>161505466000</v>
+        <v>23113258000</v>
       </c>
       <c r="G45">
-        <v>2628045000</v>
+        <v>101432000</v>
       </c>
       <c r="H45">
-        <v>29324200</v>
+        <v>3659200</v>
       </c>
       <c r="I45">
-        <v>548841585000</v>
+        <v>64097315000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-15T14:15:00.000Z</v>
+        <v>2022-12-15T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>9745570744000</v>
+        <v>4146992170000</v>
       </c>
       <c r="L45">
-        <v>555700600</v>
+        <v>234985700</v>
       </c>
       <c r="M45">
-        <v>-11292100</v>
+        <v>-1070200</v>
       </c>
       <c r="N45">
-        <v>-223202608000</v>
+        <v>-17769367000</v>
       </c>
       <c r="O45">
-        <v>22776300</v>
+        <v>16612500</v>
       </c>
       <c r="P45">
-        <v>594401771000</v>
+        <v>457667212000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671114000000</v>
+        <v>1671100920000</v>
       </c>
       <c r="B46">
-        <v>6524700</v>
+        <v>1790600</v>
       </c>
       <c r="C46">
-        <v>8087100</v>
+        <v>1939800</v>
       </c>
       <c r="D46">
-        <v>109100</v>
+        <v>7800</v>
       </c>
       <c r="E46">
-        <v>136698828000</v>
+        <v>25448994000</v>
       </c>
       <c r="F46">
-        <v>157775098000</v>
+        <v>36895906000</v>
       </c>
       <c r="G46">
-        <v>2274416000</v>
+        <v>229365000</v>
       </c>
       <c r="H46">
-        <v>14720900</v>
+        <v>3738200</v>
       </c>
       <c r="I46">
-        <v>296748342000</v>
+        <v>62574265000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-15T14:20:00.000Z</v>
+        <v>2022-12-15T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>10042319086000</v>
+        <v>4209566435000</v>
       </c>
       <c r="L46">
-        <v>570421500</v>
+        <v>238723900</v>
       </c>
       <c r="M46">
-        <v>1562400</v>
+        <v>149200</v>
       </c>
       <c r="N46">
-        <v>21076270000</v>
+        <v>11446912000</v>
       </c>
       <c r="O46">
-        <v>24338700</v>
+        <v>16761700</v>
       </c>
       <c r="P46">
-        <v>615478041000</v>
+        <v>469114124000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671114300000</v>
+        <v>1671101040000</v>
       </c>
       <c r="B47">
-        <v>8296300</v>
+        <v>1305400</v>
       </c>
       <c r="C47">
-        <v>11487200</v>
+        <v>2076500</v>
       </c>
       <c r="D47">
-        <v>64800</v>
+        <v>24400</v>
       </c>
       <c r="E47">
-        <v>150972572000</v>
+        <v>21929341000</v>
       </c>
       <c r="F47">
-        <v>192335934000</v>
+        <v>39784118000</v>
       </c>
       <c r="G47">
-        <v>1467244000</v>
+        <v>395490000</v>
       </c>
       <c r="H47">
-        <v>19848300</v>
+        <v>3406300</v>
       </c>
       <c r="I47">
-        <v>344775750000</v>
+        <v>62108949000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-15T14:25:00.000Z</v>
+        <v>2022-12-15T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>10387094836000</v>
+        <v>4271675384000</v>
       </c>
       <c r="L47">
-        <v>590269800</v>
+        <v>242130200</v>
       </c>
       <c r="M47">
-        <v>3190900</v>
+        <v>771100</v>
       </c>
       <c r="N47">
-        <v>41363362000</v>
+        <v>17854777000</v>
       </c>
       <c r="O47">
-        <v>27529600</v>
+        <v>17532800</v>
       </c>
       <c r="P47">
-        <v>656841403000</v>
+        <v>486968901000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671114600000</v>
+        <v>1671101160000</v>
       </c>
       <c r="B48">
-        <v>9000</v>
+        <v>704200</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>1818800</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E48">
-        <v>108800000</v>
+        <v>11719073000</v>
       </c>
       <c r="F48">
-        <v>940000</v>
+        <v>37080175000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>98927000</v>
       </c>
       <c r="H48">
-        <v>9200</v>
+        <v>2526000</v>
       </c>
       <c r="I48">
-        <v>109740000</v>
+        <v>48898175000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-15T14:30:00.000Z</v>
+        <v>2022-12-15T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>10387204576000</v>
+        <v>4320573559000</v>
       </c>
       <c r="L48">
-        <v>590279000</v>
+        <v>244656200</v>
       </c>
       <c r="M48">
-        <v>-8800</v>
+        <v>1114600</v>
       </c>
       <c r="N48">
-        <v>-107860000</v>
+        <v>25361102000</v>
       </c>
       <c r="O48">
-        <v>27520800</v>
+        <v>18647400</v>
       </c>
       <c r="P48">
-        <v>656733543000</v>
+        <v>512330003000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671115500000</v>
+        <v>1671101280000</v>
       </c>
       <c r="B49">
-        <v>3311000</v>
+        <v>1645100</v>
       </c>
       <c r="C49">
-        <v>4860700</v>
+        <v>687500</v>
       </c>
       <c r="D49">
-        <v>30918400</v>
+        <v>2300</v>
       </c>
       <c r="E49">
-        <v>101407272000</v>
+        <v>31844866000</v>
       </c>
       <c r="F49">
-        <v>87940839000</v>
+        <v>11799177000</v>
       </c>
       <c r="G49">
-        <v>582278270000</v>
+        <v>30924000</v>
       </c>
       <c r="H49">
-        <v>39090100</v>
+        <v>2334900</v>
       </c>
       <c r="I49">
-        <v>771626381000</v>
+        <v>43674967000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-15T14:45:00.000Z</v>
+        <v>2022-12-15T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>11158830957000</v>
+        <v>4364248526000</v>
       </c>
       <c r="L49">
-        <v>629369100</v>
+        <v>246991100</v>
       </c>
       <c r="M49">
-        <v>1549700</v>
+        <v>-957600</v>
       </c>
       <c r="N49">
-        <v>-13466433000</v>
+        <v>-20045689000</v>
       </c>
       <c r="O49">
-        <v>29070500</v>
+        <v>17689800</v>
       </c>
       <c r="P49">
-        <v>643267110000</v>
+        <v>492284314000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671115800000</v>
+        <v>1671101400000</v>
       </c>
       <c r="B50">
+        <v>1694500</v>
+      </c>
+      <c r="C50">
+        <v>1037700</v>
+      </c>
+      <c r="D50">
+        <v>1700</v>
+      </c>
+      <c r="E50">
+        <v>26092743000</v>
+      </c>
+      <c r="F50">
+        <v>20975481000</v>
+      </c>
+      <c r="G50">
+        <v>116700000</v>
+      </c>
+      <c r="H50">
+        <v>2733900</v>
+      </c>
+      <c r="I50">
+        <v>47184924000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2022-12-15T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>4411433450000</v>
+      </c>
+      <c r="L50">
+        <v>249725000</v>
+      </c>
+      <c r="M50">
+        <v>-656800</v>
+      </c>
+      <c r="N50">
+        <v>-5117262000</v>
+      </c>
+      <c r="O50">
+        <v>17033000</v>
+      </c>
+      <c r="P50">
+        <v>487167052000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1671101520000</v>
+      </c>
+      <c r="B51">
+        <v>1080600</v>
+      </c>
+      <c r="C51">
+        <v>783500</v>
+      </c>
+      <c r="D51">
+        <v>1800</v>
+      </c>
+      <c r="E51">
+        <v>21320322000</v>
+      </c>
+      <c r="F51">
+        <v>16299424000</v>
+      </c>
+      <c r="G51">
+        <v>45384000</v>
+      </c>
+      <c r="H51">
+        <v>1865900</v>
+      </c>
+      <c r="I51">
+        <v>37665130000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2022-12-15T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4449098580000</v>
+      </c>
+      <c r="L51">
+        <v>251590900</v>
+      </c>
+      <c r="M51">
+        <v>-297100</v>
+      </c>
+      <c r="N51">
+        <v>-5020898000</v>
+      </c>
+      <c r="O51">
+        <v>16735900</v>
+      </c>
+      <c r="P51">
+        <v>482146154000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1671101640000</v>
+      </c>
+      <c r="B52">
+        <v>879000</v>
+      </c>
+      <c r="C52">
+        <v>1009600</v>
+      </c>
+      <c r="D52">
+        <v>1100</v>
+      </c>
+      <c r="E52">
+        <v>15916074000</v>
+      </c>
+      <c r="F52">
+        <v>20448029000</v>
+      </c>
+      <c r="G52">
+        <v>6758000</v>
+      </c>
+      <c r="H52">
+        <v>1889700</v>
+      </c>
+      <c r="I52">
+        <v>36370861000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-15T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4485469441000</v>
+      </c>
+      <c r="L52">
+        <v>253480600</v>
+      </c>
+      <c r="M52">
+        <v>130600</v>
+      </c>
+      <c r="N52">
+        <v>4531955000</v>
+      </c>
+      <c r="O52">
+        <v>16866500</v>
+      </c>
+      <c r="P52">
+        <v>486678109000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1671101760000</v>
+      </c>
+      <c r="B53">
+        <v>635500</v>
+      </c>
+      <c r="C53">
+        <v>1287300</v>
+      </c>
+      <c r="D53">
+        <v>900</v>
+      </c>
+      <c r="E53">
+        <v>11985696000</v>
+      </c>
+      <c r="F53">
+        <v>24683422000</v>
+      </c>
+      <c r="G53">
+        <v>4635000</v>
+      </c>
+      <c r="H53">
+        <v>1923700</v>
+      </c>
+      <c r="I53">
+        <v>36673753000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-15T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4522143194000</v>
+      </c>
+      <c r="L53">
+        <v>255404300</v>
+      </c>
+      <c r="M53">
+        <v>651800</v>
+      </c>
+      <c r="N53">
+        <v>12697726000</v>
+      </c>
+      <c r="O53">
+        <v>17518300</v>
+      </c>
+      <c r="P53">
+        <v>499375835000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671101880000</v>
+      </c>
+      <c r="B54">
+        <v>500900</v>
+      </c>
+      <c r="C54">
+        <v>1305500</v>
+      </c>
+      <c r="D54">
+        <v>1200</v>
+      </c>
+      <c r="E54">
+        <v>11066224000</v>
+      </c>
+      <c r="F54">
+        <v>22386370000</v>
+      </c>
+      <c r="G54">
+        <v>7960000</v>
+      </c>
+      <c r="H54">
+        <v>1807600</v>
+      </c>
+      <c r="I54">
+        <v>33460554000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-15T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4555603748000</v>
+      </c>
+      <c r="L54">
+        <v>257211900</v>
+      </c>
+      <c r="M54">
+        <v>804600</v>
+      </c>
+      <c r="N54">
+        <v>11320146000</v>
+      </c>
+      <c r="O54">
+        <v>18322900</v>
+      </c>
+      <c r="P54">
+        <v>510695981000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671102000000</v>
+      </c>
+      <c r="B55">
+        <v>1112800</v>
+      </c>
+      <c r="C55">
+        <v>805000</v>
+      </c>
+      <c r="D55">
+        <v>35700</v>
+      </c>
+      <c r="E55">
+        <v>18840155000</v>
+      </c>
+      <c r="F55">
+        <v>14854028000</v>
+      </c>
+      <c r="G55">
+        <v>324675000</v>
+      </c>
+      <c r="H55">
+        <v>1953500</v>
+      </c>
+      <c r="I55">
+        <v>34018858000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-15T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4589622606000</v>
+      </c>
+      <c r="L55">
+        <v>259165400</v>
+      </c>
+      <c r="M55">
+        <v>-307800</v>
+      </c>
+      <c r="N55">
+        <v>-3986127000</v>
+      </c>
+      <c r="O55">
+        <v>18015100</v>
+      </c>
+      <c r="P55">
+        <v>506709854000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671102120000</v>
+      </c>
+      <c r="B56">
+        <v>1135600</v>
+      </c>
+      <c r="C56">
+        <v>680100</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <v>17844239000</v>
+      </c>
+      <c r="F56">
+        <v>12451223000</v>
+      </c>
+      <c r="G56">
+        <v>2382000</v>
+      </c>
+      <c r="H56">
+        <v>1815900</v>
+      </c>
+      <c r="I56">
+        <v>30297844000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-15T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4619920450000</v>
+      </c>
+      <c r="L56">
+        <v>260981300</v>
+      </c>
+      <c r="M56">
+        <v>-455500</v>
+      </c>
+      <c r="N56">
+        <v>-5393016000</v>
+      </c>
+      <c r="O56">
+        <v>17559600</v>
+      </c>
+      <c r="P56">
+        <v>501316838000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671102240000</v>
+      </c>
+      <c r="B57">
+        <v>1025700</v>
+      </c>
+      <c r="C57">
+        <v>1004800</v>
+      </c>
+      <c r="D57">
+        <v>15100</v>
+      </c>
+      <c r="E57">
+        <v>18927008000</v>
+      </c>
+      <c r="F57">
+        <v>22063955000</v>
+      </c>
+      <c r="G57">
+        <v>251657000</v>
+      </c>
+      <c r="H57">
+        <v>2045600</v>
+      </c>
+      <c r="I57">
+        <v>41242620000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-15T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4661163070000</v>
+      </c>
+      <c r="L57">
+        <v>263026900</v>
+      </c>
+      <c r="M57">
+        <v>-20900</v>
+      </c>
+      <c r="N57">
+        <v>3136947000</v>
+      </c>
+      <c r="O57">
+        <v>17538700</v>
+      </c>
+      <c r="P57">
+        <v>504453785000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671102360000</v>
+      </c>
+      <c r="B58">
+        <v>1180300</v>
+      </c>
+      <c r="C58">
+        <v>729700</v>
+      </c>
+      <c r="D58">
+        <v>3800</v>
+      </c>
+      <c r="E58">
+        <v>18854260000</v>
+      </c>
+      <c r="F58">
+        <v>13449824000</v>
+      </c>
+      <c r="G58">
+        <v>69465000</v>
+      </c>
+      <c r="H58">
+        <v>1913800</v>
+      </c>
+      <c r="I58">
+        <v>32373549000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-15T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4693536619000</v>
+      </c>
+      <c r="L58">
+        <v>264940700</v>
+      </c>
+      <c r="M58">
+        <v>-450600</v>
+      </c>
+      <c r="N58">
+        <v>-5404436000</v>
+      </c>
+      <c r="O58">
+        <v>17088100</v>
+      </c>
+      <c r="P58">
+        <v>499049349000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671102480000</v>
+      </c>
+      <c r="B59">
+        <v>1015600</v>
+      </c>
+      <c r="C59">
+        <v>872200</v>
+      </c>
+      <c r="D59">
+        <v>400</v>
+      </c>
+      <c r="E59">
+        <v>19336927000</v>
+      </c>
+      <c r="F59">
+        <v>15125975000</v>
+      </c>
+      <c r="G59">
+        <v>7400000</v>
+      </c>
+      <c r="H59">
+        <v>1888200</v>
+      </c>
+      <c r="I59">
+        <v>34470302000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-15T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4728006921000</v>
+      </c>
+      <c r="L59">
+        <v>266828900</v>
+      </c>
+      <c r="M59">
+        <v>-143400</v>
+      </c>
+      <c r="N59">
+        <v>-4210952000</v>
+      </c>
+      <c r="O59">
+        <v>16944700</v>
+      </c>
+      <c r="P59">
+        <v>494838397000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671102600000</v>
+      </c>
+      <c r="B60">
+        <v>1310000</v>
+      </c>
+      <c r="C60">
+        <v>628200</v>
+      </c>
+      <c r="D60">
+        <v>12200</v>
+      </c>
+      <c r="E60">
+        <v>24259056000</v>
+      </c>
+      <c r="F60">
+        <v>12912482000</v>
+      </c>
+      <c r="G60">
+        <v>301360000</v>
+      </c>
+      <c r="H60">
+        <v>1950400</v>
+      </c>
+      <c r="I60">
+        <v>37472898000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-15T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4765479819000</v>
+      </c>
+      <c r="L60">
+        <v>268779300</v>
+      </c>
+      <c r="M60">
+        <v>-681800</v>
+      </c>
+      <c r="N60">
+        <v>-11346574000</v>
+      </c>
+      <c r="O60">
+        <v>16262900</v>
+      </c>
+      <c r="P60">
+        <v>483491823000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671102720000</v>
+      </c>
+      <c r="B61">
+        <v>1616500</v>
+      </c>
+      <c r="C61">
+        <v>751800</v>
+      </c>
+      <c r="D61">
+        <v>3800</v>
+      </c>
+      <c r="E61">
+        <v>27847223000</v>
+      </c>
+      <c r="F61">
+        <v>15256683000</v>
+      </c>
+      <c r="G61">
+        <v>95674000</v>
+      </c>
+      <c r="H61">
+        <v>2372100</v>
+      </c>
+      <c r="I61">
+        <v>43199580000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-15T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4808679399000</v>
+      </c>
+      <c r="L61">
+        <v>271151400</v>
+      </c>
+      <c r="M61">
+        <v>-864700</v>
+      </c>
+      <c r="N61">
+        <v>-12590540000</v>
+      </c>
+      <c r="O61">
+        <v>15398200</v>
+      </c>
+      <c r="P61">
+        <v>470901283000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671102840000</v>
+      </c>
+      <c r="B62">
+        <v>1543500</v>
+      </c>
+      <c r="C62">
+        <v>927400</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>24927074000</v>
+      </c>
+      <c r="F62">
+        <v>19557549000</v>
+      </c>
+      <c r="G62">
+        <v>658000</v>
+      </c>
+      <c r="H62">
+        <v>2471000</v>
+      </c>
+      <c r="I62">
+        <v>44485281000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-15T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4853164680000</v>
+      </c>
+      <c r="L62">
+        <v>273622400</v>
+      </c>
+      <c r="M62">
+        <v>-616100</v>
+      </c>
+      <c r="N62">
+        <v>-5369525000</v>
+      </c>
+      <c r="O62">
+        <v>14782100</v>
+      </c>
+      <c r="P62">
+        <v>465531758000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671102960000</v>
+      </c>
+      <c r="B63">
+        <v>926700</v>
+      </c>
+      <c r="C63">
+        <v>672900</v>
+      </c>
+      <c r="D63">
+        <v>9100</v>
+      </c>
+      <c r="E63">
+        <v>15681009000</v>
+      </c>
+      <c r="F63">
+        <v>14529308000</v>
+      </c>
+      <c r="G63">
+        <v>110362000</v>
+      </c>
+      <c r="H63">
+        <v>1608700</v>
+      </c>
+      <c r="I63">
+        <v>30320679000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-15T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4883485359000</v>
+      </c>
+      <c r="L63">
+        <v>275231100</v>
+      </c>
+      <c r="M63">
+        <v>-253800</v>
+      </c>
+      <c r="N63">
+        <v>-1151701000</v>
+      </c>
+      <c r="O63">
+        <v>14528300</v>
+      </c>
+      <c r="P63">
+        <v>464380057000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671103080000</v>
+      </c>
+      <c r="B64">
+        <v>730900</v>
+      </c>
+      <c r="C64">
+        <v>1599300</v>
+      </c>
+      <c r="D64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <v>12032811000</v>
+      </c>
+      <c r="F64">
+        <v>33324701000</v>
+      </c>
+      <c r="G64">
+        <v>17044000</v>
+      </c>
+      <c r="H64">
+        <v>2330500</v>
+      </c>
+      <c r="I64">
+        <v>45374556000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-15T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4928859915000</v>
+      </c>
+      <c r="L64">
+        <v>277561600</v>
+      </c>
+      <c r="M64">
+        <v>868400</v>
+      </c>
+      <c r="N64">
+        <v>21291890000</v>
+      </c>
+      <c r="O64">
+        <v>15396700</v>
+      </c>
+      <c r="P64">
+        <v>485671947000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671103200000</v>
+      </c>
+      <c r="B65">
+        <v>1005600</v>
+      </c>
+      <c r="C65">
+        <v>1126900</v>
+      </c>
+      <c r="D65">
+        <v>700</v>
+      </c>
+      <c r="E65">
+        <v>16549044000</v>
+      </c>
+      <c r="F65">
+        <v>18806659000</v>
+      </c>
+      <c r="G65">
+        <v>11146000</v>
+      </c>
+      <c r="H65">
+        <v>2133200</v>
+      </c>
+      <c r="I65">
+        <v>35366849000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-15T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4964226764000</v>
+      </c>
+      <c r="L65">
+        <v>279694800</v>
+      </c>
+      <c r="M65">
+        <v>121300</v>
+      </c>
+      <c r="N65">
+        <v>2257615000</v>
+      </c>
+      <c r="O65">
+        <v>15518000</v>
+      </c>
+      <c r="P65">
+        <v>487929562000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671103320000</v>
+      </c>
+      <c r="B66">
+        <v>1306800</v>
+      </c>
+      <c r="C66">
+        <v>579500</v>
+      </c>
+      <c r="D66">
+        <v>2100</v>
+      </c>
+      <c r="E66">
+        <v>21331639000</v>
+      </c>
+      <c r="F66">
+        <v>8920778000</v>
+      </c>
+      <c r="G66">
+        <v>37846000</v>
+      </c>
+      <c r="H66">
+        <v>1888400</v>
+      </c>
+      <c r="I66">
+        <v>30290263000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-15T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4994517027000</v>
+      </c>
+      <c r="L66">
+        <v>281583200</v>
+      </c>
+      <c r="M66">
+        <v>-727300</v>
+      </c>
+      <c r="N66">
+        <v>-12410861000</v>
+      </c>
+      <c r="O66">
+        <v>14790700</v>
+      </c>
+      <c r="P66">
+        <v>475518701000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671103440000</v>
+      </c>
+      <c r="B67">
+        <v>1187800</v>
+      </c>
+      <c r="C67">
+        <v>796000</v>
+      </c>
+      <c r="D67">
+        <v>16900</v>
+      </c>
+      <c r="E67">
+        <v>25070442000</v>
+      </c>
+      <c r="F67">
+        <v>12871163000</v>
+      </c>
+      <c r="G67">
+        <v>929540000</v>
+      </c>
+      <c r="H67">
+        <v>2000700</v>
+      </c>
+      <c r="I67">
+        <v>38871145000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-15T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5033388172000</v>
+      </c>
+      <c r="L67">
+        <v>283583900</v>
+      </c>
+      <c r="M67">
+        <v>-391800</v>
+      </c>
+      <c r="N67">
+        <v>-12199279000</v>
+      </c>
+      <c r="O67">
+        <v>14398900</v>
+      </c>
+      <c r="P67">
+        <v>463319422000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671103560000</v>
+      </c>
+      <c r="B68">
+        <v>1199100</v>
+      </c>
+      <c r="C68">
+        <v>625000</v>
+      </c>
+      <c r="D68">
+        <v>6500</v>
+      </c>
+      <c r="E68">
+        <v>22551421000</v>
+      </c>
+      <c r="F68">
+        <v>10264069000</v>
+      </c>
+      <c r="G68">
+        <v>175420000</v>
+      </c>
+      <c r="H68">
+        <v>1830600</v>
+      </c>
+      <c r="I68">
+        <v>32990910000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-15T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5066379082000</v>
+      </c>
+      <c r="L68">
+        <v>285414500</v>
+      </c>
+      <c r="M68">
+        <v>-574100</v>
+      </c>
+      <c r="N68">
+        <v>-12287352000</v>
+      </c>
+      <c r="O68">
+        <v>13824800</v>
+      </c>
+      <c r="P68">
+        <v>451032070000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671103680000</v>
+      </c>
+      <c r="B69">
+        <v>1938200</v>
+      </c>
+      <c r="C69">
+        <v>553100</v>
+      </c>
+      <c r="D69">
+        <v>1100</v>
+      </c>
+      <c r="E69">
+        <v>33385467000</v>
+      </c>
+      <c r="F69">
+        <v>9258847000</v>
+      </c>
+      <c r="G69">
+        <v>40035000</v>
+      </c>
+      <c r="H69">
+        <v>2492400</v>
+      </c>
+      <c r="I69">
+        <v>42684349000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-15T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5109063431000</v>
+      </c>
+      <c r="L69">
+        <v>287906900</v>
+      </c>
+      <c r="M69">
+        <v>-1385100</v>
+      </c>
+      <c r="N69">
+        <v>-24126620000</v>
+      </c>
+      <c r="O69">
+        <v>12439700</v>
+      </c>
+      <c r="P69">
+        <v>426905450000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671103800000</v>
+      </c>
+      <c r="B70">
+        <v>3100</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>35495000</v>
+      </c>
+      <c r="F70">
+        <v>2335000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>3200</v>
+      </c>
+      <c r="I70">
+        <v>37830000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-15T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5109101261000</v>
+      </c>
+      <c r="L70">
+        <v>287910100</v>
+      </c>
+      <c r="M70">
+        <v>-3000</v>
+      </c>
+      <c r="N70">
+        <v>-33160000</v>
+      </c>
+      <c r="O70">
+        <v>12436700</v>
+      </c>
+      <c r="P70">
+        <v>426872290000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671109200000</v>
+      </c>
+      <c r="B71">
+        <v>8816100</v>
+      </c>
+      <c r="C71">
+        <v>4323400</v>
+      </c>
+      <c r="D71">
+        <v>388900</v>
+      </c>
+      <c r="E71">
+        <v>138799332000</v>
+      </c>
+      <c r="F71">
+        <v>75941658000</v>
+      </c>
+      <c r="G71">
+        <v>4898614000</v>
+      </c>
+      <c r="H71">
+        <v>13528400</v>
+      </c>
+      <c r="I71">
+        <v>219639604000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-15T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5328740865000</v>
+      </c>
+      <c r="L71">
+        <v>301438500</v>
+      </c>
+      <c r="M71">
+        <v>-4492700</v>
+      </c>
+      <c r="N71">
+        <v>-62857674000</v>
+      </c>
+      <c r="O71">
+        <v>7944000</v>
+      </c>
+      <c r="P71">
+        <v>364014616000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671109320000</v>
+      </c>
+      <c r="B72">
+        <v>4543200</v>
+      </c>
+      <c r="C72">
+        <v>2443800</v>
+      </c>
+      <c r="D72">
+        <v>32000</v>
+      </c>
+      <c r="E72">
+        <v>68665698000</v>
+      </c>
+      <c r="F72">
+        <v>40746063000</v>
+      </c>
+      <c r="G72">
+        <v>449561000</v>
+      </c>
+      <c r="H72">
+        <v>7019000</v>
+      </c>
+      <c r="I72">
+        <v>109861322000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-15T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5438602187000</v>
+      </c>
+      <c r="L72">
+        <v>308457500</v>
+      </c>
+      <c r="M72">
+        <v>-2099400</v>
+      </c>
+      <c r="N72">
+        <v>-27919635000</v>
+      </c>
+      <c r="O72">
+        <v>5844600</v>
+      </c>
+      <c r="P72">
+        <v>336094981000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671109440000</v>
+      </c>
+      <c r="B73">
+        <v>4102100</v>
+      </c>
+      <c r="C73">
+        <v>2226400</v>
+      </c>
+      <c r="D73">
+        <v>122900</v>
+      </c>
+      <c r="E73">
+        <v>69901109000</v>
+      </c>
+      <c r="F73">
+        <v>42114018000</v>
+      </c>
+      <c r="G73">
+        <v>1663868000</v>
+      </c>
+      <c r="H73">
+        <v>6451400</v>
+      </c>
+      <c r="I73">
+        <v>113678995000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-15T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5552281182000</v>
+      </c>
+      <c r="L73">
+        <v>314908900</v>
+      </c>
+      <c r="M73">
+        <v>-1875700</v>
+      </c>
+      <c r="N73">
+        <v>-27787091000</v>
+      </c>
+      <c r="O73">
+        <v>3968900</v>
+      </c>
+      <c r="P73">
+        <v>308307890000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671109560000</v>
+      </c>
+      <c r="B74">
+        <v>2679700</v>
+      </c>
+      <c r="C74">
+        <v>3590700</v>
+      </c>
+      <c r="D74">
+        <v>15300</v>
+      </c>
+      <c r="E74">
+        <v>40211966000</v>
+      </c>
+      <c r="F74">
+        <v>67657309000</v>
+      </c>
+      <c r="G74">
+        <v>201652000</v>
+      </c>
+      <c r="H74">
+        <v>6285700</v>
+      </c>
+      <c r="I74">
+        <v>108070927000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-15T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5660352109000</v>
+      </c>
+      <c r="L74">
+        <v>321194600</v>
+      </c>
+      <c r="M74">
+        <v>911000</v>
+      </c>
+      <c r="N74">
+        <v>27445343000</v>
+      </c>
+      <c r="O74">
+        <v>4879900</v>
+      </c>
+      <c r="P74">
+        <v>335753233000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671109680000</v>
+      </c>
+      <c r="B75">
+        <v>1983900</v>
+      </c>
+      <c r="C75">
+        <v>2574200</v>
+      </c>
+      <c r="D75">
+        <v>9000</v>
+      </c>
+      <c r="E75">
+        <v>32634231000</v>
+      </c>
+      <c r="F75">
+        <v>43158311000</v>
+      </c>
+      <c r="G75">
+        <v>136080000</v>
+      </c>
+      <c r="H75">
+        <v>4567100</v>
+      </c>
+      <c r="I75">
+        <v>75928622000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-15T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5736280731000</v>
+      </c>
+      <c r="L75">
+        <v>325761700</v>
+      </c>
+      <c r="M75">
+        <v>590300</v>
+      </c>
+      <c r="N75">
+        <v>10524080000</v>
+      </c>
+      <c r="O75">
+        <v>5470200</v>
+      </c>
+      <c r="P75">
+        <v>346277313000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671109800000</v>
+      </c>
+      <c r="B76">
+        <v>2720800</v>
+      </c>
+      <c r="C76">
+        <v>2226200</v>
+      </c>
+      <c r="D76">
+        <v>6900</v>
+      </c>
+      <c r="E76">
+        <v>47505137000</v>
+      </c>
+      <c r="F76">
+        <v>33008030000</v>
+      </c>
+      <c r="G76">
+        <v>213983000</v>
+      </c>
+      <c r="H76">
+        <v>4953900</v>
+      </c>
+      <c r="I76">
+        <v>80727150000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-15T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5817007881000</v>
+      </c>
+      <c r="L76">
+        <v>330715600</v>
+      </c>
+      <c r="M76">
+        <v>-494600</v>
+      </c>
+      <c r="N76">
+        <v>-14497107000</v>
+      </c>
+      <c r="O76">
+        <v>4975600</v>
+      </c>
+      <c r="P76">
+        <v>331780206000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671109920000</v>
+      </c>
+      <c r="B77">
+        <v>2665800</v>
+      </c>
+      <c r="C77">
+        <v>1455800</v>
+      </c>
+      <c r="D77">
+        <v>18000</v>
+      </c>
+      <c r="E77">
+        <v>42280685000</v>
+      </c>
+      <c r="F77">
+        <v>25089891000</v>
+      </c>
+      <c r="G77">
+        <v>142174000</v>
+      </c>
+      <c r="H77">
+        <v>4139600</v>
+      </c>
+      <c r="I77">
+        <v>67512750000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-15T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5884520631000</v>
+      </c>
+      <c r="L77">
+        <v>334855200</v>
+      </c>
+      <c r="M77">
+        <v>-1210000</v>
+      </c>
+      <c r="N77">
+        <v>-17190794000</v>
+      </c>
+      <c r="O77">
+        <v>3765600</v>
+      </c>
+      <c r="P77">
+        <v>314589412000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671110040000</v>
+      </c>
+      <c r="B78">
+        <v>2281300</v>
+      </c>
+      <c r="C78">
+        <v>1717400</v>
+      </c>
+      <c r="D78">
+        <v>80100</v>
+      </c>
+      <c r="E78">
+        <v>32325299000</v>
+      </c>
+      <c r="F78">
+        <v>30814517000</v>
+      </c>
+      <c r="G78">
+        <v>488386000</v>
+      </c>
+      <c r="H78">
+        <v>4078800</v>
+      </c>
+      <c r="I78">
+        <v>63628202000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-15T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5948148833000</v>
+      </c>
+      <c r="L78">
+        <v>338934000</v>
+      </c>
+      <c r="M78">
+        <v>-563900</v>
+      </c>
+      <c r="N78">
+        <v>-1510782000</v>
+      </c>
+      <c r="O78">
+        <v>3201700</v>
+      </c>
+      <c r="P78">
+        <v>313078630000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671110160000</v>
+      </c>
+      <c r="B79">
+        <v>1672800</v>
+      </c>
+      <c r="C79">
+        <v>4228400</v>
+      </c>
+      <c r="D79">
+        <v>57800</v>
+      </c>
+      <c r="E79">
+        <v>26283662000</v>
+      </c>
+      <c r="F79">
+        <v>76967284000</v>
+      </c>
+      <c r="G79">
+        <v>1251245000</v>
+      </c>
+      <c r="H79">
+        <v>5959000</v>
+      </c>
+      <c r="I79">
+        <v>104502191000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-15T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6052651024000</v>
+      </c>
+      <c r="L79">
+        <v>344893000</v>
+      </c>
+      <c r="M79">
+        <v>2555600</v>
+      </c>
+      <c r="N79">
+        <v>50683622000</v>
+      </c>
+      <c r="O79">
+        <v>5757300</v>
+      </c>
+      <c r="P79">
+        <v>363762252000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671110280000</v>
+      </c>
+      <c r="B80">
+        <v>1475400</v>
+      </c>
+      <c r="C80">
+        <v>4530000</v>
+      </c>
+      <c r="D80">
+        <v>6200</v>
+      </c>
+      <c r="E80">
+        <v>25206153000</v>
+      </c>
+      <c r="F80">
+        <v>78241361000</v>
+      </c>
+      <c r="G80">
+        <v>119930000</v>
+      </c>
+      <c r="H80">
+        <v>6011600</v>
+      </c>
+      <c r="I80">
+        <v>103567444000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-15T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6156218468000</v>
+      </c>
+      <c r="L80">
+        <v>350904600</v>
+      </c>
+      <c r="M80">
+        <v>3054600</v>
+      </c>
+      <c r="N80">
+        <v>53035208000</v>
+      </c>
+      <c r="O80">
+        <v>8811900</v>
+      </c>
+      <c r="P80">
+        <v>416797460000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671110400000</v>
+      </c>
+      <c r="B81">
+        <v>1613100</v>
+      </c>
+      <c r="C81">
+        <v>3469500</v>
+      </c>
+      <c r="D81">
+        <v>16100</v>
+      </c>
+      <c r="E81">
+        <v>30539218000</v>
+      </c>
+      <c r="F81">
+        <v>64164842000</v>
+      </c>
+      <c r="G81">
+        <v>100919000</v>
+      </c>
+      <c r="H81">
+        <v>5098700</v>
+      </c>
+      <c r="I81">
+        <v>94804979000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-15T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>6251023447000</v>
+      </c>
+      <c r="L81">
+        <v>356003300</v>
+      </c>
+      <c r="M81">
+        <v>1856400</v>
+      </c>
+      <c r="N81">
+        <v>33625624000</v>
+      </c>
+      <c r="O81">
+        <v>10668300</v>
+      </c>
+      <c r="P81">
+        <v>450423084000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671110520000</v>
+      </c>
+      <c r="B82">
+        <v>2023600</v>
+      </c>
+      <c r="C82">
+        <v>3754700</v>
+      </c>
+      <c r="D82">
+        <v>61200</v>
+      </c>
+      <c r="E82">
+        <v>35307478000</v>
+      </c>
+      <c r="F82">
+        <v>63340208000</v>
+      </c>
+      <c r="G82">
+        <v>384980000</v>
+      </c>
+      <c r="H82">
+        <v>5839500</v>
+      </c>
+      <c r="I82">
+        <v>99032666000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-15T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>6350056113000</v>
+      </c>
+      <c r="L82">
+        <v>361842800</v>
+      </c>
+      <c r="M82">
+        <v>1731100</v>
+      </c>
+      <c r="N82">
+        <v>28032730000</v>
+      </c>
+      <c r="O82">
+        <v>12399400</v>
+      </c>
+      <c r="P82">
+        <v>478455814000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671110640000</v>
+      </c>
+      <c r="B83">
+        <v>2659800</v>
+      </c>
+      <c r="C83">
+        <v>2533300</v>
+      </c>
+      <c r="D83">
+        <v>153700</v>
+      </c>
+      <c r="E83">
+        <v>45361134000</v>
+      </c>
+      <c r="F83">
+        <v>43963986000</v>
+      </c>
+      <c r="G83">
+        <v>2633113000</v>
+      </c>
+      <c r="H83">
+        <v>5346800</v>
+      </c>
+      <c r="I83">
+        <v>91958233000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-15T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6442014346000</v>
+      </c>
+      <c r="L83">
+        <v>367189600</v>
+      </c>
+      <c r="M83">
+        <v>-126500</v>
+      </c>
+      <c r="N83">
+        <v>-1397148000</v>
+      </c>
+      <c r="O83">
+        <v>12272900</v>
+      </c>
+      <c r="P83">
+        <v>477058666000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671110760000</v>
+      </c>
+      <c r="B84">
+        <v>1902700</v>
+      </c>
+      <c r="C84">
+        <v>1581300</v>
+      </c>
+      <c r="D84">
+        <v>8200</v>
+      </c>
+      <c r="E84">
+        <v>33515923000</v>
+      </c>
+      <c r="F84">
+        <v>26663831000</v>
+      </c>
+      <c r="G84">
+        <v>166349000</v>
+      </c>
+      <c r="H84">
+        <v>3492200</v>
+      </c>
+      <c r="I84">
+        <v>60346103000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-15T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>6502360449000</v>
+      </c>
+      <c r="L84">
+        <v>370681800</v>
+      </c>
+      <c r="M84">
+        <v>-321400</v>
+      </c>
+      <c r="N84">
+        <v>-6852092000</v>
+      </c>
+      <c r="O84">
+        <v>11951500</v>
+      </c>
+      <c r="P84">
+        <v>470206574000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671110880000</v>
+      </c>
+      <c r="B85">
+        <v>2405700</v>
+      </c>
+      <c r="C85">
+        <v>1185900</v>
+      </c>
+      <c r="D85">
+        <v>8300</v>
+      </c>
+      <c r="E85">
+        <v>42552179000</v>
+      </c>
+      <c r="F85">
+        <v>18676592000</v>
+      </c>
+      <c r="G85">
+        <v>52533000</v>
+      </c>
+      <c r="H85">
+        <v>3599900</v>
+      </c>
+      <c r="I85">
+        <v>61281304000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-15T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>6563641753000</v>
+      </c>
+      <c r="L85">
+        <v>374281700</v>
+      </c>
+      <c r="M85">
+        <v>-1219800</v>
+      </c>
+      <c r="N85">
+        <v>-23875587000</v>
+      </c>
+      <c r="O85">
+        <v>10731700</v>
+      </c>
+      <c r="P85">
+        <v>446330987000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671111000000</v>
+      </c>
+      <c r="B86">
+        <v>2808400</v>
+      </c>
+      <c r="C86">
+        <v>2071800</v>
+      </c>
+      <c r="D86">
+        <v>11500</v>
+      </c>
+      <c r="E86">
+        <v>51362672000</v>
+      </c>
+      <c r="F86">
+        <v>33898591000</v>
+      </c>
+      <c r="G86">
+        <v>257115000</v>
+      </c>
+      <c r="H86">
+        <v>4891700</v>
+      </c>
+      <c r="I86">
+        <v>85518378000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-15T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>6649160131000</v>
+      </c>
+      <c r="L86">
+        <v>379173400</v>
+      </c>
+      <c r="M86">
+        <v>-736600</v>
+      </c>
+      <c r="N86">
+        <v>-17464081000</v>
+      </c>
+      <c r="O86">
+        <v>9995100</v>
+      </c>
+      <c r="P86">
+        <v>428866906000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671111120000</v>
+      </c>
+      <c r="B87">
+        <v>2712800</v>
+      </c>
+      <c r="C87">
+        <v>2055800</v>
+      </c>
+      <c r="D87">
+        <v>3800</v>
+      </c>
+      <c r="E87">
+        <v>48403377000</v>
+      </c>
+      <c r="F87">
+        <v>30986208000</v>
+      </c>
+      <c r="G87">
+        <v>46783000</v>
+      </c>
+      <c r="H87">
+        <v>4772400</v>
+      </c>
+      <c r="I87">
+        <v>79436368000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-15T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>6728596499000</v>
+      </c>
+      <c r="L87">
+        <v>383945800</v>
+      </c>
+      <c r="M87">
+        <v>-657000</v>
+      </c>
+      <c r="N87">
+        <v>-17417169000</v>
+      </c>
+      <c r="O87">
+        <v>9338100</v>
+      </c>
+      <c r="P87">
+        <v>411449737000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671111240000</v>
+      </c>
+      <c r="B88">
+        <v>1679100</v>
+      </c>
+      <c r="C88">
+        <v>1907400</v>
+      </c>
+      <c r="D88">
+        <v>7200</v>
+      </c>
+      <c r="E88">
+        <v>26725863000</v>
+      </c>
+      <c r="F88">
+        <v>31209643000</v>
+      </c>
+      <c r="G88">
+        <v>83254000</v>
+      </c>
+      <c r="H88">
+        <v>3593700</v>
+      </c>
+      <c r="I88">
+        <v>58018760000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-15T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>6786615259000</v>
+      </c>
+      <c r="L88">
+        <v>387539500</v>
+      </c>
+      <c r="M88">
+        <v>228300</v>
+      </c>
+      <c r="N88">
+        <v>4483780000</v>
+      </c>
+      <c r="O88">
+        <v>9566400</v>
+      </c>
+      <c r="P88">
+        <v>415933517000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671111360000</v>
+      </c>
+      <c r="B89">
+        <v>2617500</v>
+      </c>
+      <c r="C89">
+        <v>6320900</v>
+      </c>
+      <c r="D89">
+        <v>59000</v>
+      </c>
+      <c r="E89">
+        <v>45591539000</v>
+      </c>
+      <c r="F89">
+        <v>105231561000</v>
+      </c>
+      <c r="G89">
+        <v>981310000</v>
+      </c>
+      <c r="H89">
+        <v>8997400</v>
+      </c>
+      <c r="I89">
+        <v>151804410000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-15T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6938419669000</v>
+      </c>
+      <c r="L89">
+        <v>396536900</v>
+      </c>
+      <c r="M89">
+        <v>3703400</v>
+      </c>
+      <c r="N89">
+        <v>59640022000</v>
+      </c>
+      <c r="O89">
+        <v>13269800</v>
+      </c>
+      <c r="P89">
+        <v>475573539000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671111480000</v>
+      </c>
+      <c r="B90">
+        <v>1777200</v>
+      </c>
+      <c r="C90">
+        <v>8515000</v>
+      </c>
+      <c r="D90">
+        <v>6400</v>
+      </c>
+      <c r="E90">
+        <v>29504268000</v>
+      </c>
+      <c r="F90">
+        <v>135750818000</v>
+      </c>
+      <c r="G90">
+        <v>74547000</v>
+      </c>
+      <c r="H90">
+        <v>10298600</v>
+      </c>
+      <c r="I90">
+        <v>165329633000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-15T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7103749302000</v>
+      </c>
+      <c r="L90">
+        <v>406835500</v>
+      </c>
+      <c r="M90">
+        <v>6737800</v>
+      </c>
+      <c r="N90">
+        <v>106246550000</v>
+      </c>
+      <c r="O90">
+        <v>20007600</v>
+      </c>
+      <c r="P90">
+        <v>581820089000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671111600000</v>
+      </c>
+      <c r="B91">
+        <v>2018700</v>
+      </c>
+      <c r="C91">
+        <v>13104400</v>
+      </c>
+      <c r="D91">
+        <v>67100</v>
+      </c>
+      <c r="E91">
+        <v>31608651000</v>
+      </c>
+      <c r="F91">
+        <v>224495248000</v>
+      </c>
+      <c r="G91">
+        <v>651768000</v>
+      </c>
+      <c r="H91">
+        <v>15190200</v>
+      </c>
+      <c r="I91">
+        <v>256755667000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-15T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7360504969000</v>
+      </c>
+      <c r="L91">
+        <v>422025700</v>
+      </c>
+      <c r="M91">
+        <v>11085700</v>
+      </c>
+      <c r="N91">
+        <v>192886597000</v>
+      </c>
+      <c r="O91">
+        <v>31093300</v>
+      </c>
+      <c r="P91">
+        <v>774706686000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671111720000</v>
+      </c>
+      <c r="B92">
+        <v>3922400</v>
+      </c>
+      <c r="C92">
+        <v>5114000</v>
+      </c>
+      <c r="D92">
+        <v>16500</v>
+      </c>
+      <c r="E92">
+        <v>64213070000</v>
+      </c>
+      <c r="F92">
+        <v>86406440000</v>
+      </c>
+      <c r="G92">
+        <v>266810000</v>
+      </c>
+      <c r="H92">
+        <v>9052900</v>
+      </c>
+      <c r="I92">
+        <v>150886320000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-15T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>7511391289000</v>
+      </c>
+      <c r="L92">
+        <v>431078600</v>
+      </c>
+      <c r="M92">
+        <v>1191600</v>
+      </c>
+      <c r="N92">
+        <v>22193370000</v>
+      </c>
+      <c r="O92">
+        <v>32284900</v>
+      </c>
+      <c r="P92">
+        <v>796900056000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671111840000</v>
+      </c>
+      <c r="B93">
+        <v>3064900</v>
+      </c>
+      <c r="C93">
+        <v>2281600</v>
+      </c>
+      <c r="D93">
+        <v>2400</v>
+      </c>
+      <c r="E93">
+        <v>55326503000</v>
+      </c>
+      <c r="F93">
+        <v>43646841000</v>
+      </c>
+      <c r="G93">
+        <v>67080000</v>
+      </c>
+      <c r="H93">
+        <v>5348900</v>
+      </c>
+      <c r="I93">
+        <v>99040424000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-15T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>7610431713000</v>
+      </c>
+      <c r="L93">
+        <v>436427500</v>
+      </c>
+      <c r="M93">
+        <v>-783300</v>
+      </c>
+      <c r="N93">
+        <v>-11679662000</v>
+      </c>
+      <c r="O93">
+        <v>31501600</v>
+      </c>
+      <c r="P93">
+        <v>785220394000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671111960000</v>
+      </c>
+      <c r="B94">
+        <v>2679900</v>
+      </c>
+      <c r="C94">
+        <v>2522400</v>
+      </c>
+      <c r="D94">
+        <v>9700</v>
+      </c>
+      <c r="E94">
+        <v>44242437000</v>
+      </c>
+      <c r="F94">
+        <v>45191234000</v>
+      </c>
+      <c r="G94">
+        <v>94360000</v>
+      </c>
+      <c r="H94">
+        <v>5212000</v>
+      </c>
+      <c r="I94">
+        <v>89528031000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-15T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>7699959744000</v>
+      </c>
+      <c r="L94">
+        <v>441639500</v>
+      </c>
+      <c r="M94">
+        <v>-157500</v>
+      </c>
+      <c r="N94">
+        <v>948797000</v>
+      </c>
+      <c r="O94">
+        <v>31344100</v>
+      </c>
+      <c r="P94">
+        <v>786169191000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671112080000</v>
+      </c>
+      <c r="B95">
+        <v>2067500</v>
+      </c>
+      <c r="C95">
+        <v>2100800</v>
+      </c>
+      <c r="D95">
+        <v>23300</v>
+      </c>
+      <c r="E95">
+        <v>40676414000</v>
+      </c>
+      <c r="F95">
+        <v>42702591000</v>
+      </c>
+      <c r="G95">
+        <v>293055000</v>
+      </c>
+      <c r="H95">
+        <v>4191600</v>
+      </c>
+      <c r="I95">
+        <v>83672060000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-15T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>7783631804000</v>
+      </c>
+      <c r="L95">
+        <v>445831100</v>
+      </c>
+      <c r="M95">
+        <v>33300</v>
+      </c>
+      <c r="N95">
+        <v>2026177000</v>
+      </c>
+      <c r="O95">
+        <v>31377400</v>
+      </c>
+      <c r="P95">
+        <v>788195368000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671112200000</v>
+      </c>
+      <c r="B96">
+        <v>1714700</v>
+      </c>
+      <c r="C96">
+        <v>2899100</v>
+      </c>
+      <c r="D96">
+        <v>11300</v>
+      </c>
+      <c r="E96">
+        <v>30305256000</v>
+      </c>
+      <c r="F96">
+        <v>52785172000</v>
+      </c>
+      <c r="G96">
+        <v>211225000</v>
+      </c>
+      <c r="H96">
+        <v>4625100</v>
+      </c>
+      <c r="I96">
+        <v>83301653000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-15T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>7866933457000</v>
+      </c>
+      <c r="L96">
+        <v>450456200</v>
+      </c>
+      <c r="M96">
+        <v>1184400</v>
+      </c>
+      <c r="N96">
+        <v>22479916000</v>
+      </c>
+      <c r="O96">
+        <v>32561800</v>
+      </c>
+      <c r="P96">
+        <v>810675284000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671112320000</v>
+      </c>
+      <c r="B97">
+        <v>1993000</v>
+      </c>
+      <c r="C97">
+        <v>4746000</v>
+      </c>
+      <c r="D97">
+        <v>65100</v>
+      </c>
+      <c r="E97">
+        <v>35934461000</v>
+      </c>
+      <c r="F97">
+        <v>93675896000</v>
+      </c>
+      <c r="G97">
+        <v>1518359000</v>
+      </c>
+      <c r="H97">
+        <v>6804100</v>
+      </c>
+      <c r="I97">
+        <v>131128716000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-15T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>7998062173000</v>
+      </c>
+      <c r="L97">
+        <v>457260300</v>
+      </c>
+      <c r="M97">
+        <v>2753000</v>
+      </c>
+      <c r="N97">
+        <v>57741435000</v>
+      </c>
+      <c r="O97">
+        <v>35314800</v>
+      </c>
+      <c r="P97">
+        <v>868416719000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671112440000</v>
+      </c>
+      <c r="B98">
+        <v>1474300</v>
+      </c>
+      <c r="C98">
+        <v>6579000</v>
+      </c>
+      <c r="D98">
+        <v>41400</v>
+      </c>
+      <c r="E98">
+        <v>24873875000</v>
+      </c>
+      <c r="F98">
+        <v>109246512000</v>
+      </c>
+      <c r="G98">
+        <v>368265000</v>
+      </c>
+      <c r="H98">
+        <v>8094700</v>
+      </c>
+      <c r="I98">
+        <v>134488652000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-15T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8132550825000</v>
+      </c>
+      <c r="L98">
+        <v>465355000</v>
+      </c>
+      <c r="M98">
+        <v>5104700</v>
+      </c>
+      <c r="N98">
+        <v>84372637000</v>
+      </c>
+      <c r="O98">
+        <v>40419500</v>
+      </c>
+      <c r="P98">
+        <v>952789356000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671112560000</v>
+      </c>
+      <c r="B99">
+        <v>1853300</v>
+      </c>
+      <c r="C99">
+        <v>6835000</v>
+      </c>
+      <c r="D99">
+        <v>30400</v>
+      </c>
+      <c r="E99">
+        <v>35469130000</v>
+      </c>
+      <c r="F99">
+        <v>109473219000</v>
+      </c>
+      <c r="G99">
+        <v>817535000</v>
+      </c>
+      <c r="H99">
+        <v>8718700</v>
+      </c>
+      <c r="I99">
+        <v>145759884000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-15T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8278310709000</v>
+      </c>
+      <c r="L99">
+        <v>474073700</v>
+      </c>
+      <c r="M99">
+        <v>4981700</v>
+      </c>
+      <c r="N99">
+        <v>74004089000</v>
+      </c>
+      <c r="O99">
+        <v>45401200</v>
+      </c>
+      <c r="P99">
+        <v>1026793445000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671112680000</v>
+      </c>
+      <c r="B100">
+        <v>2636100</v>
+      </c>
+      <c r="C100">
+        <v>6043800</v>
+      </c>
+      <c r="D100">
+        <v>19200</v>
+      </c>
+      <c r="E100">
+        <v>44996735000</v>
+      </c>
+      <c r="F100">
+        <v>100129064000</v>
+      </c>
+      <c r="G100">
+        <v>222047000</v>
+      </c>
+      <c r="H100">
+        <v>8699100</v>
+      </c>
+      <c r="I100">
+        <v>145347846000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-15T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8423658555000</v>
+      </c>
+      <c r="L100">
+        <v>482772800</v>
+      </c>
+      <c r="M100">
+        <v>3407700</v>
+      </c>
+      <c r="N100">
+        <v>55132329000</v>
+      </c>
+      <c r="O100">
+        <v>48808900</v>
+      </c>
+      <c r="P100">
+        <v>1081925774000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671112800000</v>
+      </c>
+      <c r="B101">
+        <v>4673200</v>
+      </c>
+      <c r="C101">
+        <v>3212400</v>
+      </c>
+      <c r="D101">
+        <v>13200</v>
+      </c>
+      <c r="E101">
+        <v>83484082000</v>
+      </c>
+      <c r="F101">
+        <v>56637822000</v>
+      </c>
+      <c r="G101">
+        <v>423113000</v>
+      </c>
+      <c r="H101">
+        <v>7898800</v>
+      </c>
+      <c r="I101">
+        <v>140545017000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-15T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8564203572000</v>
+      </c>
+      <c r="L101">
+        <v>490671600</v>
+      </c>
+      <c r="M101">
+        <v>-1460800</v>
+      </c>
+      <c r="N101">
+        <v>-26846260000</v>
+      </c>
+      <c r="O101">
+        <v>47348100</v>
+      </c>
+      <c r="P101">
+        <v>1055079514000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671112920000</v>
+      </c>
+      <c r="B102">
+        <v>5490400</v>
+      </c>
+      <c r="C102">
+        <v>1706400</v>
+      </c>
+      <c r="D102">
+        <v>18000</v>
+      </c>
+      <c r="E102">
+        <v>99334953000</v>
+      </c>
+      <c r="F102">
+        <v>28717733000</v>
+      </c>
+      <c r="G102">
+        <v>446162000</v>
+      </c>
+      <c r="H102">
+        <v>7214800</v>
+      </c>
+      <c r="I102">
+        <v>128498848000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-15T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>8692702420000</v>
+      </c>
+      <c r="L102">
+        <v>497886400</v>
+      </c>
+      <c r="M102">
+        <v>-3784000</v>
+      </c>
+      <c r="N102">
+        <v>-70617220000</v>
+      </c>
+      <c r="O102">
+        <v>43564100</v>
+      </c>
+      <c r="P102">
+        <v>984462294000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671113040000</v>
+      </c>
+      <c r="B103">
+        <v>2703200</v>
+      </c>
+      <c r="C103">
+        <v>1769500</v>
+      </c>
+      <c r="D103">
+        <v>22100</v>
+      </c>
+      <c r="E103">
+        <v>48385731000</v>
+      </c>
+      <c r="F103">
+        <v>29820939000</v>
+      </c>
+      <c r="G103">
+        <v>329687000</v>
+      </c>
+      <c r="H103">
+        <v>4494800</v>
+      </c>
+      <c r="I103">
+        <v>78536357000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-15T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>8771238777000</v>
+      </c>
+      <c r="L103">
+        <v>502381200</v>
+      </c>
+      <c r="M103">
+        <v>-933700</v>
+      </c>
+      <c r="N103">
+        <v>-18564792000</v>
+      </c>
+      <c r="O103">
+        <v>42630400</v>
+      </c>
+      <c r="P103">
+        <v>965897502000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671113160000</v>
+      </c>
+      <c r="B104">
+        <v>2399200</v>
+      </c>
+      <c r="C104">
+        <v>1400500</v>
+      </c>
+      <c r="D104">
+        <v>3400</v>
+      </c>
+      <c r="E104">
+        <v>49293203000</v>
+      </c>
+      <c r="F104">
+        <v>25708793000</v>
+      </c>
+      <c r="G104">
+        <v>65745000</v>
+      </c>
+      <c r="H104">
+        <v>3803100</v>
+      </c>
+      <c r="I104">
+        <v>75067741000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-15T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>8846306518000</v>
+      </c>
+      <c r="L104">
+        <v>506184300</v>
+      </c>
+      <c r="M104">
+        <v>-998700</v>
+      </c>
+      <c r="N104">
+        <v>-23584410000</v>
+      </c>
+      <c r="O104">
+        <v>41631700</v>
+      </c>
+      <c r="P104">
+        <v>942313092000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671113280000</v>
+      </c>
+      <c r="B105">
+        <v>2129500</v>
+      </c>
+      <c r="C105">
+        <v>1736300</v>
+      </c>
+      <c r="D105">
+        <v>17000</v>
+      </c>
+      <c r="E105">
+        <v>34864266000</v>
+      </c>
+      <c r="F105">
+        <v>33627852000</v>
+      </c>
+      <c r="G105">
+        <v>156739000</v>
+      </c>
+      <c r="H105">
+        <v>3882800</v>
+      </c>
+      <c r="I105">
+        <v>68648857000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-15T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>8914955375000</v>
+      </c>
+      <c r="L105">
+        <v>510067100</v>
+      </c>
+      <c r="M105">
+        <v>-393200</v>
+      </c>
+      <c r="N105">
+        <v>-1236414000</v>
+      </c>
+      <c r="O105">
+        <v>41238500</v>
+      </c>
+      <c r="P105">
+        <v>941076678000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671113400000</v>
+      </c>
+      <c r="B106">
+        <v>1973000</v>
+      </c>
+      <c r="C106">
+        <v>1751600</v>
+      </c>
+      <c r="D106">
+        <v>54400</v>
+      </c>
+      <c r="E106">
+        <v>37049430000</v>
+      </c>
+      <c r="F106">
+        <v>30106448000</v>
+      </c>
+      <c r="G106">
+        <v>792413000</v>
+      </c>
+      <c r="H106">
+        <v>3779000</v>
+      </c>
+      <c r="I106">
+        <v>67948291000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-15T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>8982903666000</v>
+      </c>
+      <c r="L106">
+        <v>513846100</v>
+      </c>
+      <c r="M106">
+        <v>-221400</v>
+      </c>
+      <c r="N106">
+        <v>-6942982000</v>
+      </c>
+      <c r="O106">
+        <v>41017100</v>
+      </c>
+      <c r="P106">
+        <v>934133696000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671113520000</v>
+      </c>
+      <c r="B107">
+        <v>5161100</v>
+      </c>
+      <c r="C107">
+        <v>1812500</v>
+      </c>
+      <c r="D107">
+        <v>18800</v>
+      </c>
+      <c r="E107">
+        <v>93260575000</v>
+      </c>
+      <c r="F107">
+        <v>32865177000</v>
+      </c>
+      <c r="G107">
+        <v>494364000</v>
+      </c>
+      <c r="H107">
+        <v>6992400</v>
+      </c>
+      <c r="I107">
+        <v>126620116000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-15T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>9109523782000</v>
+      </c>
+      <c r="L107">
+        <v>520838500</v>
+      </c>
+      <c r="M107">
+        <v>-3348600</v>
+      </c>
+      <c r="N107">
+        <v>-60395398000</v>
+      </c>
+      <c r="O107">
+        <v>37668500</v>
+      </c>
+      <c r="P107">
+        <v>873738298000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671113640000</v>
+      </c>
+      <c r="B108">
+        <v>11347600</v>
+      </c>
+      <c r="C108">
+        <v>1670800</v>
+      </c>
+      <c r="D108">
+        <v>40000</v>
+      </c>
+      <c r="E108">
+        <v>202949312000</v>
+      </c>
+      <c r="F108">
+        <v>27571975000</v>
+      </c>
+      <c r="G108">
+        <v>837417000</v>
+      </c>
+      <c r="H108">
+        <v>13058400</v>
+      </c>
+      <c r="I108">
+        <v>231358704000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-15T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>9340882486000</v>
+      </c>
+      <c r="L108">
+        <v>533896900</v>
+      </c>
+      <c r="M108">
+        <v>-9676800</v>
+      </c>
+      <c r="N108">
+        <v>-175377337000</v>
+      </c>
+      <c r="O108">
+        <v>27991700</v>
+      </c>
+      <c r="P108">
+        <v>698360961000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671113760000</v>
+      </c>
+      <c r="B109">
+        <v>10530100</v>
+      </c>
+      <c r="C109">
+        <v>3277400</v>
+      </c>
+      <c r="D109">
+        <v>116400</v>
+      </c>
+      <c r="E109">
+        <v>187616968000</v>
+      </c>
+      <c r="F109">
+        <v>64480117000</v>
+      </c>
+      <c r="G109">
+        <v>1585715000</v>
+      </c>
+      <c r="H109">
+        <v>13923900</v>
+      </c>
+      <c r="I109">
+        <v>253682800000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-15T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>9594565286000</v>
+      </c>
+      <c r="L109">
+        <v>547820800</v>
+      </c>
+      <c r="M109">
+        <v>-7252700</v>
+      </c>
+      <c r="N109">
+        <v>-123136851000</v>
+      </c>
+      <c r="O109">
+        <v>20739000</v>
+      </c>
+      <c r="P109">
+        <v>575224110000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671113880000</v>
+      </c>
+      <c r="B110">
+        <v>2912900</v>
+      </c>
+      <c r="C110">
+        <v>4950200</v>
+      </c>
+      <c r="D110">
+        <v>16700</v>
+      </c>
+      <c r="E110">
+        <v>65706371000</v>
+      </c>
+      <c r="F110">
+        <v>84884032000</v>
+      </c>
+      <c r="G110">
+        <v>415055000</v>
+      </c>
+      <c r="H110">
+        <v>7879800</v>
+      </c>
+      <c r="I110">
+        <v>151005458000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-15T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>9745570744000</v>
+      </c>
+      <c r="L110">
+        <v>555700600</v>
+      </c>
+      <c r="M110">
+        <v>2037300</v>
+      </c>
+      <c r="N110">
+        <v>19177661000</v>
+      </c>
+      <c r="O110">
+        <v>22776300</v>
+      </c>
+      <c r="P110">
+        <v>594401771000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671114000000</v>
+      </c>
+      <c r="B111">
+        <v>2266800</v>
+      </c>
+      <c r="C111">
+        <v>3866300</v>
+      </c>
+      <c r="D111">
+        <v>25700</v>
+      </c>
+      <c r="E111">
+        <v>51735976000</v>
+      </c>
+      <c r="F111">
+        <v>70877346000</v>
+      </c>
+      <c r="G111">
+        <v>1059915000</v>
+      </c>
+      <c r="H111">
+        <v>6158800</v>
+      </c>
+      <c r="I111">
+        <v>123673237000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-15T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>9869243981000</v>
+      </c>
+      <c r="L111">
+        <v>561859400</v>
+      </c>
+      <c r="M111">
+        <v>1599500</v>
+      </c>
+      <c r="N111">
+        <v>19141370000</v>
+      </c>
+      <c r="O111">
+        <v>24375800</v>
+      </c>
+      <c r="P111">
+        <v>613543141000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671114120000</v>
+      </c>
+      <c r="B112">
+        <v>2435500</v>
+      </c>
+      <c r="C112">
+        <v>2935200</v>
+      </c>
+      <c r="D112">
+        <v>2800</v>
+      </c>
+      <c r="E112">
+        <v>46518547000</v>
+      </c>
+      <c r="F112">
+        <v>58972479000</v>
+      </c>
+      <c r="G112">
+        <v>74936000</v>
+      </c>
+      <c r="H112">
+        <v>5373500</v>
+      </c>
+      <c r="I112">
+        <v>105565962000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-15T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>9974809943000</v>
+      </c>
+      <c r="L112">
+        <v>567232900</v>
+      </c>
+      <c r="M112">
+        <v>499700</v>
+      </c>
+      <c r="N112">
+        <v>12453932000</v>
+      </c>
+      <c r="O112">
+        <v>24875500</v>
+      </c>
+      <c r="P112">
+        <v>625997073000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671114240000</v>
+      </c>
+      <c r="B113">
+        <v>3173200</v>
+      </c>
+      <c r="C113">
+        <v>2311600</v>
+      </c>
+      <c r="D113">
+        <v>83700</v>
+      </c>
+      <c r="E113">
+        <v>63922684000</v>
+      </c>
+      <c r="F113">
+        <v>47600010000</v>
+      </c>
+      <c r="G113">
+        <v>1193460000</v>
+      </c>
+      <c r="H113">
+        <v>5568500</v>
+      </c>
+      <c r="I113">
+        <v>112716154000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-15T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>10087526097000</v>
+      </c>
+      <c r="L113">
+        <v>572801400</v>
+      </c>
+      <c r="M113">
+        <v>-861600</v>
+      </c>
+      <c r="N113">
+        <v>-16322674000</v>
+      </c>
+      <c r="O113">
+        <v>24013900</v>
+      </c>
+      <c r="P113">
+        <v>609674399000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671114360000</v>
+      </c>
+      <c r="B114">
+        <v>3350500</v>
+      </c>
+      <c r="C114">
+        <v>5005800</v>
+      </c>
+      <c r="D114">
+        <v>22600</v>
+      </c>
+      <c r="E114">
+        <v>63554892000</v>
+      </c>
+      <c r="F114">
+        <v>83503465000</v>
+      </c>
+      <c r="G114">
+        <v>596058000</v>
+      </c>
+      <c r="H114">
+        <v>8378900</v>
+      </c>
+      <c r="I114">
+        <v>147654415000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-15T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10235180512000</v>
+      </c>
+      <c r="L114">
+        <v>581180300</v>
+      </c>
+      <c r="M114">
+        <v>1655300</v>
+      </c>
+      <c r="N114">
+        <v>19948573000</v>
+      </c>
+      <c r="O114">
+        <v>25669200</v>
+      </c>
+      <c r="P114">
+        <v>629622972000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671114480000</v>
+      </c>
+      <c r="B115">
+        <v>3595000</v>
+      </c>
+      <c r="C115">
+        <v>5455400</v>
+      </c>
+      <c r="D115">
+        <v>39100</v>
+      </c>
+      <c r="E115">
+        <v>61939301000</v>
+      </c>
+      <c r="F115">
+        <v>89157732000</v>
+      </c>
+      <c r="G115">
+        <v>817291000</v>
+      </c>
+      <c r="H115">
+        <v>9089500</v>
+      </c>
+      <c r="I115">
+        <v>151914324000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-15T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>10387094836000</v>
+      </c>
+      <c r="L115">
+        <v>590269800</v>
+      </c>
+      <c r="M115">
+        <v>1860400</v>
+      </c>
+      <c r="N115">
+        <v>27218431000</v>
+      </c>
+      <c r="O115">
+        <v>27529600</v>
+      </c>
+      <c r="P115">
+        <v>656841403000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671114600000</v>
+      </c>
+      <c r="B116">
+        <v>9000</v>
+      </c>
+      <c r="C116">
+        <v>200</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>108800000</v>
+      </c>
+      <c r="F116">
+        <v>940000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>9200</v>
+      </c>
+      <c r="I116">
+        <v>109740000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-15T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>10387204576000</v>
+      </c>
+      <c r="L116">
+        <v>590279000</v>
+      </c>
+      <c r="M116">
+        <v>-8800</v>
+      </c>
+      <c r="N116">
+        <v>-107860000</v>
+      </c>
+      <c r="O116">
+        <v>27520800</v>
+      </c>
+      <c r="P116">
+        <v>656733543000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671115440000</v>
+      </c>
+      <c r="B117">
+        <v>3311000</v>
+      </c>
+      <c r="C117">
+        <v>4860700</v>
+      </c>
+      <c r="D117">
+        <v>30918400</v>
+      </c>
+      <c r="E117">
+        <v>101407272000</v>
+      </c>
+      <c r="F117">
+        <v>87940839000</v>
+      </c>
+      <c r="G117">
+        <v>582278270000</v>
+      </c>
+      <c r="H117">
+        <v>39090100</v>
+      </c>
+      <c r="I117">
+        <v>771626381000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-15T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>11158830957000</v>
+      </c>
+      <c r="L117">
+        <v>629369100</v>
+      </c>
+      <c r="M117">
+        <v>1549700</v>
+      </c>
+      <c r="N117">
+        <v>-13466433000</v>
+      </c>
+      <c r="O117">
+        <v>29070500</v>
+      </c>
+      <c r="P117">
+        <v>643267110000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671115920000</v>
+      </c>
+      <c r="B118">
         <v>500</v>
       </c>
-      <c r="C50">
+      <c r="C118">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D118">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E118">
         <v>5050000</v>
       </c>
-      <c r="F50">
+      <c r="F118">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G118">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H118">
         <v>500</v>
       </c>
-      <c r="I50">
+      <c r="I118">
         <v>5050000</v>
       </c>
-      <c r="J50" t="str">
-        <v>2022-12-15T14:50:00.000Z</v>
-      </c>
-      <c r="K50">
+      <c r="J118" t="str">
+        <v>2022-12-15T14:52:00.000Z</v>
+      </c>
+      <c r="K118">
         <v>11158836007000</v>
       </c>
-      <c r="L50">
+      <c r="L118">
         <v>629369600</v>
       </c>
-      <c r="M50">
+      <c r="M118">
         <v>-500</v>
       </c>
-      <c r="N50">
+      <c r="N118">
         <v>-5050000</v>
       </c>
-      <c r="O50">
+      <c r="O118">
         <v>29070000</v>
       </c>
-      <c r="P50">
+      <c r="P118">
         <v>643262060000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
+++ b/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
@@ -466,25 +466,25 @@
         <v>6377200</v>
       </c>
       <c r="E2">
-        <v>41468554000</v>
+        <v>37472653900</v>
       </c>
       <c r="F2">
-        <v>22387762000</v>
+        <v>18803949400</v>
       </c>
       <c r="G2">
-        <v>68793369000</v>
+        <v>66949814400</v>
       </c>
       <c r="H2">
         <v>10344900</v>
       </c>
       <c r="I2">
-        <v>132649685000</v>
+        <v>123226417700</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-15T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>132649685000</v>
+        <v>123226417700</v>
       </c>
       <c r="L2">
         <v>10344900</v>
@@ -493,13 +493,13 @@
         <v>-1336100</v>
       </c>
       <c r="N2">
-        <v>-19080792000</v>
+        <v>-18668704500</v>
       </c>
       <c r="O2">
         <v>-1336100</v>
       </c>
       <c r="P2">
-        <v>-19080792000</v>
+        <v>-18668704500</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>12900</v>
       </c>
       <c r="E3">
-        <v>23705233000</v>
+        <v>18296347300</v>
       </c>
       <c r="F3">
-        <v>38838895000</v>
+        <v>35411326000</v>
       </c>
       <c r="G3">
         <v>114833000</v>
@@ -528,13 +528,13 @@
         <v>3841400</v>
       </c>
       <c r="I3">
-        <v>62658961000</v>
+        <v>53822506300</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-15T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>195308646000</v>
+        <v>177048924000</v>
       </c>
       <c r="L3">
         <v>14186300</v>
@@ -543,13 +543,13 @@
         <v>927100</v>
       </c>
       <c r="N3">
-        <v>15133662000</v>
+        <v>17114978700</v>
       </c>
       <c r="O3">
         <v>-409000</v>
       </c>
       <c r="P3">
-        <v>-3947130000</v>
+        <v>-1553725800</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>53700</v>
       </c>
       <c r="E4">
-        <v>21294339000</v>
+        <v>20810922900</v>
       </c>
       <c r="F4">
-        <v>49268513000</v>
+        <v>42876511400</v>
       </c>
       <c r="G4">
         <v>862363000</v>
@@ -578,13 +578,13 @@
         <v>4237400</v>
       </c>
       <c r="I4">
-        <v>71425215000</v>
+        <v>64549797300</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-15T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>266733861000</v>
+        <v>241598721300</v>
       </c>
       <c r="L4">
         <v>18423700</v>
@@ -593,13 +593,13 @@
         <v>1451100</v>
       </c>
       <c r="N4">
-        <v>27974174000</v>
+        <v>22065588500</v>
       </c>
       <c r="O4">
         <v>1042100</v>
       </c>
       <c r="P4">
-        <v>24027044000</v>
+        <v>20511862700</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>9200</v>
       </c>
       <c r="E5">
-        <v>26474069000</v>
+        <v>24515929100</v>
       </c>
       <c r="F5">
-        <v>75729317000</v>
+        <v>70193458400</v>
       </c>
       <c r="G5">
         <v>159539000</v>
@@ -628,13 +628,13 @@
         <v>5772400</v>
       </c>
       <c r="I5">
-        <v>102362925000</v>
+        <v>94868926500</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-15T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>369096786000</v>
+        <v>336467647800</v>
       </c>
       <c r="L5">
         <v>24196100</v>
@@ -643,13 +643,13 @@
         <v>2680000</v>
       </c>
       <c r="N5">
-        <v>49255248000</v>
+        <v>45677529300</v>
       </c>
       <c r="O5">
         <v>3722100</v>
       </c>
       <c r="P5">
-        <v>73282292000</v>
+        <v>66189392000</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>27400</v>
       </c>
       <c r="E6">
-        <v>34307894000</v>
+        <v>29733872600</v>
       </c>
       <c r="F6">
-        <v>71170193000</v>
+        <v>67504862000</v>
       </c>
       <c r="G6">
         <v>272894000</v>
@@ -678,13 +678,13 @@
         <v>6435800</v>
       </c>
       <c r="I6">
-        <v>105750981000</v>
+        <v>97511628600</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-15T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>474847767000</v>
+        <v>433979276400</v>
       </c>
       <c r="L6">
         <v>30631900</v>
@@ -693,13 +693,13 @@
         <v>1958200</v>
       </c>
       <c r="N6">
-        <v>36862299000</v>
+        <v>37770989400</v>
       </c>
       <c r="O6">
         <v>5680300</v>
       </c>
       <c r="P6">
-        <v>110144591000</v>
+        <v>103960381400</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>206000</v>
       </c>
       <c r="E7">
-        <v>36260998000</v>
+        <v>32417045800</v>
       </c>
       <c r="F7">
-        <v>69594095000</v>
+        <v>65509283900</v>
       </c>
       <c r="G7">
         <v>3426898000</v>
@@ -728,13 +728,13 @@
         <v>6467300</v>
       </c>
       <c r="I7">
-        <v>109281991000</v>
+        <v>101353227700</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-15T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>584129758000</v>
+        <v>535332504100</v>
       </c>
       <c r="L7">
         <v>37099200</v>
@@ -743,13 +743,13 @@
         <v>1847100</v>
       </c>
       <c r="N7">
-        <v>33333097000</v>
+        <v>33092238100</v>
       </c>
       <c r="O7">
         <v>7527400</v>
       </c>
       <c r="P7">
-        <v>143477688000</v>
+        <v>137052619500</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>3200</v>
       </c>
       <c r="E8">
-        <v>43452480000</v>
+        <v>41415119400</v>
       </c>
       <c r="F8">
-        <v>47508133000</v>
+        <v>45289653700</v>
       </c>
       <c r="G8">
         <v>39693000</v>
@@ -778,13 +778,13 @@
         <v>5302400</v>
       </c>
       <c r="I8">
-        <v>91000306000</v>
+        <v>86744466100</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-15T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>675130064000</v>
+        <v>622076970200</v>
       </c>
       <c r="L8">
         <v>42401600</v>
@@ -793,13 +793,13 @@
         <v>212800</v>
       </c>
       <c r="N8">
-        <v>4055653000</v>
+        <v>3874534300</v>
       </c>
       <c r="O8">
         <v>7740200</v>
       </c>
       <c r="P8">
-        <v>147533341000</v>
+        <v>140927153800</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>38100</v>
       </c>
       <c r="E9">
-        <v>40973690000</v>
+        <v>38093073500</v>
       </c>
       <c r="F9">
-        <v>35371340000</v>
+        <v>30782633300</v>
       </c>
       <c r="G9">
-        <v>495456000</v>
+        <v>478672800</v>
       </c>
       <c r="H9">
         <v>4484500</v>
       </c>
       <c r="I9">
-        <v>76840486000</v>
+        <v>69354379600</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-15T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>751970550000</v>
+        <v>691431349800</v>
       </c>
       <c r="L9">
         <v>46886100</v>
@@ -843,13 +843,13 @@
         <v>-283000</v>
       </c>
       <c r="N9">
-        <v>-5602350000</v>
+        <v>-7310440200</v>
       </c>
       <c r="O9">
         <v>7457200</v>
       </c>
       <c r="P9">
-        <v>141930991000</v>
+        <v>133616713600</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>2300</v>
       </c>
       <c r="E10">
-        <v>36541643000</v>
+        <v>34709177300</v>
       </c>
       <c r="F10">
-        <v>35732127000</v>
+        <v>33687273900</v>
       </c>
       <c r="G10">
         <v>29580000</v>
@@ -878,13 +878,13 @@
         <v>4546900</v>
       </c>
       <c r="I10">
-        <v>72303350000</v>
+        <v>68426031200</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-15T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>824273900000</v>
+        <v>759857381000</v>
       </c>
       <c r="L10">
         <v>51433000</v>
@@ -893,13 +893,13 @@
         <v>32000</v>
       </c>
       <c r="N10">
-        <v>-809516000</v>
+        <v>-1021903400</v>
       </c>
       <c r="O10">
         <v>7489200</v>
       </c>
       <c r="P10">
-        <v>141121475000</v>
+        <v>132594810200</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>8100</v>
       </c>
       <c r="E11">
-        <v>33986414000</v>
+        <v>33507493400</v>
       </c>
       <c r="F11">
-        <v>30576884000</v>
+        <v>28801960700</v>
       </c>
       <c r="G11">
         <v>168240000</v>
@@ -928,13 +928,13 @@
         <v>3848400</v>
       </c>
       <c r="I11">
-        <v>64731538000</v>
+        <v>62477694100</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-15T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>889005438000</v>
+        <v>822335075100</v>
       </c>
       <c r="L11">
         <v>55281400</v>
@@ -943,13 +943,13 @@
         <v>-396100</v>
       </c>
       <c r="N11">
-        <v>-3409530000</v>
+        <v>-4705532700</v>
       </c>
       <c r="O11">
         <v>7093100</v>
       </c>
       <c r="P11">
-        <v>137711945000</v>
+        <v>127889277500</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>3000</v>
       </c>
       <c r="E12">
-        <v>41189394000</v>
+        <v>38509676400</v>
       </c>
       <c r="F12">
-        <v>73376659000</v>
+        <v>66195647200</v>
       </c>
       <c r="G12">
-        <v>62930000</v>
+        <v>50742200</v>
       </c>
       <c r="H12">
         <v>6793600</v>
       </c>
       <c r="I12">
-        <v>114628983000</v>
+        <v>104756065800</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-15T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1003634421000</v>
+        <v>927091140900</v>
       </c>
       <c r="L12">
         <v>62075000</v>
@@ -993,13 +993,13 @@
         <v>1315600</v>
       </c>
       <c r="N12">
-        <v>32187265000</v>
+        <v>27685970800</v>
       </c>
       <c r="O12">
         <v>8408700</v>
       </c>
       <c r="P12">
-        <v>169899210000</v>
+        <v>155575248300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>9900</v>
       </c>
       <c r="E13">
-        <v>26293547000</v>
+        <v>23460183200</v>
       </c>
       <c r="F13">
-        <v>71385863000</v>
+        <v>69180570500</v>
       </c>
       <c r="G13">
         <v>160910000</v>
@@ -1028,13 +1028,13 @@
         <v>5615500</v>
       </c>
       <c r="I13">
-        <v>97840320000</v>
+        <v>92801663700</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-15T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1101474741000</v>
+        <v>1019892804600</v>
       </c>
       <c r="L13">
         <v>67690500</v>
@@ -1043,13 +1043,13 @@
         <v>2615600</v>
       </c>
       <c r="N13">
-        <v>45092316000</v>
+        <v>45720387300</v>
       </c>
       <c r="O13">
         <v>11024300</v>
       </c>
       <c r="P13">
-        <v>214991526000</v>
+        <v>201295635600</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>2300</v>
       </c>
       <c r="E14">
-        <v>30804234000</v>
+        <v>28887352800</v>
       </c>
       <c r="F14">
-        <v>72627703000</v>
+        <v>64381057900</v>
       </c>
       <c r="G14">
-        <v>32642000</v>
+        <v>31043600</v>
       </c>
       <c r="H14">
         <v>5780100</v>
       </c>
       <c r="I14">
-        <v>103464579000</v>
+        <v>93299454300</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-15T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1204939320000</v>
+        <v>1113192258900</v>
       </c>
       <c r="L14">
         <v>73470600</v>
@@ -1093,13 +1093,13 @@
         <v>2426800</v>
       </c>
       <c r="N14">
-        <v>41823469000</v>
+        <v>35493705100</v>
       </c>
       <c r="O14">
         <v>13451100</v>
       </c>
       <c r="P14">
-        <v>256814995000</v>
+        <v>236789340700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>8600</v>
       </c>
       <c r="E15">
-        <v>25916952000</v>
+        <v>24431339100</v>
       </c>
       <c r="F15">
-        <v>83278362000</v>
+        <v>69732621300</v>
       </c>
       <c r="G15">
         <v>175196000</v>
@@ -1128,13 +1128,13 @@
         <v>6130900</v>
       </c>
       <c r="I15">
-        <v>109370510000</v>
+        <v>94339156400</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-15T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1314309830000</v>
+        <v>1207531415300</v>
       </c>
       <c r="L15">
         <v>79601500</v>
@@ -1143,13 +1143,13 @@
         <v>3519700</v>
       </c>
       <c r="N15">
-        <v>57361410000</v>
+        <v>45301282200</v>
       </c>
       <c r="O15">
         <v>16970800</v>
       </c>
       <c r="P15">
-        <v>314176405000</v>
+        <v>282090622900</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>12100</v>
       </c>
       <c r="E16">
-        <v>25982821000</v>
+        <v>24087817900</v>
       </c>
       <c r="F16">
-        <v>162159703000</v>
+        <v>120283421200</v>
       </c>
       <c r="G16">
-        <v>343214000</v>
+        <v>288269000</v>
       </c>
       <c r="H16">
         <v>10513200</v>
       </c>
       <c r="I16">
-        <v>188485738000</v>
+        <v>144659508100</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-15T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1502795568000</v>
+        <v>1352190923400</v>
       </c>
       <c r="L16">
         <v>90114700</v>
@@ -1193,13 +1193,13 @@
         <v>7507300</v>
       </c>
       <c r="N16">
-        <v>136176882000</v>
+        <v>96195603300</v>
       </c>
       <c r="O16">
         <v>24478100</v>
       </c>
       <c r="P16">
-        <v>450353287000</v>
+        <v>378286226200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>163800</v>
       </c>
       <c r="E17">
-        <v>38519483000</v>
+        <v>35273432300</v>
       </c>
       <c r="F17">
-        <v>206756338000</v>
+        <v>190344366400</v>
       </c>
       <c r="G17">
         <v>2005129000</v>
@@ -1228,13 +1228,13 @@
         <v>14094700</v>
       </c>
       <c r="I17">
-        <v>247280950000</v>
+        <v>227622927700</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-15T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1750076518000</v>
+        <v>1579813851100</v>
       </c>
       <c r="L17">
         <v>104209400</v>
@@ -1243,13 +1243,13 @@
         <v>9720500</v>
       </c>
       <c r="N17">
-        <v>168236855000</v>
+        <v>155070934100</v>
       </c>
       <c r="O17">
         <v>34198600</v>
       </c>
       <c r="P17">
-        <v>618590142000</v>
+        <v>533357160300</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>18400</v>
       </c>
       <c r="E18">
-        <v>52396344000</v>
+        <v>48318226200</v>
       </c>
       <c r="F18">
-        <v>100938580000</v>
+        <v>88076854600</v>
       </c>
       <c r="G18">
         <v>284644000</v>
@@ -1278,13 +1278,13 @@
         <v>8898400</v>
       </c>
       <c r="I18">
-        <v>153619568000</v>
+        <v>136679724800</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-15T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1903696086000</v>
+        <v>1716493575900</v>
       </c>
       <c r="L18">
         <v>113107800</v>
@@ -1293,13 +1293,13 @@
         <v>2888600</v>
       </c>
       <c r="N18">
-        <v>48542236000</v>
+        <v>39758628400</v>
       </c>
       <c r="O18">
         <v>37087200</v>
       </c>
       <c r="P18">
-        <v>667132378000</v>
+        <v>573115788700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>9400</v>
       </c>
       <c r="E19">
-        <v>69298026000</v>
+        <v>66437589300</v>
       </c>
       <c r="F19">
-        <v>44370525000</v>
+        <v>42574223100</v>
       </c>
       <c r="G19">
-        <v>198425000</v>
+        <v>197126300</v>
       </c>
       <c r="H19">
         <v>6838600</v>
       </c>
       <c r="I19">
-        <v>113866976000</v>
+        <v>109208938700</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-15T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2017563062000</v>
+        <v>1825702514600</v>
       </c>
       <c r="L19">
         <v>119946400</v>
@@ -1343,13 +1343,13 @@
         <v>-1468400</v>
       </c>
       <c r="N19">
-        <v>-24927501000</v>
+        <v>-23863366200</v>
       </c>
       <c r="O19">
         <v>35618800</v>
       </c>
       <c r="P19">
-        <v>642204877000</v>
+        <v>549252422500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>24100</v>
       </c>
       <c r="E20">
-        <v>80770143000</v>
+        <v>66390537000</v>
       </c>
       <c r="F20">
-        <v>39482405000</v>
+        <v>36717672500</v>
       </c>
       <c r="G20">
         <v>248001000</v>
@@ -1378,13 +1378,13 @@
         <v>7060400</v>
       </c>
       <c r="I20">
-        <v>120500549000</v>
+        <v>103356210500</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-15T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2138063611000</v>
+        <v>1929058725100</v>
       </c>
       <c r="L20">
         <v>127006800</v>
@@ -1393,13 +1393,13 @@
         <v>-2839500</v>
       </c>
       <c r="N20">
-        <v>-41287738000</v>
+        <v>-29672864500</v>
       </c>
       <c r="O20">
         <v>32779300</v>
       </c>
       <c r="P20">
-        <v>600917139000</v>
+        <v>519579558000</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>16600</v>
       </c>
       <c r="E21">
-        <v>53582992000</v>
+        <v>50332845400</v>
       </c>
       <c r="F21">
-        <v>54414817000</v>
+        <v>47301037900</v>
       </c>
       <c r="G21">
-        <v>240015000</v>
+        <v>207747300</v>
       </c>
       <c r="H21">
         <v>6331000</v>
       </c>
       <c r="I21">
-        <v>108237824000</v>
+        <v>97841630600</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-15T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2246301435000</v>
+        <v>2026900355700</v>
       </c>
       <c r="L21">
         <v>133337800</v>
@@ -1443,13 +1443,13 @@
         <v>-377200</v>
       </c>
       <c r="N21">
-        <v>831825000</v>
+        <v>-3031807500</v>
       </c>
       <c r="O21">
         <v>32402100</v>
       </c>
       <c r="P21">
-        <v>601748964000</v>
+        <v>516547750500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>15400</v>
       </c>
       <c r="E22">
-        <v>30266737000</v>
+        <v>28614990400</v>
       </c>
       <c r="F22">
-        <v>31287572000</v>
+        <v>29774686400</v>
       </c>
       <c r="G22">
         <v>420643000</v>
@@ -1478,13 +1478,13 @@
         <v>3476600</v>
       </c>
       <c r="I22">
-        <v>61974952000</v>
+        <v>58810319800</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-15T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2308276387000</v>
+        <v>2085710675500</v>
       </c>
       <c r="L22">
         <v>136814400</v>
@@ -1493,13 +1493,13 @@
         <v>-71600</v>
       </c>
       <c r="N22">
-        <v>1020835000</v>
+        <v>1159696000</v>
       </c>
       <c r="O22">
         <v>32330500</v>
       </c>
       <c r="P22">
-        <v>602769799000</v>
+        <v>517707446500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>3900</v>
       </c>
       <c r="E23">
-        <v>32208475000</v>
+        <v>31263121300</v>
       </c>
       <c r="F23">
-        <v>33089882000</v>
+        <v>32204368400</v>
       </c>
       <c r="G23">
-        <v>225870000</v>
+        <v>24471600</v>
       </c>
       <c r="H23">
         <v>4015800</v>
       </c>
       <c r="I23">
-        <v>65524227000</v>
+        <v>63491961300</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-15T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2373800614000</v>
+        <v>2149202636800</v>
       </c>
       <c r="L23">
         <v>140830200</v>
@@ -1543,13 +1543,13 @@
         <v>105100</v>
       </c>
       <c r="N23">
-        <v>881407000</v>
+        <v>941247100</v>
       </c>
       <c r="O23">
         <v>32435600</v>
       </c>
       <c r="P23">
-        <v>603651206000</v>
+        <v>518648693600</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>21500</v>
       </c>
       <c r="E24">
-        <v>30197439000</v>
+        <v>29435102100</v>
       </c>
       <c r="F24">
-        <v>79282675000</v>
+        <v>71772392800</v>
       </c>
       <c r="G24">
-        <v>673312000</v>
+        <v>337648000</v>
       </c>
       <c r="H24">
         <v>5145300</v>
       </c>
       <c r="I24">
-        <v>110153426000</v>
+        <v>101545142900</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-15T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2483954040000</v>
+        <v>2250747779700</v>
       </c>
       <c r="L24">
         <v>145975500</v>
@@ -1593,13 +1593,13 @@
         <v>1751400</v>
       </c>
       <c r="N24">
-        <v>49085236000</v>
+        <v>42337290700</v>
       </c>
       <c r="O24">
         <v>34187000</v>
       </c>
       <c r="P24">
-        <v>652736442000</v>
+        <v>560985984300</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>18700</v>
       </c>
       <c r="E25">
-        <v>24398318000</v>
+        <v>22032985700</v>
       </c>
       <c r="F25">
-        <v>57369183000</v>
+        <v>47346216000</v>
       </c>
       <c r="G25">
-        <v>389978000</v>
+        <v>268100000</v>
       </c>
       <c r="H25">
         <v>4068000</v>
       </c>
       <c r="I25">
-        <v>82157479000</v>
+        <v>69647301700</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-15T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2566111519000</v>
+        <v>2320395081400</v>
       </c>
       <c r="L25">
         <v>150043500</v>
@@ -1643,13 +1643,13 @@
         <v>1416700</v>
       </c>
       <c r="N25">
-        <v>32970865000</v>
+        <v>25313230300</v>
       </c>
       <c r="O25">
         <v>35603700</v>
       </c>
       <c r="P25">
-        <v>685707307000</v>
+        <v>586299214600</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>1300</v>
       </c>
       <c r="E26">
-        <v>26618326000</v>
+        <v>24860785300</v>
       </c>
       <c r="F26">
-        <v>54812963000</v>
+        <v>52405373000</v>
       </c>
       <c r="G26">
         <v>32355000</v>
@@ -1678,13 +1678,13 @@
         <v>4278700</v>
       </c>
       <c r="I26">
-        <v>81463644000</v>
+        <v>77298513300</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-15T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2647575163000</v>
+        <v>2397693594700</v>
       </c>
       <c r="L26">
         <v>154322200</v>
@@ -1693,13 +1693,13 @@
         <v>1327200</v>
       </c>
       <c r="N26">
-        <v>28194637000</v>
+        <v>27544587700</v>
       </c>
       <c r="O26">
         <v>36930900</v>
       </c>
       <c r="P26">
-        <v>713901944000</v>
+        <v>613843802300</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>55300</v>
       </c>
       <c r="E27">
-        <v>47896316000</v>
+        <v>46043370800</v>
       </c>
       <c r="F27">
-        <v>54372803000</v>
+        <v>52468609100</v>
       </c>
       <c r="G27">
         <v>703998000</v>
@@ -1728,13 +1728,13 @@
         <v>5498600</v>
       </c>
       <c r="I27">
-        <v>102973117000</v>
+        <v>99215977900</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-15T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2750548280000</v>
+        <v>2496909572600</v>
       </c>
       <c r="L27">
         <v>159820800</v>
@@ -1743,13 +1743,13 @@
         <v>68700</v>
       </c>
       <c r="N27">
-        <v>6476487000</v>
+        <v>6425238300</v>
       </c>
       <c r="O27">
         <v>36999600</v>
       </c>
       <c r="P27">
-        <v>720378431000</v>
+        <v>620269040600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>16900</v>
       </c>
       <c r="E28">
-        <v>54517608000</v>
+        <v>48695436000</v>
       </c>
       <c r="F28">
-        <v>34203515000</v>
+        <v>31126994600</v>
       </c>
       <c r="G28">
         <v>154280000</v>
@@ -1778,13 +1778,13 @@
         <v>4537100</v>
       </c>
       <c r="I28">
-        <v>88875403000</v>
+        <v>79976710600</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-15T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2839423683000</v>
+        <v>2576886283200</v>
       </c>
       <c r="L28">
         <v>164357900</v>
@@ -1793,13 +1793,13 @@
         <v>-1073200</v>
       </c>
       <c r="N28">
-        <v>-20314093000</v>
+        <v>-17568441400</v>
       </c>
       <c r="O28">
         <v>35926400</v>
       </c>
       <c r="P28">
-        <v>700064338000</v>
+        <v>602700599200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>23500</v>
       </c>
       <c r="E29">
-        <v>31491879000</v>
+        <v>29302170900</v>
       </c>
       <c r="F29">
-        <v>41750705000</v>
+        <v>40559797100</v>
       </c>
       <c r="G29">
         <v>521760000</v>
@@ -1828,13 +1828,13 @@
         <v>3745100</v>
       </c>
       <c r="I29">
-        <v>73764344000</v>
+        <v>70383728000</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-15T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2913188027000</v>
+        <v>2647270011200</v>
       </c>
       <c r="L29">
         <v>168103000</v>
@@ -1843,13 +1843,13 @@
         <v>46800</v>
       </c>
       <c r="N29">
-        <v>10258826000</v>
+        <v>11257626200</v>
       </c>
       <c r="O29">
         <v>35973200</v>
       </c>
       <c r="P29">
-        <v>710323164000</v>
+        <v>613958225400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>18800</v>
       </c>
       <c r="E30">
-        <v>32341125000</v>
+        <v>31054712700</v>
       </c>
       <c r="F30">
-        <v>52010341000</v>
+        <v>49724129500</v>
       </c>
       <c r="G30">
         <v>567306000</v>
@@ -1878,13 +1878,13 @@
         <v>4134800</v>
       </c>
       <c r="I30">
-        <v>84918772000</v>
+        <v>81346148200</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-15T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2998106799000</v>
+        <v>2728616159400</v>
       </c>
       <c r="L30">
         <v>172237800</v>
@@ -1893,13 +1893,13 @@
         <v>698600</v>
       </c>
       <c r="N30">
-        <v>19669216000</v>
+        <v>18669416800</v>
       </c>
       <c r="O30">
         <v>36671800</v>
       </c>
       <c r="P30">
-        <v>729992380000</v>
+        <v>632627642200</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>2600</v>
       </c>
       <c r="E31">
-        <v>37009212000</v>
+        <v>36019602600</v>
       </c>
       <c r="F31">
-        <v>20864539000</v>
+        <v>19690014700</v>
       </c>
       <c r="G31">
         <v>49262000</v>
@@ -1928,13 +1928,13 @@
         <v>3165000</v>
       </c>
       <c r="I31">
-        <v>57923013000</v>
+        <v>55758879300</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-15T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3056029812000</v>
+        <v>2784375038700</v>
       </c>
       <c r="L31">
         <v>175402800</v>
@@ -1943,13 +1943,13 @@
         <v>-841000</v>
       </c>
       <c r="N31">
-        <v>-16144673000</v>
+        <v>-16329587900</v>
       </c>
       <c r="O31">
         <v>35830800</v>
       </c>
       <c r="P31">
-        <v>713847707000</v>
+        <v>616298054300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>48100</v>
       </c>
       <c r="E32">
-        <v>43977643000</v>
+        <v>40708015900</v>
       </c>
       <c r="F32">
-        <v>34045106000</v>
+        <v>32735816600</v>
       </c>
       <c r="G32">
         <v>754847000</v>
@@ -1978,13 +1978,13 @@
         <v>4278100</v>
       </c>
       <c r="I32">
-        <v>78777596000</v>
+        <v>74198679500</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-15T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3134807408000</v>
+        <v>2858573718200</v>
       </c>
       <c r="L32">
         <v>179680900</v>
@@ -1993,13 +1993,13 @@
         <v>-899200</v>
       </c>
       <c r="N32">
-        <v>-9932537000</v>
+        <v>-7972199300</v>
       </c>
       <c r="O32">
         <v>34931600</v>
       </c>
       <c r="P32">
-        <v>703915170000</v>
+        <v>608325855000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>16100</v>
       </c>
       <c r="E33">
-        <v>40860858000</v>
+        <v>36626296800</v>
       </c>
       <c r="F33">
-        <v>29623895000</v>
+        <v>25342380800</v>
       </c>
       <c r="G33">
         <v>116216000</v>
@@ -2028,13 +2028,13 @@
         <v>3922100</v>
       </c>
       <c r="I33">
-        <v>70600969000</v>
+        <v>62084893600</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-15T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3205408377000</v>
+        <v>2920658611800</v>
       </c>
       <c r="L33">
         <v>183603000</v>
@@ -2043,13 +2043,13 @@
         <v>-1094200</v>
       </c>
       <c r="N33">
-        <v>-11236963000</v>
+        <v>-11283916000</v>
       </c>
       <c r="O33">
         <v>33837400</v>
       </c>
       <c r="P33">
-        <v>692678207000</v>
+        <v>597041939000</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>13000</v>
       </c>
       <c r="E34">
-        <v>36509661000</v>
+        <v>35876295000</v>
       </c>
       <c r="F34">
-        <v>19869784000</v>
+        <v>19013441200</v>
       </c>
       <c r="G34">
         <v>205923000</v>
@@ -2078,13 +2078,13 @@
         <v>3322000</v>
       </c>
       <c r="I34">
-        <v>56585368000</v>
+        <v>55095659200</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-15T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3261993745000</v>
+        <v>2975754271000</v>
       </c>
       <c r="L34">
         <v>186925000</v>
@@ -2093,13 +2093,13 @@
         <v>-1124200</v>
       </c>
       <c r="N34">
-        <v>-16639877000</v>
+        <v>-16862853800</v>
       </c>
       <c r="O34">
         <v>32713200</v>
       </c>
       <c r="P34">
-        <v>676038330000</v>
+        <v>580179085200</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>5700</v>
       </c>
       <c r="E35">
-        <v>30127747000</v>
+        <v>27762214900</v>
       </c>
       <c r="F35">
-        <v>24855003000</v>
+        <v>24427431000</v>
       </c>
       <c r="G35">
         <v>136050000</v>
@@ -2128,13 +2128,13 @@
         <v>3173800</v>
       </c>
       <c r="I35">
-        <v>55118800000</v>
+        <v>52325695900</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-15T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3317112545000</v>
+        <v>3028079966900</v>
       </c>
       <c r="L35">
         <v>190098800</v>
@@ -2143,13 +2143,13 @@
         <v>-663700</v>
       </c>
       <c r="N35">
-        <v>-5272744000</v>
+        <v>-3334783900</v>
       </c>
       <c r="O35">
         <v>32049500</v>
       </c>
       <c r="P35">
-        <v>670765586000</v>
+        <v>576844301300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>27000</v>
       </c>
       <c r="E36">
-        <v>32060978000</v>
+        <v>29883158000</v>
       </c>
       <c r="F36">
-        <v>34862501000</v>
+        <v>33299165900</v>
       </c>
       <c r="G36">
         <v>284978000</v>
@@ -2178,13 +2178,13 @@
         <v>3529600</v>
       </c>
       <c r="I36">
-        <v>67208457000</v>
+        <v>63467301900</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-15T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3384321002000</v>
+        <v>3091547268800</v>
       </c>
       <c r="L36">
         <v>193628400</v>
@@ -2193,13 +2193,13 @@
         <v>-361200</v>
       </c>
       <c r="N36">
-        <v>2801523000</v>
+        <v>3416007900</v>
       </c>
       <c r="O36">
         <v>31688300</v>
       </c>
       <c r="P36">
-        <v>673567109000</v>
+        <v>580260309200</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>15900</v>
       </c>
       <c r="E37">
-        <v>35356900000</v>
+        <v>33020338900</v>
       </c>
       <c r="F37">
-        <v>52214480000</v>
+        <v>49501895300</v>
       </c>
       <c r="G37">
         <v>397870000</v>
@@ -2228,13 +2228,13 @@
         <v>4613300</v>
       </c>
       <c r="I37">
-        <v>87969250000</v>
+        <v>82920104200</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-15T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3472290252000</v>
+        <v>3174467373000</v>
       </c>
       <c r="L37">
         <v>198241700</v>
@@ -2243,13 +2243,13 @@
         <v>-49800</v>
       </c>
       <c r="N37">
-        <v>16857580000</v>
+        <v>16481556400</v>
       </c>
       <c r="O37">
         <v>31638500</v>
       </c>
       <c r="P37">
-        <v>690424689000</v>
+        <v>596741865600</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>18400</v>
       </c>
       <c r="E38">
-        <v>27026758000</v>
+        <v>25644042100</v>
       </c>
       <c r="F38">
-        <v>53465875000</v>
+        <v>46872375100</v>
       </c>
       <c r="G38">
         <v>295335000</v>
@@ -2278,13 +2278,13 @@
         <v>4170100</v>
       </c>
       <c r="I38">
-        <v>80787968000</v>
+        <v>72811752200</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-15T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3553078220000</v>
+        <v>3247279125200</v>
       </c>
       <c r="L38">
         <v>202411800</v>
@@ -2293,13 +2293,13 @@
         <v>511900</v>
       </c>
       <c r="N38">
-        <v>26439117000</v>
+        <v>21228333000</v>
       </c>
       <c r="O38">
         <v>32150400</v>
       </c>
       <c r="P38">
-        <v>716863806000</v>
+        <v>617970198600</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>10100</v>
       </c>
       <c r="E39">
-        <v>49087185000</v>
+        <v>47048226000</v>
       </c>
       <c r="F39">
-        <v>29020189000</v>
+        <v>26997813400</v>
       </c>
       <c r="G39">
         <v>214162000</v>
@@ -2328,13 +2328,13 @@
         <v>3509800</v>
       </c>
       <c r="I39">
-        <v>78321536000</v>
+        <v>74260201400</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-15T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3631399756000</v>
+        <v>3321539326600</v>
       </c>
       <c r="L39">
         <v>205921600</v>
@@ -2343,13 +2343,13 @@
         <v>-991300</v>
       </c>
       <c r="N39">
-        <v>-20066996000</v>
+        <v>-20050412600</v>
       </c>
       <c r="O39">
         <v>31159100</v>
       </c>
       <c r="P39">
-        <v>696796810000</v>
+        <v>597919786000</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>4100</v>
       </c>
       <c r="E40">
-        <v>72076554000</v>
+        <v>69882450300</v>
       </c>
       <c r="F40">
-        <v>21154038000</v>
+        <v>20812280100</v>
       </c>
       <c r="G40">
         <v>112360000</v>
@@ -2378,13 +2378,13 @@
         <v>5244100</v>
       </c>
       <c r="I40">
-        <v>93342952000</v>
+        <v>90807090400</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-15T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3724742708000</v>
+        <v>3412346417000</v>
       </c>
       <c r="L40">
         <v>211165700</v>
@@ -2393,13 +2393,13 @@
         <v>-2903800</v>
       </c>
       <c r="N40">
-        <v>-50922516000</v>
+        <v>-49070170200</v>
       </c>
       <c r="O40">
         <v>28255300</v>
       </c>
       <c r="P40">
-        <v>645874294000</v>
+        <v>548849615800</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>6500</v>
       </c>
       <c r="E41">
-        <v>74439192000</v>
+        <v>70343292000</v>
       </c>
       <c r="F41">
-        <v>17765740000</v>
+        <v>17559846100</v>
       </c>
       <c r="G41">
         <v>85428000</v>
@@ -2428,13 +2428,13 @@
         <v>4934800</v>
       </c>
       <c r="I41">
-        <v>92290360000</v>
+        <v>87988566100</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-15T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3817033068000</v>
+        <v>3500334983100</v>
       </c>
       <c r="L41">
         <v>216100500</v>
@@ -2443,13 +2443,13 @@
         <v>-3300700</v>
       </c>
       <c r="N41">
-        <v>-56673452000</v>
+        <v>-52783445900</v>
       </c>
       <c r="O41">
         <v>24954600</v>
       </c>
       <c r="P41">
-        <v>589200842000</v>
+        <v>496066169900</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>13200</v>
       </c>
       <c r="E42">
-        <v>72750316000</v>
+        <v>65071502500</v>
       </c>
       <c r="F42">
-        <v>25613213000</v>
+        <v>24376151300</v>
       </c>
       <c r="G42">
-        <v>253280000</v>
+        <v>232301000</v>
       </c>
       <c r="H42">
         <v>5681000</v>
       </c>
       <c r="I42">
-        <v>98616809000</v>
+        <v>89679954800</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-15T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3915649877000</v>
+        <v>3590014937900</v>
       </c>
       <c r="L42">
         <v>221781500</v>
@@ -2493,13 +2493,13 @@
         <v>-3099200</v>
       </c>
       <c r="N42">
-        <v>-47137103000</v>
+        <v>-40695351200</v>
       </c>
       <c r="O42">
         <v>21855400</v>
       </c>
       <c r="P42">
-        <v>542063739000</v>
+        <v>455370818700</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>10200</v>
       </c>
       <c r="E43">
-        <v>56785929000</v>
+        <v>49233389100</v>
       </c>
       <c r="F43">
-        <v>23555076000</v>
+        <v>22448383800</v>
       </c>
       <c r="G43">
         <v>99925000</v>
@@ -2528,13 +2528,13 @@
         <v>4723600</v>
       </c>
       <c r="I43">
-        <v>80440930000</v>
+        <v>71781697900</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-15T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3996090807000</v>
+        <v>3661796635800</v>
       </c>
       <c r="L43">
         <v>226505100</v>
@@ -2543,13 +2543,13 @@
         <v>-2051800</v>
       </c>
       <c r="N43">
-        <v>-33230853000</v>
+        <v>-26785005300</v>
       </c>
       <c r="O43">
         <v>19803600</v>
       </c>
       <c r="P43">
-        <v>508832886000</v>
+        <v>428585813400</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>13500</v>
       </c>
       <c r="E44">
-        <v>60008144000</v>
+        <v>43133735300</v>
       </c>
       <c r="F44">
-        <v>26611837000</v>
+        <v>24193058200</v>
       </c>
       <c r="G44">
         <v>184067000</v>
@@ -2578,13 +2578,13 @@
         <v>4821400</v>
       </c>
       <c r="I44">
-        <v>86804048000</v>
+        <v>67510860500</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-15T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4082894855000</v>
+        <v>3729307496300</v>
       </c>
       <c r="L44">
         <v>231326500</v>
@@ -2593,13 +2593,13 @@
         <v>-2120900</v>
       </c>
       <c r="N44">
-        <v>-33396307000</v>
+        <v>-18940677100</v>
       </c>
       <c r="O44">
         <v>17682700</v>
       </c>
       <c r="P44">
-        <v>475436579000</v>
+        <v>409645136300</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>7400</v>
       </c>
       <c r="E45">
-        <v>40882625000</v>
+        <v>36445366700</v>
       </c>
       <c r="F45">
-        <v>23113258000</v>
+        <v>21606965800</v>
       </c>
       <c r="G45">
         <v>101432000</v>
@@ -2628,13 +2628,13 @@
         <v>3659200</v>
       </c>
       <c r="I45">
-        <v>64097315000</v>
+        <v>58153764500</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-15T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4146992170000</v>
+        <v>3787461260800</v>
       </c>
       <c r="L45">
         <v>234985700</v>
@@ -2643,13 +2643,13 @@
         <v>-1070200</v>
       </c>
       <c r="N45">
-        <v>-17769367000</v>
+        <v>-14838400900</v>
       </c>
       <c r="O45">
         <v>16612500</v>
       </c>
       <c r="P45">
-        <v>457667212000</v>
+        <v>394806735400</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>7800</v>
       </c>
       <c r="E46">
-        <v>25448994000</v>
+        <v>24372971100</v>
       </c>
       <c r="F46">
-        <v>36895906000</v>
+        <v>34396108300</v>
       </c>
       <c r="G46">
         <v>229365000</v>
@@ -2678,13 +2678,13 @@
         <v>3738200</v>
       </c>
       <c r="I46">
-        <v>62574265000</v>
+        <v>58998444400</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-15T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4209566435000</v>
+        <v>3846459705200</v>
       </c>
       <c r="L46">
         <v>238723900</v>
@@ -2693,13 +2693,13 @@
         <v>149200</v>
       </c>
       <c r="N46">
-        <v>11446912000</v>
+        <v>10023137200</v>
       </c>
       <c r="O46">
         <v>16761700</v>
       </c>
       <c r="P46">
-        <v>469114124000</v>
+        <v>404829872600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>24400</v>
       </c>
       <c r="E47">
-        <v>21929341000</v>
+        <v>17830044400</v>
       </c>
       <c r="F47">
-        <v>39784118000</v>
+        <v>30827383700</v>
       </c>
       <c r="G47">
         <v>395490000</v>
@@ -2728,13 +2728,13 @@
         <v>3406300</v>
       </c>
       <c r="I47">
-        <v>62108949000</v>
+        <v>49052918100</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-15T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4271675384000</v>
+        <v>3895512623300</v>
       </c>
       <c r="L47">
         <v>242130200</v>
@@ -2743,13 +2743,13 @@
         <v>771100</v>
       </c>
       <c r="N47">
-        <v>17854777000</v>
+        <v>12997339300</v>
       </c>
       <c r="O47">
         <v>17532800</v>
       </c>
       <c r="P47">
-        <v>486968901000</v>
+        <v>417827211900</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>3000</v>
       </c>
       <c r="E48">
-        <v>11719073000</v>
+        <v>9613980200</v>
       </c>
       <c r="F48">
-        <v>37080175000</v>
+        <v>30845815600</v>
       </c>
       <c r="G48">
         <v>98927000</v>
@@ -2778,13 +2778,13 @@
         <v>2526000</v>
       </c>
       <c r="I48">
-        <v>48898175000</v>
+        <v>40558722800</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-15T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4320573559000</v>
+        <v>3936071346100</v>
       </c>
       <c r="L48">
         <v>244656200</v>
@@ -2793,13 +2793,13 @@
         <v>1114600</v>
       </c>
       <c r="N48">
-        <v>25361102000</v>
+        <v>21231835400</v>
       </c>
       <c r="O48">
         <v>18647400</v>
       </c>
       <c r="P48">
-        <v>512330003000</v>
+        <v>439059047300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>2300</v>
       </c>
       <c r="E49">
-        <v>31844866000</v>
+        <v>24157161400</v>
       </c>
       <c r="F49">
-        <v>11799177000</v>
+        <v>10459717800</v>
       </c>
       <c r="G49">
         <v>30924000</v>
@@ -2828,13 +2828,13 @@
         <v>2334900</v>
       </c>
       <c r="I49">
-        <v>43674967000</v>
+        <v>34647803200</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-15T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4364248526000</v>
+        <v>3970719149300</v>
       </c>
       <c r="L49">
         <v>246991100</v>
@@ -2843,13 +2843,13 @@
         <v>-957600</v>
       </c>
       <c r="N49">
-        <v>-20045689000</v>
+        <v>-13697443600</v>
       </c>
       <c r="O49">
         <v>17689800</v>
       </c>
       <c r="P49">
-        <v>492284314000</v>
+        <v>425361603700</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1700</v>
       </c>
       <c r="E50">
-        <v>26092743000</v>
+        <v>20042998800</v>
       </c>
       <c r="F50">
-        <v>20975481000</v>
+        <v>19032925500</v>
       </c>
       <c r="G50">
         <v>116700000</v>
@@ -2878,13 +2878,13 @@
         <v>2733900</v>
       </c>
       <c r="I50">
-        <v>47184924000</v>
+        <v>39192624300</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-15T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4411433450000</v>
+        <v>4009911773600</v>
       </c>
       <c r="L50">
         <v>249725000</v>
@@ -2893,13 +2893,13 @@
         <v>-656800</v>
       </c>
       <c r="N50">
-        <v>-5117262000</v>
+        <v>-1010073300</v>
       </c>
       <c r="O50">
         <v>17033000</v>
       </c>
       <c r="P50">
-        <v>487167052000</v>
+        <v>424351530400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>1800</v>
       </c>
       <c r="E51">
-        <v>21320322000</v>
+        <v>20638904100</v>
       </c>
       <c r="F51">
-        <v>16299424000</v>
+        <v>15859764100</v>
       </c>
       <c r="G51">
-        <v>45384000</v>
+        <v>36992400</v>
       </c>
       <c r="H51">
         <v>1865900</v>
       </c>
       <c r="I51">
-        <v>37665130000</v>
+        <v>36535660600</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-15T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4449098580000</v>
+        <v>4046447434200</v>
       </c>
       <c r="L51">
         <v>251590900</v>
@@ -2943,13 +2943,13 @@
         <v>-297100</v>
       </c>
       <c r="N51">
-        <v>-5020898000</v>
+        <v>-4779140000</v>
       </c>
       <c r="O51">
         <v>16735900</v>
       </c>
       <c r="P51">
-        <v>482146154000</v>
+        <v>419572390400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>1100</v>
       </c>
       <c r="E52">
-        <v>15916074000</v>
+        <v>14347644000</v>
       </c>
       <c r="F52">
-        <v>20448029000</v>
+        <v>19952624900</v>
       </c>
       <c r="G52">
         <v>6758000</v>
@@ -2978,13 +2978,13 @@
         <v>1889700</v>
       </c>
       <c r="I52">
-        <v>36370861000</v>
+        <v>34307026900</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-15T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4485469441000</v>
+        <v>4080754461100</v>
       </c>
       <c r="L52">
         <v>253480600</v>
@@ -2993,13 +2993,13 @@
         <v>130600</v>
       </c>
       <c r="N52">
-        <v>4531955000</v>
+        <v>5604980900</v>
       </c>
       <c r="O52">
         <v>16866500</v>
       </c>
       <c r="P52">
-        <v>486678109000</v>
+        <v>425177371300</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>900</v>
       </c>
       <c r="E53">
-        <v>11985696000</v>
+        <v>10020862800</v>
       </c>
       <c r="F53">
-        <v>24683422000</v>
+        <v>23887618600</v>
       </c>
       <c r="G53">
         <v>4635000</v>
@@ -3028,13 +3028,13 @@
         <v>1923700</v>
       </c>
       <c r="I53">
-        <v>36673753000</v>
+        <v>33913116400</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-15T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4522143194000</v>
+        <v>4114667577500</v>
       </c>
       <c r="L53">
         <v>255404300</v>
@@ -3043,13 +3043,13 @@
         <v>651800</v>
       </c>
       <c r="N53">
-        <v>12697726000</v>
+        <v>13866755800</v>
       </c>
       <c r="O53">
         <v>17518300</v>
       </c>
       <c r="P53">
-        <v>499375835000</v>
+        <v>439044127100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>1200</v>
       </c>
       <c r="E54">
-        <v>11066224000</v>
+        <v>10204386700</v>
       </c>
       <c r="F54">
-        <v>22386370000</v>
+        <v>20272486000</v>
       </c>
       <c r="G54">
-        <v>7960000</v>
+        <v>4963000</v>
       </c>
       <c r="H54">
         <v>1807600</v>
       </c>
       <c r="I54">
-        <v>33460554000</v>
+        <v>30481835700</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-15T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4555603748000</v>
+        <v>4145149413200</v>
       </c>
       <c r="L54">
         <v>257211900</v>
@@ -3093,13 +3093,13 @@
         <v>804600</v>
       </c>
       <c r="N54">
-        <v>11320146000</v>
+        <v>10068099300</v>
       </c>
       <c r="O54">
         <v>18322900</v>
       </c>
       <c r="P54">
-        <v>510695981000</v>
+        <v>449112226400</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>35700</v>
       </c>
       <c r="E55">
-        <v>18840155000</v>
+        <v>18458736800</v>
       </c>
       <c r="F55">
-        <v>14854028000</v>
+        <v>14097385400</v>
       </c>
       <c r="G55">
         <v>324675000</v>
@@ -3128,13 +3128,13 @@
         <v>1953500</v>
       </c>
       <c r="I55">
-        <v>34018858000</v>
+        <v>32880797200</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-15T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4589622606000</v>
+        <v>4178030210400</v>
       </c>
       <c r="L55">
         <v>259165400</v>
@@ -3143,13 +3143,13 @@
         <v>-307800</v>
       </c>
       <c r="N55">
-        <v>-3986127000</v>
+        <v>-4361351400</v>
       </c>
       <c r="O55">
         <v>18015100</v>
       </c>
       <c r="P55">
-        <v>506709854000</v>
+        <v>444750875000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>200</v>
       </c>
       <c r="E56">
-        <v>17844239000</v>
+        <v>17130553400</v>
       </c>
       <c r="F56">
-        <v>12451223000</v>
+        <v>12302871500</v>
       </c>
       <c r="G56">
         <v>2382000</v>
@@ -3178,13 +3178,13 @@
         <v>1815900</v>
       </c>
       <c r="I56">
-        <v>30297844000</v>
+        <v>29435806900</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-15T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4619920450000</v>
+        <v>4207466017300</v>
       </c>
       <c r="L56">
         <v>260981300</v>
@@ -3193,13 +3193,13 @@
         <v>-455500</v>
       </c>
       <c r="N56">
-        <v>-5393016000</v>
+        <v>-4827681900</v>
       </c>
       <c r="O56">
         <v>17559600</v>
       </c>
       <c r="P56">
-        <v>501316838000</v>
+        <v>439923193100</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>15100</v>
       </c>
       <c r="E57">
-        <v>18927008000</v>
+        <v>17177858900</v>
       </c>
       <c r="F57">
-        <v>22063955000</v>
+        <v>18640581800</v>
       </c>
       <c r="G57">
         <v>251657000</v>
@@ -3228,13 +3228,13 @@
         <v>2045600</v>
       </c>
       <c r="I57">
-        <v>41242620000</v>
+        <v>36070097700</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-15T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4661163070000</v>
+        <v>4243536115000</v>
       </c>
       <c r="L57">
         <v>263026900</v>
@@ -3243,13 +3243,13 @@
         <v>-20900</v>
       </c>
       <c r="N57">
-        <v>3136947000</v>
+        <v>1462722900</v>
       </c>
       <c r="O57">
         <v>17538700</v>
       </c>
       <c r="P57">
-        <v>504453785000</v>
+        <v>441385916000</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>3800</v>
       </c>
       <c r="E58">
-        <v>18854260000</v>
+        <v>17648267200</v>
       </c>
       <c r="F58">
-        <v>13449824000</v>
+        <v>13238935100</v>
       </c>
       <c r="G58">
         <v>69465000</v>
@@ -3278,13 +3278,13 @@
         <v>1913800</v>
       </c>
       <c r="I58">
-        <v>32373549000</v>
+        <v>30956667300</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-15T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4693536619000</v>
+        <v>4274492782300</v>
       </c>
       <c r="L58">
         <v>264940700</v>
@@ -3293,13 +3293,13 @@
         <v>-450600</v>
       </c>
       <c r="N58">
-        <v>-5404436000</v>
+        <v>-4409332100</v>
       </c>
       <c r="O58">
         <v>17088100</v>
       </c>
       <c r="P58">
-        <v>499049349000</v>
+        <v>436976583900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>400</v>
       </c>
       <c r="E59">
-        <v>19336927000</v>
+        <v>17173392700</v>
       </c>
       <c r="F59">
-        <v>15125975000</v>
+        <v>14489512100</v>
       </c>
       <c r="G59">
         <v>7400000</v>
@@ -3328,13 +3328,13 @@
         <v>1888200</v>
       </c>
       <c r="I59">
-        <v>34470302000</v>
+        <v>31670304800</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-15T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4728006921000</v>
+        <v>4306163087100</v>
       </c>
       <c r="L59">
         <v>266828900</v>
@@ -3343,13 +3343,13 @@
         <v>-143400</v>
       </c>
       <c r="N59">
-        <v>-4210952000</v>
+        <v>-2683880600</v>
       </c>
       <c r="O59">
         <v>16944700</v>
       </c>
       <c r="P59">
-        <v>494838397000</v>
+        <v>434292703300</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>12200</v>
       </c>
       <c r="E60">
-        <v>24259056000</v>
+        <v>17422998900</v>
       </c>
       <c r="F60">
-        <v>12912482000</v>
+        <v>11517378500</v>
       </c>
       <c r="G60">
         <v>301360000</v>
@@ -3378,13 +3378,13 @@
         <v>1950400</v>
       </c>
       <c r="I60">
-        <v>37472898000</v>
+        <v>29241737400</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-15T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4765479819000</v>
+        <v>4335404824500</v>
       </c>
       <c r="L60">
         <v>268779300</v>
@@ -3393,13 +3393,13 @@
         <v>-681800</v>
       </c>
       <c r="N60">
-        <v>-11346574000</v>
+        <v>-5905620400</v>
       </c>
       <c r="O60">
         <v>16262900</v>
       </c>
       <c r="P60">
-        <v>483491823000</v>
+        <v>428387082900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>3800</v>
       </c>
       <c r="E61">
-        <v>27847223000</v>
+        <v>24390782900</v>
       </c>
       <c r="F61">
-        <v>15256683000</v>
+        <v>12158983800</v>
       </c>
       <c r="G61">
         <v>95674000</v>
@@ -3428,13 +3428,13 @@
         <v>2372100</v>
       </c>
       <c r="I61">
-        <v>43199580000</v>
+        <v>36645440700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-15T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4808679399000</v>
+        <v>4372050265200</v>
       </c>
       <c r="L61">
         <v>271151400</v>
@@ -3443,13 +3443,13 @@
         <v>-864700</v>
       </c>
       <c r="N61">
-        <v>-12590540000</v>
+        <v>-12231799100</v>
       </c>
       <c r="O61">
         <v>15398200</v>
       </c>
       <c r="P61">
-        <v>470901283000</v>
+        <v>416155283800</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>24927074000</v>
+        <v>21294610100</v>
       </c>
       <c r="F62">
-        <v>19557549000</v>
+        <v>18459747900</v>
       </c>
       <c r="G62">
         <v>658000</v>
@@ -3478,13 +3478,13 @@
         <v>2471000</v>
       </c>
       <c r="I62">
-        <v>44485281000</v>
+        <v>39755016000</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-15T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4853164680000</v>
+        <v>4411805281200</v>
       </c>
       <c r="L62">
         <v>273622400</v>
@@ -3493,13 +3493,13 @@
         <v>-616100</v>
       </c>
       <c r="N62">
-        <v>-5369525000</v>
+        <v>-2834862200</v>
       </c>
       <c r="O62">
         <v>14782100</v>
       </c>
       <c r="P62">
-        <v>465531758000</v>
+        <v>413320421600</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>9100</v>
       </c>
       <c r="E63">
-        <v>15681009000</v>
+        <v>15056733900</v>
       </c>
       <c r="F63">
-        <v>14529308000</v>
+        <v>13182156500</v>
       </c>
       <c r="G63">
         <v>110362000</v>
@@ -3528,13 +3528,13 @@
         <v>1608700</v>
       </c>
       <c r="I63">
-        <v>30320679000</v>
+        <v>28349252400</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-15T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4883485359000</v>
+        <v>4440154533600</v>
       </c>
       <c r="L63">
         <v>275231100</v>
@@ -3543,13 +3543,13 @@
         <v>-253800</v>
       </c>
       <c r="N63">
-        <v>-1151701000</v>
+        <v>-1874577400</v>
       </c>
       <c r="O63">
         <v>14528300</v>
       </c>
       <c r="P63">
-        <v>464380057000</v>
+        <v>411445844200</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>300</v>
       </c>
       <c r="E64">
-        <v>12032811000</v>
+        <v>6894054900</v>
       </c>
       <c r="F64">
-        <v>33324701000</v>
+        <v>28575554900</v>
       </c>
       <c r="G64">
         <v>17044000</v>
@@ -3578,13 +3578,13 @@
         <v>2330500</v>
       </c>
       <c r="I64">
-        <v>45374556000</v>
+        <v>35486653800</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-15T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4928859915000</v>
+        <v>4475641187400</v>
       </c>
       <c r="L64">
         <v>277561600</v>
@@ -3593,13 +3593,13 @@
         <v>868400</v>
       </c>
       <c r="N64">
-        <v>21291890000</v>
+        <v>21681500000</v>
       </c>
       <c r="O64">
         <v>15396700</v>
       </c>
       <c r="P64">
-        <v>485671947000</v>
+        <v>433127344200</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>700</v>
       </c>
       <c r="E65">
-        <v>16549044000</v>
+        <v>14510484600</v>
       </c>
       <c r="F65">
-        <v>18806659000</v>
+        <v>18148517800</v>
       </c>
       <c r="G65">
         <v>11146000</v>
@@ -3628,13 +3628,13 @@
         <v>2133200</v>
       </c>
       <c r="I65">
-        <v>35366849000</v>
+        <v>32670148400</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-15T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4964226764000</v>
+        <v>4508311335800</v>
       </c>
       <c r="L65">
         <v>279694800</v>
@@ -3643,13 +3643,13 @@
         <v>121300</v>
       </c>
       <c r="N65">
-        <v>2257615000</v>
+        <v>3638033200</v>
       </c>
       <c r="O65">
         <v>15518000</v>
       </c>
       <c r="P65">
-        <v>487929562000</v>
+        <v>436765377400</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>2100</v>
       </c>
       <c r="E66">
-        <v>21331639000</v>
+        <v>19271701000</v>
       </c>
       <c r="F66">
-        <v>8920778000</v>
+        <v>8523076100</v>
       </c>
       <c r="G66">
         <v>37846000</v>
@@ -3678,13 +3678,13 @@
         <v>1888400</v>
       </c>
       <c r="I66">
-        <v>30290263000</v>
+        <v>27832623100</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-15T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4994517027000</v>
+        <v>4536143958900</v>
       </c>
       <c r="L66">
         <v>281583200</v>
@@ -3693,13 +3693,13 @@
         <v>-727300</v>
       </c>
       <c r="N66">
-        <v>-12410861000</v>
+        <v>-10748624900</v>
       </c>
       <c r="O66">
         <v>14790700</v>
       </c>
       <c r="P66">
-        <v>475518701000</v>
+        <v>426016752500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>16900</v>
       </c>
       <c r="E67">
-        <v>25070442000</v>
+        <v>24527585400</v>
       </c>
       <c r="F67">
-        <v>12871163000</v>
+        <v>11690444900</v>
       </c>
       <c r="G67">
         <v>929540000</v>
@@ -3728,13 +3728,13 @@
         <v>2000700</v>
       </c>
       <c r="I67">
-        <v>38871145000</v>
+        <v>37147570300</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-15T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5033388172000</v>
+        <v>4573291529200</v>
       </c>
       <c r="L67">
         <v>283583900</v>
@@ -3743,13 +3743,13 @@
         <v>-391800</v>
       </c>
       <c r="N67">
-        <v>-12199279000</v>
+        <v>-12837140500</v>
       </c>
       <c r="O67">
         <v>14398900</v>
       </c>
       <c r="P67">
-        <v>463319422000</v>
+        <v>413179612000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>6500</v>
       </c>
       <c r="E68">
-        <v>22551421000</v>
+        <v>21769503700</v>
       </c>
       <c r="F68">
-        <v>10264069000</v>
+        <v>9362071900</v>
       </c>
       <c r="G68">
         <v>175420000</v>
@@ -3778,13 +3778,13 @@
         <v>1830600</v>
       </c>
       <c r="I68">
-        <v>32990910000</v>
+        <v>31306995600</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-15T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5066379082000</v>
+        <v>4604598524800</v>
       </c>
       <c r="L68">
         <v>285414500</v>
@@ -3793,13 +3793,13 @@
         <v>-574100</v>
       </c>
       <c r="N68">
-        <v>-12287352000</v>
+        <v>-12407431800</v>
       </c>
       <c r="O68">
         <v>13824800</v>
       </c>
       <c r="P68">
-        <v>451032070000</v>
+        <v>400772180200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>1100</v>
       </c>
       <c r="E69">
-        <v>33385467000</v>
+        <v>31023831000</v>
       </c>
       <c r="F69">
-        <v>9258847000</v>
+        <v>9016689400</v>
       </c>
       <c r="G69">
         <v>40035000</v>
@@ -3828,13 +3828,13 @@
         <v>2492400</v>
       </c>
       <c r="I69">
-        <v>42684349000</v>
+        <v>40080555400</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-15T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5109063431000</v>
+        <v>4644679080200</v>
       </c>
       <c r="L69">
         <v>287906900</v>
@@ -3843,13 +3843,13 @@
         <v>-1385100</v>
       </c>
       <c r="N69">
-        <v>-24126620000</v>
+        <v>-22007141600</v>
       </c>
       <c r="O69">
         <v>12439700</v>
       </c>
       <c r="P69">
-        <v>426905450000</v>
+        <v>378765038600</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2022-12-15T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5109101261000</v>
+        <v>4644716910200</v>
       </c>
       <c r="L70">
         <v>287910100</v>
@@ -3899,7 +3899,7 @@
         <v>12436700</v>
       </c>
       <c r="P70">
-        <v>426872290000</v>
+        <v>378731878600</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>388900</v>
       </c>
       <c r="E71">
-        <v>138799332000</v>
+        <v>125767776600</v>
       </c>
       <c r="F71">
-        <v>75941658000</v>
+        <v>64078732800</v>
       </c>
       <c r="G71">
-        <v>4898614000</v>
+        <v>4794118600</v>
       </c>
       <c r="H71">
         <v>13528400</v>
       </c>
       <c r="I71">
-        <v>219639604000</v>
+        <v>194640628000</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-15T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5328740865000</v>
+        <v>4839357538200</v>
       </c>
       <c r="L71">
         <v>301438500</v>
@@ -3943,13 +3943,13 @@
         <v>-4492700</v>
       </c>
       <c r="N71">
-        <v>-62857674000</v>
+        <v>-61689043800</v>
       </c>
       <c r="O71">
         <v>7944000</v>
       </c>
       <c r="P71">
-        <v>364014616000</v>
+        <v>317042834800</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>32000</v>
       </c>
       <c r="E72">
-        <v>68665698000</v>
+        <v>60452319600</v>
       </c>
       <c r="F72">
-        <v>40746063000</v>
+        <v>37169543100</v>
       </c>
       <c r="G72">
         <v>449561000</v>
@@ -3978,13 +3978,13 @@
         <v>7019000</v>
       </c>
       <c r="I72">
-        <v>109861322000</v>
+        <v>98071423700</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-15T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5438602187000</v>
+        <v>4937428961900</v>
       </c>
       <c r="L72">
         <v>308457500</v>
@@ -3993,13 +3993,13 @@
         <v>-2099400</v>
       </c>
       <c r="N72">
-        <v>-27919635000</v>
+        <v>-23282776500</v>
       </c>
       <c r="O72">
         <v>5844600</v>
       </c>
       <c r="P72">
-        <v>336094981000</v>
+        <v>293760058300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>122900</v>
       </c>
       <c r="E73">
-        <v>69901109000</v>
+        <v>57675446900</v>
       </c>
       <c r="F73">
-        <v>42114018000</v>
+        <v>37577259300</v>
       </c>
       <c r="G73">
         <v>1663868000</v>
@@ -4028,13 +4028,13 @@
         <v>6451400</v>
       </c>
       <c r="I73">
-        <v>113678995000</v>
+        <v>96916574200</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-15T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5552281182000</v>
+        <v>5034345536100</v>
       </c>
       <c r="L73">
         <v>314908900</v>
@@ -4043,13 +4043,13 @@
         <v>-1875700</v>
       </c>
       <c r="N73">
-        <v>-27787091000</v>
+        <v>-20098187600</v>
       </c>
       <c r="O73">
         <v>3968900</v>
       </c>
       <c r="P73">
-        <v>308307890000</v>
+        <v>273661870700</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>15300</v>
       </c>
       <c r="E74">
-        <v>40211966000</v>
+        <v>36160421600</v>
       </c>
       <c r="F74">
-        <v>67657309000</v>
+        <v>61262710000</v>
       </c>
       <c r="G74">
         <v>201652000</v>
@@ -4078,13 +4078,13 @@
         <v>6285700</v>
       </c>
       <c r="I74">
-        <v>108070927000</v>
+        <v>97624783600</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-15T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5660352109000</v>
+        <v>5131970319700</v>
       </c>
       <c r="L74">
         <v>321194600</v>
@@ -4093,13 +4093,13 @@
         <v>911000</v>
       </c>
       <c r="N74">
-        <v>27445343000</v>
+        <v>25102288400</v>
       </c>
       <c r="O74">
         <v>4879900</v>
       </c>
       <c r="P74">
-        <v>335753233000</v>
+        <v>298764159100</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>9000</v>
       </c>
       <c r="E75">
-        <v>32634231000</v>
+        <v>28068801000</v>
       </c>
       <c r="F75">
-        <v>43158311000</v>
+        <v>41397373700</v>
       </c>
       <c r="G75">
         <v>136080000</v>
@@ -4128,13 +4128,13 @@
         <v>4567100</v>
       </c>
       <c r="I75">
-        <v>75928622000</v>
+        <v>69602254700</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-15T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5736280731000</v>
+        <v>5201572574400</v>
       </c>
       <c r="L75">
         <v>325761700</v>
@@ -4143,13 +4143,13 @@
         <v>590300</v>
       </c>
       <c r="N75">
-        <v>10524080000</v>
+        <v>13328572700</v>
       </c>
       <c r="O75">
         <v>5470200</v>
       </c>
       <c r="P75">
-        <v>346277313000</v>
+        <v>312092731800</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>6900</v>
       </c>
       <c r="E76">
-        <v>47505137000</v>
+        <v>43348897400</v>
       </c>
       <c r="F76">
-        <v>33008030000</v>
+        <v>30491049500</v>
       </c>
       <c r="G76">
         <v>213983000</v>
@@ -4178,13 +4178,13 @@
         <v>4953900</v>
       </c>
       <c r="I76">
-        <v>80727150000</v>
+        <v>74053929900</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-15T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5817007881000</v>
+        <v>5275626504300</v>
       </c>
       <c r="L76">
         <v>330715600</v>
@@ -4193,13 +4193,13 @@
         <v>-494600</v>
       </c>
       <c r="N76">
-        <v>-14497107000</v>
+        <v>-12857847900</v>
       </c>
       <c r="O76">
         <v>4975600</v>
       </c>
       <c r="P76">
-        <v>331780206000</v>
+        <v>299234883900</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>18000</v>
       </c>
       <c r="E77">
-        <v>42280685000</v>
+        <v>36342229400</v>
       </c>
       <c r="F77">
-        <v>25089891000</v>
+        <v>22837046100</v>
       </c>
       <c r="G77">
         <v>142174000</v>
@@ -4228,13 +4228,13 @@
         <v>4139600</v>
       </c>
       <c r="I77">
-        <v>67512750000</v>
+        <v>59321449500</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-15T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5884520631000</v>
+        <v>5334947953800</v>
       </c>
       <c r="L77">
         <v>334855200</v>
@@ -4243,13 +4243,13 @@
         <v>-1210000</v>
       </c>
       <c r="N77">
-        <v>-17190794000</v>
+        <v>-13505183300</v>
       </c>
       <c r="O77">
         <v>3765600</v>
       </c>
       <c r="P77">
-        <v>314589412000</v>
+        <v>285729700600</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>80100</v>
       </c>
       <c r="E78">
-        <v>32325299000</v>
+        <v>29514812300</v>
       </c>
       <c r="F78">
-        <v>30814517000</v>
+        <v>28342891100</v>
       </c>
       <c r="G78">
-        <v>488386000</v>
+        <v>434739700</v>
       </c>
       <c r="H78">
         <v>4078800</v>
       </c>
       <c r="I78">
-        <v>63628202000</v>
+        <v>58292443100</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-15T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5948148833000</v>
+        <v>5393240396900</v>
       </c>
       <c r="L78">
         <v>338934000</v>
@@ -4293,13 +4293,13 @@
         <v>-563900</v>
       </c>
       <c r="N78">
-        <v>-1510782000</v>
+        <v>-1171921200</v>
       </c>
       <c r="O78">
         <v>3201700</v>
       </c>
       <c r="P78">
-        <v>313078630000</v>
+        <v>284557779400</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>57800</v>
       </c>
       <c r="E79">
-        <v>26283662000</v>
+        <v>24622025300</v>
       </c>
       <c r="F79">
-        <v>76967284000</v>
+        <v>73577177500</v>
       </c>
       <c r="G79">
         <v>1251245000</v>
@@ -4328,13 +4328,13 @@
         <v>5959000</v>
       </c>
       <c r="I79">
-        <v>104502191000</v>
+        <v>99450447800</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-15T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6052651024000</v>
+        <v>5492690844700</v>
       </c>
       <c r="L79">
         <v>344893000</v>
@@ -4343,13 +4343,13 @@
         <v>2555600</v>
       </c>
       <c r="N79">
-        <v>50683622000</v>
+        <v>48955152200</v>
       </c>
       <c r="O79">
         <v>5757300</v>
       </c>
       <c r="P79">
-        <v>363762252000</v>
+        <v>333512931600</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>6200</v>
       </c>
       <c r="E80">
-        <v>25206153000</v>
+        <v>20929334100</v>
       </c>
       <c r="F80">
-        <v>78241361000</v>
+        <v>70553556500</v>
       </c>
       <c r="G80">
         <v>119930000</v>
@@ -4378,13 +4378,13 @@
         <v>6011600</v>
       </c>
       <c r="I80">
-        <v>103567444000</v>
+        <v>91602820600</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-15T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6156218468000</v>
+        <v>5584293665300</v>
       </c>
       <c r="L80">
         <v>350904600</v>
@@ -4393,13 +4393,13 @@
         <v>3054600</v>
       </c>
       <c r="N80">
-        <v>53035208000</v>
+        <v>49624222400</v>
       </c>
       <c r="O80">
         <v>8811900</v>
       </c>
       <c r="P80">
-        <v>416797460000</v>
+        <v>383137154000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>16100</v>
       </c>
       <c r="E81">
-        <v>30539218000</v>
+        <v>28873785100</v>
       </c>
       <c r="F81">
-        <v>64164842000</v>
+        <v>61036773200</v>
       </c>
       <c r="G81">
         <v>100919000</v>
@@ -4428,13 +4428,13 @@
         <v>5098700</v>
       </c>
       <c r="I81">
-        <v>94804979000</v>
+        <v>90011477300</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-15T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>6251023447000</v>
+        <v>5674305142600</v>
       </c>
       <c r="L81">
         <v>356003300</v>
@@ -4443,13 +4443,13 @@
         <v>1856400</v>
       </c>
       <c r="N81">
-        <v>33625624000</v>
+        <v>32162988100</v>
       </c>
       <c r="O81">
         <v>10668300</v>
       </c>
       <c r="P81">
-        <v>450423084000</v>
+        <v>415300142100</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>61200</v>
       </c>
       <c r="E82">
-        <v>35307478000</v>
+        <v>33904782100</v>
       </c>
       <c r="F82">
-        <v>63340208000</v>
+        <v>62552396600</v>
       </c>
       <c r="G82">
-        <v>384980000</v>
+        <v>146219000</v>
       </c>
       <c r="H82">
         <v>5839500</v>
       </c>
       <c r="I82">
-        <v>99032666000</v>
+        <v>96603397700</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-15T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>6350056113000</v>
+        <v>5770908540300</v>
       </c>
       <c r="L82">
         <v>361842800</v>
@@ -4493,13 +4493,13 @@
         <v>1731100</v>
       </c>
       <c r="N82">
-        <v>28032730000</v>
+        <v>28647614500</v>
       </c>
       <c r="O82">
         <v>12399400</v>
       </c>
       <c r="P82">
-        <v>478455814000</v>
+        <v>443947756600</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>153700</v>
       </c>
       <c r="E83">
-        <v>45361134000</v>
+        <v>43778418300</v>
       </c>
       <c r="F83">
-        <v>43963986000</v>
+        <v>40805547600</v>
       </c>
       <c r="G83">
-        <v>2633113000</v>
+        <v>2583762400</v>
       </c>
       <c r="H83">
         <v>5346800</v>
       </c>
       <c r="I83">
-        <v>91958233000</v>
+        <v>87167728300</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-15T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6442014346000</v>
+        <v>5858076268600</v>
       </c>
       <c r="L83">
         <v>367189600</v>
@@ -4543,13 +4543,13 @@
         <v>-126500</v>
       </c>
       <c r="N83">
-        <v>-1397148000</v>
+        <v>-2972870700</v>
       </c>
       <c r="O83">
         <v>12272900</v>
       </c>
       <c r="P83">
-        <v>477058666000</v>
+        <v>440974885900</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>8200</v>
       </c>
       <c r="E84">
-        <v>33515923000</v>
+        <v>29164778500</v>
       </c>
       <c r="F84">
-        <v>26663831000</v>
+        <v>23983114400</v>
       </c>
       <c r="G84">
         <v>166349000</v>
@@ -4578,13 +4578,13 @@
         <v>3492200</v>
       </c>
       <c r="I84">
-        <v>60346103000</v>
+        <v>53314241900</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-15T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>6502360449000</v>
+        <v>5911390510500</v>
       </c>
       <c r="L84">
         <v>370681800</v>
@@ -4593,13 +4593,13 @@
         <v>-321400</v>
       </c>
       <c r="N84">
-        <v>-6852092000</v>
+        <v>-5181664100</v>
       </c>
       <c r="O84">
         <v>11951500</v>
       </c>
       <c r="P84">
-        <v>470206574000</v>
+        <v>435793221800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>8300</v>
       </c>
       <c r="E85">
-        <v>42552179000</v>
+        <v>40613819300</v>
       </c>
       <c r="F85">
-        <v>18676592000</v>
+        <v>17145224900</v>
       </c>
       <c r="G85">
         <v>52533000</v>
@@ -4628,13 +4628,13 @@
         <v>3599900</v>
       </c>
       <c r="I85">
-        <v>61281304000</v>
+        <v>57811577200</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-15T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>6563641753000</v>
+        <v>5969202087700</v>
       </c>
       <c r="L85">
         <v>374281700</v>
@@ -4643,13 +4643,13 @@
         <v>-1219800</v>
       </c>
       <c r="N85">
-        <v>-23875587000</v>
+        <v>-23468594400</v>
       </c>
       <c r="O85">
         <v>10731700</v>
       </c>
       <c r="P85">
-        <v>446330987000</v>
+        <v>412324627400</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>11500</v>
       </c>
       <c r="E86">
-        <v>51362672000</v>
+        <v>47380458200</v>
       </c>
       <c r="F86">
-        <v>33898591000</v>
+        <v>33468621400</v>
       </c>
       <c r="G86">
-        <v>257115000</v>
+        <v>211260900</v>
       </c>
       <c r="H86">
         <v>4891700</v>
       </c>
       <c r="I86">
-        <v>85518378000</v>
+        <v>81060340500</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-15T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>6649160131000</v>
+        <v>6050262428200</v>
       </c>
       <c r="L86">
         <v>379173400</v>
@@ -4693,13 +4693,13 @@
         <v>-736600</v>
       </c>
       <c r="N86">
-        <v>-17464081000</v>
+        <v>-13911836800</v>
       </c>
       <c r="O86">
         <v>9995100</v>
       </c>
       <c r="P86">
-        <v>428866906000</v>
+        <v>398412790600</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>3800</v>
       </c>
       <c r="E87">
-        <v>48403377000</v>
+        <v>44601083100</v>
       </c>
       <c r="F87">
-        <v>30986208000</v>
+        <v>29840654700</v>
       </c>
       <c r="G87">
-        <v>46783000</v>
+        <v>36293500</v>
       </c>
       <c r="H87">
         <v>4772400</v>
       </c>
       <c r="I87">
-        <v>79436368000</v>
+        <v>74478031300</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-15T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>6728596499000</v>
+        <v>6124740459500</v>
       </c>
       <c r="L87">
         <v>383945800</v>
@@ -4743,13 +4743,13 @@
         <v>-657000</v>
       </c>
       <c r="N87">
-        <v>-17417169000</v>
+        <v>-14760428400</v>
       </c>
       <c r="O87">
         <v>9338100</v>
       </c>
       <c r="P87">
-        <v>411449737000</v>
+        <v>383652362200</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>7200</v>
       </c>
       <c r="E88">
-        <v>26725863000</v>
+        <v>25758930900</v>
       </c>
       <c r="F88">
-        <v>31209643000</v>
+        <v>30733120000</v>
       </c>
       <c r="G88">
         <v>83254000</v>
@@ -4778,13 +4778,13 @@
         <v>3593700</v>
       </c>
       <c r="I88">
-        <v>58018760000</v>
+        <v>56575304900</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-15T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>6786615259000</v>
+        <v>6181315764400</v>
       </c>
       <c r="L88">
         <v>387539500</v>
@@ -4793,13 +4793,13 @@
         <v>228300</v>
       </c>
       <c r="N88">
-        <v>4483780000</v>
+        <v>4974189100</v>
       </c>
       <c r="O88">
         <v>9566400</v>
       </c>
       <c r="P88">
-        <v>415933517000</v>
+        <v>388626551300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>59000</v>
       </c>
       <c r="E89">
-        <v>45591539000</v>
+        <v>44193538400</v>
       </c>
       <c r="F89">
-        <v>105231561000</v>
+        <v>103664329800</v>
       </c>
       <c r="G89">
         <v>981310000</v>
@@ -4828,13 +4828,13 @@
         <v>8997400</v>
       </c>
       <c r="I89">
-        <v>151804410000</v>
+        <v>148839178200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-15T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6938419669000</v>
+        <v>6330154942600</v>
       </c>
       <c r="L89">
         <v>396536900</v>
@@ -4843,13 +4843,13 @@
         <v>3703400</v>
       </c>
       <c r="N89">
-        <v>59640022000</v>
+        <v>59470791400</v>
       </c>
       <c r="O89">
         <v>13269800</v>
       </c>
       <c r="P89">
-        <v>475573539000</v>
+        <v>448097342700</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>6400</v>
       </c>
       <c r="E90">
-        <v>29504268000</v>
+        <v>28768104900</v>
       </c>
       <c r="F90">
-        <v>135750818000</v>
+        <v>127827149600</v>
       </c>
       <c r="G90">
         <v>74547000</v>
@@ -4878,13 +4878,13 @@
         <v>10298600</v>
       </c>
       <c r="I90">
-        <v>165329633000</v>
+        <v>156669801500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-15T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7103749302000</v>
+        <v>6486824744100</v>
       </c>
       <c r="L90">
         <v>406835500</v>
@@ -4893,13 +4893,13 @@
         <v>6737800</v>
       </c>
       <c r="N90">
-        <v>106246550000</v>
+        <v>99059044700</v>
       </c>
       <c r="O90">
         <v>20007600</v>
       </c>
       <c r="P90">
-        <v>581820089000</v>
+        <v>547156387400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>67100</v>
       </c>
       <c r="E91">
-        <v>31608651000</v>
+        <v>27868395000</v>
       </c>
       <c r="F91">
-        <v>224495248000</v>
+        <v>179290298200</v>
       </c>
       <c r="G91">
-        <v>651768000</v>
+        <v>590229600</v>
       </c>
       <c r="H91">
         <v>15190200</v>
       </c>
       <c r="I91">
-        <v>256755667000</v>
+        <v>207748922800</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-15T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7360504969000</v>
+        <v>6694573666900</v>
       </c>
       <c r="L91">
         <v>422025700</v>
@@ -4943,13 +4943,13 @@
         <v>11085700</v>
       </c>
       <c r="N91">
-        <v>192886597000</v>
+        <v>151421903200</v>
       </c>
       <c r="O91">
         <v>31093300</v>
       </c>
       <c r="P91">
-        <v>774706686000</v>
+        <v>698578290600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>16500</v>
       </c>
       <c r="E92">
-        <v>64213070000</v>
+        <v>62042143100</v>
       </c>
       <c r="F92">
-        <v>86406440000</v>
+        <v>81032619200</v>
       </c>
       <c r="G92">
         <v>266810000</v>
@@ -4978,13 +4978,13 @@
         <v>9052900</v>
       </c>
       <c r="I92">
-        <v>150886320000</v>
+        <v>143341572300</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-15T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>7511391289000</v>
+        <v>6837915239200</v>
       </c>
       <c r="L92">
         <v>431078600</v>
@@ -4993,13 +4993,13 @@
         <v>1191600</v>
       </c>
       <c r="N92">
-        <v>22193370000</v>
+        <v>18990476100</v>
       </c>
       <c r="O92">
         <v>32284900</v>
       </c>
       <c r="P92">
-        <v>796900056000</v>
+        <v>717568766700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>2400</v>
       </c>
       <c r="E93">
-        <v>55326503000</v>
+        <v>53482149200</v>
       </c>
       <c r="F93">
-        <v>43646841000</v>
+        <v>41214276000</v>
       </c>
       <c r="G93">
         <v>67080000</v>
@@ -5028,13 +5028,13 @@
         <v>5348900</v>
       </c>
       <c r="I93">
-        <v>99040424000</v>
+        <v>94763505200</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-15T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>7610431713000</v>
+        <v>6932678744400</v>
       </c>
       <c r="L93">
         <v>436427500</v>
@@ -5043,13 +5043,13 @@
         <v>-783300</v>
       </c>
       <c r="N93">
-        <v>-11679662000</v>
+        <v>-12267873200</v>
       </c>
       <c r="O93">
         <v>31501600</v>
       </c>
       <c r="P93">
-        <v>785220394000</v>
+        <v>705300893500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>9700</v>
       </c>
       <c r="E94">
-        <v>44242437000</v>
+        <v>43286993400</v>
       </c>
       <c r="F94">
-        <v>45191234000</v>
+        <v>43059667700</v>
       </c>
       <c r="G94">
         <v>94360000</v>
@@ -5078,13 +5078,13 @@
         <v>5212000</v>
       </c>
       <c r="I94">
-        <v>89528031000</v>
+        <v>86441021100</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-15T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>7699959744000</v>
+        <v>7019119765500</v>
       </c>
       <c r="L94">
         <v>441639500</v>
@@ -5093,13 +5093,13 @@
         <v>-157500</v>
       </c>
       <c r="N94">
-        <v>948797000</v>
+        <v>-227325700</v>
       </c>
       <c r="O94">
         <v>31344100</v>
       </c>
       <c r="P94">
-        <v>786169191000</v>
+        <v>705073567800</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>23300</v>
       </c>
       <c r="E95">
-        <v>40676414000</v>
+        <v>38221071800</v>
       </c>
       <c r="F95">
-        <v>42702591000</v>
+        <v>41669924700</v>
       </c>
       <c r="G95">
         <v>293055000</v>
@@ -5128,13 +5128,13 @@
         <v>4191600</v>
       </c>
       <c r="I95">
-        <v>83672060000</v>
+        <v>80184051500</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-15T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>7783631804000</v>
+        <v>7099303817000</v>
       </c>
       <c r="L95">
         <v>445831100</v>
@@ -5143,13 +5143,13 @@
         <v>33300</v>
       </c>
       <c r="N95">
-        <v>2026177000</v>
+        <v>3448852900</v>
       </c>
       <c r="O95">
         <v>31377400</v>
       </c>
       <c r="P95">
-        <v>788195368000</v>
+        <v>708522420700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>11300</v>
       </c>
       <c r="E96">
-        <v>30305256000</v>
+        <v>28929832800</v>
       </c>
       <c r="F96">
-        <v>52785172000</v>
+        <v>47043519400</v>
       </c>
       <c r="G96">
-        <v>211225000</v>
+        <v>207828400</v>
       </c>
       <c r="H96">
         <v>4625100</v>
       </c>
       <c r="I96">
-        <v>83301653000</v>
+        <v>76181180600</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-15T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>7866933457000</v>
+        <v>7175484997600</v>
       </c>
       <c r="L96">
         <v>450456200</v>
@@ -5193,13 +5193,13 @@
         <v>1184400</v>
       </c>
       <c r="N96">
-        <v>22479916000</v>
+        <v>18113686600</v>
       </c>
       <c r="O96">
         <v>32561800</v>
       </c>
       <c r="P96">
-        <v>810675284000</v>
+        <v>726636107300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>65100</v>
       </c>
       <c r="E97">
-        <v>35934461000</v>
+        <v>30375625400</v>
       </c>
       <c r="F97">
-        <v>93675896000</v>
+        <v>84817363400</v>
       </c>
       <c r="G97">
-        <v>1518359000</v>
+        <v>1477400000</v>
       </c>
       <c r="H97">
         <v>6804100</v>
       </c>
       <c r="I97">
-        <v>131128716000</v>
+        <v>116670388800</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-15T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>7998062173000</v>
+        <v>7292155386400</v>
       </c>
       <c r="L97">
         <v>457260300</v>
@@ -5243,13 +5243,13 @@
         <v>2753000</v>
       </c>
       <c r="N97">
-        <v>57741435000</v>
+        <v>54441738000</v>
       </c>
       <c r="O97">
         <v>35314800</v>
       </c>
       <c r="P97">
-        <v>868416719000</v>
+        <v>781077845300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>41400</v>
       </c>
       <c r="E98">
-        <v>24873875000</v>
+        <v>23966383400</v>
       </c>
       <c r="F98">
-        <v>109246512000</v>
+        <v>90741036000</v>
       </c>
       <c r="G98">
         <v>368265000</v>
@@ -5278,13 +5278,13 @@
         <v>8094700</v>
       </c>
       <c r="I98">
-        <v>134488652000</v>
+        <v>115075684400</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-15T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8132550825000</v>
+        <v>7407231070800</v>
       </c>
       <c r="L98">
         <v>465355000</v>
@@ -5293,13 +5293,13 @@
         <v>5104700</v>
       </c>
       <c r="N98">
-        <v>84372637000</v>
+        <v>66774652600</v>
       </c>
       <c r="O98">
         <v>40419500</v>
       </c>
       <c r="P98">
-        <v>952789356000</v>
+        <v>847852497900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>30400</v>
       </c>
       <c r="E99">
-        <v>35469130000</v>
+        <v>34558741300</v>
       </c>
       <c r="F99">
-        <v>109473219000</v>
+        <v>104979517200</v>
       </c>
       <c r="G99">
-        <v>817535000</v>
+        <v>811441100</v>
       </c>
       <c r="H99">
         <v>8718700</v>
       </c>
       <c r="I99">
-        <v>145759884000</v>
+        <v>140349699600</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-15T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8278310709000</v>
+        <v>7547580770400</v>
       </c>
       <c r="L99">
         <v>474073700</v>
@@ -5343,13 +5343,13 @@
         <v>4981700</v>
       </c>
       <c r="N99">
-        <v>74004089000</v>
+        <v>70420775900</v>
       </c>
       <c r="O99">
         <v>45401200</v>
       </c>
       <c r="P99">
-        <v>1026793445000</v>
+        <v>918273273800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>19200</v>
       </c>
       <c r="E100">
-        <v>44996735000</v>
+        <v>41550085100</v>
       </c>
       <c r="F100">
-        <v>100129064000</v>
+        <v>88112592500</v>
       </c>
       <c r="G100">
         <v>222047000</v>
@@ -5378,13 +5378,13 @@
         <v>8699100</v>
       </c>
       <c r="I100">
-        <v>145347846000</v>
+        <v>129884724600</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-15T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8423658555000</v>
+        <v>7677465495000</v>
       </c>
       <c r="L100">
         <v>482772800</v>
@@ -5393,13 +5393,13 @@
         <v>3407700</v>
       </c>
       <c r="N100">
-        <v>55132329000</v>
+        <v>46562507400</v>
       </c>
       <c r="O100">
         <v>48808900</v>
       </c>
       <c r="P100">
-        <v>1081925774000</v>
+        <v>964835781200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>13200</v>
       </c>
       <c r="E101">
-        <v>83484082000</v>
+        <v>74787587200</v>
       </c>
       <c r="F101">
-        <v>56637822000</v>
+        <v>52239424800</v>
       </c>
       <c r="G101">
         <v>423113000</v>
@@ -5428,13 +5428,13 @@
         <v>7898800</v>
       </c>
       <c r="I101">
-        <v>140545017000</v>
+        <v>127450125000</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-15T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8564203572000</v>
+        <v>7804915620000</v>
       </c>
       <c r="L101">
         <v>490671600</v>
@@ -5443,13 +5443,13 @@
         <v>-1460800</v>
       </c>
       <c r="N101">
-        <v>-26846260000</v>
+        <v>-22548162400</v>
       </c>
       <c r="O101">
         <v>47348100</v>
       </c>
       <c r="P101">
-        <v>1055079514000</v>
+        <v>942287618800</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>18000</v>
       </c>
       <c r="E102">
-        <v>99334953000</v>
+        <v>89864932500</v>
       </c>
       <c r="F102">
-        <v>28717733000</v>
+        <v>26273979200</v>
       </c>
       <c r="G102">
         <v>446162000</v>
@@ -5478,13 +5478,13 @@
         <v>7214800</v>
       </c>
       <c r="I102">
-        <v>128498848000</v>
+        <v>116585073700</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-15T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>8692702420000</v>
+        <v>7921500693700</v>
       </c>
       <c r="L102">
         <v>497886400</v>
@@ -5493,13 +5493,13 @@
         <v>-3784000</v>
       </c>
       <c r="N102">
-        <v>-70617220000</v>
+        <v>-63590953300</v>
       </c>
       <c r="O102">
         <v>43564100</v>
       </c>
       <c r="P102">
-        <v>984462294000</v>
+        <v>878696665500</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>22100</v>
       </c>
       <c r="E103">
-        <v>48385731000</v>
+        <v>46040978100</v>
       </c>
       <c r="F103">
-        <v>29820939000</v>
+        <v>28770390600</v>
       </c>
       <c r="G103">
         <v>329687000</v>
@@ -5528,13 +5528,13 @@
         <v>4494800</v>
       </c>
       <c r="I103">
-        <v>78536357000</v>
+        <v>75141055700</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-15T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>8771238777000</v>
+        <v>7996641749400</v>
       </c>
       <c r="L103">
         <v>502381200</v>
@@ -5543,13 +5543,13 @@
         <v>-933700</v>
       </c>
       <c r="N103">
-        <v>-18564792000</v>
+        <v>-17270587500</v>
       </c>
       <c r="O103">
         <v>42630400</v>
       </c>
       <c r="P103">
-        <v>965897502000</v>
+        <v>861426078000</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>3400</v>
       </c>
       <c r="E104">
-        <v>49293203000</v>
+        <v>45280419800</v>
       </c>
       <c r="F104">
-        <v>25708793000</v>
+        <v>23946656900</v>
       </c>
       <c r="G104">
         <v>65745000</v>
@@ -5578,13 +5578,13 @@
         <v>3803100</v>
       </c>
       <c r="I104">
-        <v>75067741000</v>
+        <v>69292821700</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-15T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>8846306518000</v>
+        <v>8065934571100</v>
       </c>
       <c r="L104">
         <v>506184300</v>
@@ -5593,13 +5593,13 @@
         <v>-998700</v>
       </c>
       <c r="N104">
-        <v>-23584410000</v>
+        <v>-21333762900</v>
       </c>
       <c r="O104">
         <v>41631700</v>
       </c>
       <c r="P104">
-        <v>942313092000</v>
+        <v>840092315100</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>17000</v>
       </c>
       <c r="E105">
-        <v>34864266000</v>
+        <v>33326205600</v>
       </c>
       <c r="F105">
-        <v>33627852000</v>
+        <v>30400782300</v>
       </c>
       <c r="G105">
         <v>156739000</v>
@@ -5628,13 +5628,13 @@
         <v>3882800</v>
       </c>
       <c r="I105">
-        <v>68648857000</v>
+        <v>63883726900</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-15T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>8914955375000</v>
+        <v>8129818298000</v>
       </c>
       <c r="L105">
         <v>510067100</v>
@@ -5643,13 +5643,13 @@
         <v>-393200</v>
       </c>
       <c r="N105">
-        <v>-1236414000</v>
+        <v>-2925423300</v>
       </c>
       <c r="O105">
         <v>41238500</v>
       </c>
       <c r="P105">
-        <v>941076678000</v>
+        <v>837166891800</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>54400</v>
       </c>
       <c r="E106">
-        <v>37049430000</v>
+        <v>35115166200</v>
       </c>
       <c r="F106">
-        <v>30106448000</v>
+        <v>26337021200</v>
       </c>
       <c r="G106">
         <v>792413000</v>
@@ -5678,13 +5678,13 @@
         <v>3779000</v>
       </c>
       <c r="I106">
-        <v>67948291000</v>
+        <v>62244600400</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-15T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>8982903666000</v>
+        <v>8192062898400</v>
       </c>
       <c r="L106">
         <v>513846100</v>
@@ -5693,13 +5693,13 @@
         <v>-221400</v>
       </c>
       <c r="N106">
-        <v>-6942982000</v>
+        <v>-8778145000</v>
       </c>
       <c r="O106">
         <v>41017100</v>
       </c>
       <c r="P106">
-        <v>934133696000</v>
+        <v>828388746800</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>18800</v>
       </c>
       <c r="E107">
-        <v>93260575000</v>
+        <v>86049693100</v>
       </c>
       <c r="F107">
-        <v>32865177000</v>
+        <v>32005437600</v>
       </c>
       <c r="G107">
         <v>494364000</v>
@@ -5728,13 +5728,13 @@
         <v>6992400</v>
       </c>
       <c r="I107">
-        <v>126620116000</v>
+        <v>118549494700</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-15T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>9109523782000</v>
+        <v>8310612393100</v>
       </c>
       <c r="L107">
         <v>520838500</v>
@@ -5743,13 +5743,13 @@
         <v>-3348600</v>
       </c>
       <c r="N107">
-        <v>-60395398000</v>
+        <v>-54044255500</v>
       </c>
       <c r="O107">
         <v>37668500</v>
       </c>
       <c r="P107">
-        <v>873738298000</v>
+        <v>774344491300</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>40000</v>
       </c>
       <c r="E108">
-        <v>202949312000</v>
+        <v>183560520200</v>
       </c>
       <c r="F108">
-        <v>27571975000</v>
+        <v>26547700300</v>
       </c>
       <c r="G108">
-        <v>837417000</v>
+        <v>820034400</v>
       </c>
       <c r="H108">
         <v>13058400</v>
       </c>
       <c r="I108">
-        <v>231358704000</v>
+        <v>210928254900</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-15T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>9340882486000</v>
+        <v>8521540648000</v>
       </c>
       <c r="L108">
         <v>533896900</v>
@@ -5793,13 +5793,13 @@
         <v>-9676800</v>
       </c>
       <c r="N108">
-        <v>-175377337000</v>
+        <v>-157012819900</v>
       </c>
       <c r="O108">
         <v>27991700</v>
       </c>
       <c r="P108">
-        <v>698360961000</v>
+        <v>617331671400</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>116400</v>
       </c>
       <c r="E109">
-        <v>187616968000</v>
+        <v>166947358300</v>
       </c>
       <c r="F109">
-        <v>64480117000</v>
+        <v>57400703500</v>
       </c>
       <c r="G109">
         <v>1585715000</v>
@@ -5828,13 +5828,13 @@
         <v>13923900</v>
       </c>
       <c r="I109">
-        <v>253682800000</v>
+        <v>225933776800</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-15T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>9594565286000</v>
+        <v>8747474424800</v>
       </c>
       <c r="L109">
         <v>547820800</v>
@@ -5843,13 +5843,13 @@
         <v>-7252700</v>
       </c>
       <c r="N109">
-        <v>-123136851000</v>
+        <v>-109546654800</v>
       </c>
       <c r="O109">
         <v>20739000</v>
       </c>
       <c r="P109">
-        <v>575224110000</v>
+        <v>507785016600</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>16700</v>
       </c>
       <c r="E110">
-        <v>65706371000</v>
+        <v>57959525600</v>
       </c>
       <c r="F110">
-        <v>84884032000</v>
+        <v>74290636000</v>
       </c>
       <c r="G110">
-        <v>415055000</v>
+        <v>400070000</v>
       </c>
       <c r="H110">
         <v>7879800</v>
       </c>
       <c r="I110">
-        <v>151005458000</v>
+        <v>132650231600</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-15T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>9745570744000</v>
+        <v>8880124656400</v>
       </c>
       <c r="L110">
         <v>555700600</v>
@@ -5893,13 +5893,13 @@
         <v>2037300</v>
       </c>
       <c r="N110">
-        <v>19177661000</v>
+        <v>16331110400</v>
       </c>
       <c r="O110">
         <v>22776300</v>
       </c>
       <c r="P110">
-        <v>594401771000</v>
+        <v>524116127000</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>25700</v>
       </c>
       <c r="E111">
-        <v>51735976000</v>
+        <v>45867150700</v>
       </c>
       <c r="F111">
-        <v>70877346000</v>
+        <v>57896739600</v>
       </c>
       <c r="G111">
         <v>1059915000</v>
@@ -5928,13 +5928,13 @@
         <v>6158800</v>
       </c>
       <c r="I111">
-        <v>123673237000</v>
+        <v>104823805300</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-15T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>9869243981000</v>
+        <v>8984948461700</v>
       </c>
       <c r="L111">
         <v>561859400</v>
@@ -5943,13 +5943,13 @@
         <v>1599500</v>
       </c>
       <c r="N111">
-        <v>19141370000</v>
+        <v>12029588900</v>
       </c>
       <c r="O111">
         <v>24375800</v>
       </c>
       <c r="P111">
-        <v>613543141000</v>
+        <v>536145715900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>2800</v>
       </c>
       <c r="E112">
-        <v>46518547000</v>
+        <v>43977091000</v>
       </c>
       <c r="F112">
-        <v>58972479000</v>
+        <v>43459207800</v>
       </c>
       <c r="G112">
         <v>74936000</v>
@@ -5978,13 +5978,13 @@
         <v>5373500</v>
       </c>
       <c r="I112">
-        <v>105565962000</v>
+        <v>87511234800</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-15T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>9974809943000</v>
+        <v>9072459696500</v>
       </c>
       <c r="L112">
         <v>567232900</v>
@@ -5993,13 +5993,13 @@
         <v>499700</v>
       </c>
       <c r="N112">
-        <v>12453932000</v>
+        <v>-517883200</v>
       </c>
       <c r="O112">
         <v>24875500</v>
       </c>
       <c r="P112">
-        <v>625997073000</v>
+        <v>535627832700</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>83700</v>
       </c>
       <c r="E113">
-        <v>63922684000</v>
+        <v>57713399500</v>
       </c>
       <c r="F113">
-        <v>47600010000</v>
+        <v>42131883600</v>
       </c>
       <c r="G113">
-        <v>1193460000</v>
+        <v>1008145500</v>
       </c>
       <c r="H113">
         <v>5568500</v>
       </c>
       <c r="I113">
-        <v>112716154000</v>
+        <v>100853428600</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-15T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>10087526097000</v>
+        <v>9173313125100</v>
       </c>
       <c r="L113">
         <v>572801400</v>
@@ -6043,13 +6043,13 @@
         <v>-861600</v>
       </c>
       <c r="N113">
-        <v>-16322674000</v>
+        <v>-15581515900</v>
       </c>
       <c r="O113">
         <v>24013900</v>
       </c>
       <c r="P113">
-        <v>609674399000</v>
+        <v>520046316800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>22600</v>
       </c>
       <c r="E114">
-        <v>63554892000</v>
+        <v>57384368700</v>
       </c>
       <c r="F114">
-        <v>83503465000</v>
+        <v>75162314500</v>
       </c>
       <c r="G114">
-        <v>596058000</v>
+        <v>574679400</v>
       </c>
       <c r="H114">
         <v>8378900</v>
       </c>
       <c r="I114">
-        <v>147654415000</v>
+        <v>133121362600</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-15T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10235180512000</v>
+        <v>9306434487700</v>
       </c>
       <c r="L114">
         <v>581180300</v>
@@ -6093,13 +6093,13 @@
         <v>1655300</v>
       </c>
       <c r="N114">
-        <v>19948573000</v>
+        <v>17777945800</v>
       </c>
       <c r="O114">
         <v>25669200</v>
       </c>
       <c r="P114">
-        <v>629622972000</v>
+        <v>537824262600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>39100</v>
       </c>
       <c r="E115">
-        <v>61939301000</v>
+        <v>58930412900</v>
       </c>
       <c r="F115">
-        <v>89157732000</v>
+        <v>79267831800</v>
       </c>
       <c r="G115">
-        <v>817291000</v>
+        <v>792515800</v>
       </c>
       <c r="H115">
         <v>9089500</v>
       </c>
       <c r="I115">
-        <v>151914324000</v>
+        <v>138990760500</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-15T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>10387094836000</v>
+        <v>9445425248200</v>
       </c>
       <c r="L115">
         <v>590269800</v>
@@ -6143,13 +6143,13 @@
         <v>1860400</v>
       </c>
       <c r="N115">
-        <v>27218431000</v>
+        <v>20337418900</v>
       </c>
       <c r="O115">
         <v>27529600</v>
       </c>
       <c r="P115">
-        <v>656841403000</v>
+        <v>558161681500</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2022-12-15T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>10387204576000</v>
+        <v>9445534988200</v>
       </c>
       <c r="L116">
         <v>590279000</v>
@@ -6199,7 +6199,7 @@
         <v>27520800</v>
       </c>
       <c r="P116">
-        <v>656733543000</v>
+        <v>558053821500</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>30918400</v>
       </c>
       <c r="E117">
-        <v>101407272000</v>
+        <v>69348363000</v>
       </c>
       <c r="F117">
-        <v>87940839000</v>
+        <v>78468420900</v>
       </c>
       <c r="G117">
-        <v>582278270000</v>
+        <v>540934655000</v>
       </c>
       <c r="H117">
         <v>39090100</v>
       </c>
       <c r="I117">
-        <v>771626381000</v>
+        <v>688751438900</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-15T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>11158830957000</v>
+        <v>10134286427100</v>
       </c>
       <c r="L117">
         <v>629369100</v>
@@ -6243,13 +6243,13 @@
         <v>1549700</v>
       </c>
       <c r="N117">
-        <v>-13466433000</v>
+        <v>9120057900</v>
       </c>
       <c r="O117">
         <v>29070500</v>
       </c>
       <c r="P117">
-        <v>643267110000</v>
+        <v>567173879400</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-15T14:52:00.000Z</v>
       </c>
       <c r="K118">
-        <v>11158836007000</v>
+        <v>10134291477100</v>
       </c>
       <c r="L118">
         <v>629369600</v>
@@ -6299,7 +6299,7 @@
         <v>29070000</v>
       </c>
       <c r="P118">
-        <v>643262060000</v>
+        <v>567168829400</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
+++ b/name/vnindex/20221215/VNINDEX_HOSE_5p_20221215.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-18668704500</v>
       </c>
+      <c r="Q2">
+        <v>18803949400</v>
+      </c>
+      <c r="R2">
+        <v>37472653900</v>
+      </c>
+      <c r="S2">
+        <v>1315800</v>
+      </c>
+      <c r="T2">
+        <v>2651900</v>
+      </c>
+      <c r="U2">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V2">
+        <v>38090469965</v>
+      </c>
+      <c r="W2">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X2">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y2">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z2">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA2">
+        <v>248461.5</v>
+      </c>
+      <c r="AB2">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-1553725800</v>
       </c>
+      <c r="Q3">
+        <v>54215275400</v>
+      </c>
+      <c r="R3">
+        <v>55769001200</v>
+      </c>
+      <c r="S3">
+        <v>3693600</v>
+      </c>
+      <c r="T3">
+        <v>4102600</v>
+      </c>
+      <c r="U3">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V3">
+        <v>38090469965</v>
+      </c>
+      <c r="W3">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X3">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y3">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z3">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA3">
+        <v>248461.5</v>
+      </c>
+      <c r="AB3">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>20511862700</v>
       </c>
+      <c r="Q4">
+        <v>97091786800</v>
+      </c>
+      <c r="R4">
+        <v>76579924100</v>
+      </c>
+      <c r="S4">
+        <v>6511000</v>
+      </c>
+      <c r="T4">
+        <v>5468900</v>
+      </c>
+      <c r="U4">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V4">
+        <v>38090469965</v>
+      </c>
+      <c r="W4">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X4">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y4">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z4">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA4">
+        <v>248461.5</v>
+      </c>
+      <c r="AB4">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC4">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>66189392000</v>
       </c>
+      <c r="Q5">
+        <v>167285245200</v>
+      </c>
+      <c r="R5">
+        <v>101095853200</v>
+      </c>
+      <c r="S5">
+        <v>10732600</v>
+      </c>
+      <c r="T5">
+        <v>7010500</v>
+      </c>
+      <c r="U5">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V5">
+        <v>38090469965</v>
+      </c>
+      <c r="W5">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X5">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y5">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z5">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA5">
+        <v>248461.5</v>
+      </c>
+      <c r="AB5">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC5">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>103960381400</v>
       </c>
+      <c r="Q6">
+        <v>234790107200</v>
+      </c>
+      <c r="R6">
+        <v>130829725800</v>
+      </c>
+      <c r="S6">
+        <v>14915900</v>
+      </c>
+      <c r="T6">
+        <v>9235600</v>
+      </c>
+      <c r="U6">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V6">
+        <v>38090469965</v>
+      </c>
+      <c r="W6">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X6">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y6">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z6">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA6">
+        <v>248461.5</v>
+      </c>
+      <c r="AB6">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC6">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>137052619500</v>
       </c>
+      <c r="Q7">
+        <v>300299391100</v>
+      </c>
+      <c r="R7">
+        <v>163246771600</v>
+      </c>
+      <c r="S7">
+        <v>18970100</v>
+      </c>
+      <c r="T7">
+        <v>11442700</v>
+      </c>
+      <c r="U7">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V7">
+        <v>38090469965</v>
+      </c>
+      <c r="W7">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X7">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y7">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z7">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA7">
+        <v>248461.5</v>
+      </c>
+      <c r="AB7">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC7">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>140927153800</v>
       </c>
+      <c r="Q8">
+        <v>345589044800</v>
+      </c>
+      <c r="R8">
+        <v>204661891000</v>
+      </c>
+      <c r="S8">
+        <v>21726100</v>
+      </c>
+      <c r="T8">
+        <v>13985900</v>
+      </c>
+      <c r="U8">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V8">
+        <v>38090469965</v>
+      </c>
+      <c r="W8">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X8">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y8">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z8">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA8">
+        <v>248461.5</v>
+      </c>
+      <c r="AB8">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>133616713600</v>
       </c>
+      <c r="Q9">
+        <v>376371678100</v>
+      </c>
+      <c r="R9">
+        <v>242754964500</v>
+      </c>
+      <c r="S9">
+        <v>23807800</v>
+      </c>
+      <c r="T9">
+        <v>16350600</v>
+      </c>
+      <c r="U9">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V9">
+        <v>38090469965</v>
+      </c>
+      <c r="W9">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X9">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y9">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z9">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA9">
+        <v>248461.5</v>
+      </c>
+      <c r="AB9">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC9">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>132594810200</v>
       </c>
+      <c r="Q10">
+        <v>410058952000</v>
+      </c>
+      <c r="R10">
+        <v>277464141800</v>
+      </c>
+      <c r="S10">
+        <v>26096100</v>
+      </c>
+      <c r="T10">
+        <v>18606900</v>
+      </c>
+      <c r="U10">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V10">
+        <v>38090469965</v>
+      </c>
+      <c r="W10">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X10">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y10">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z10">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA10">
+        <v>248461.5</v>
+      </c>
+      <c r="AB10">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC10">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>127889277500</v>
       </c>
+      <c r="Q11">
+        <v>438860912700</v>
+      </c>
+      <c r="R11">
+        <v>310971635200</v>
+      </c>
+      <c r="S11">
+        <v>27818200</v>
+      </c>
+      <c r="T11">
+        <v>20725100</v>
+      </c>
+      <c r="U11">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V11">
+        <v>38090469965</v>
+      </c>
+      <c r="W11">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X11">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y11">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z11">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA11">
+        <v>248461.5</v>
+      </c>
+      <c r="AB11">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>155575248300</v>
       </c>
+      <c r="Q12">
+        <v>505056559900</v>
+      </c>
+      <c r="R12">
+        <v>349481311600</v>
+      </c>
+      <c r="S12">
+        <v>31871300</v>
+      </c>
+      <c r="T12">
+        <v>23462600</v>
+      </c>
+      <c r="U12">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V12">
+        <v>38090469965</v>
+      </c>
+      <c r="W12">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X12">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y12">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z12">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA12">
+        <v>248461.5</v>
+      </c>
+      <c r="AB12">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC12">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>201295635600</v>
       </c>
+      <c r="Q13">
+        <v>574237130400</v>
+      </c>
+      <c r="R13">
+        <v>372941494800</v>
+      </c>
+      <c r="S13">
+        <v>35981900</v>
+      </c>
+      <c r="T13">
+        <v>24957600</v>
+      </c>
+      <c r="U13">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V13">
+        <v>38090469965</v>
+      </c>
+      <c r="W13">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X13">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y13">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z13">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA13">
+        <v>248461.5</v>
+      </c>
+      <c r="AB13">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC13">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>236789340700</v>
       </c>
+      <c r="Q14">
+        <v>638618188300</v>
+      </c>
+      <c r="R14">
+        <v>401828847600</v>
+      </c>
+      <c r="S14">
+        <v>40084200</v>
+      </c>
+      <c r="T14">
+        <v>26633100</v>
+      </c>
+      <c r="U14">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V14">
+        <v>38090469965</v>
+      </c>
+      <c r="W14">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X14">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y14">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z14">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA14">
+        <v>248461.5</v>
+      </c>
+      <c r="AB14">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC14">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>282090622900</v>
       </c>
+      <c r="Q15">
+        <v>708350809600</v>
+      </c>
+      <c r="R15">
+        <v>426260186700</v>
+      </c>
+      <c r="S15">
+        <v>44905200</v>
+      </c>
+      <c r="T15">
+        <v>27934400</v>
+      </c>
+      <c r="U15">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V15">
+        <v>38090469965</v>
+      </c>
+      <c r="W15">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X15">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y15">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z15">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA15">
+        <v>248461.5</v>
+      </c>
+      <c r="AB15">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC15">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>378286226200</v>
       </c>
+      <c r="Q16">
+        <v>828634230800</v>
+      </c>
+      <c r="R16">
+        <v>450348004600</v>
+      </c>
+      <c r="S16">
+        <v>53909400</v>
+      </c>
+      <c r="T16">
+        <v>29431300</v>
+      </c>
+      <c r="U16">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V16">
+        <v>38090469965</v>
+      </c>
+      <c r="W16">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X16">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y16">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z16">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA16">
+        <v>248461.5</v>
+      </c>
+      <c r="AB16">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC16">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>533357160300</v>
       </c>
+      <c r="Q17">
+        <v>1018978597200</v>
+      </c>
+      <c r="R17">
+        <v>485621436900</v>
+      </c>
+      <c r="S17">
+        <v>65735100</v>
+      </c>
+      <c r="T17">
+        <v>31536500</v>
+      </c>
+      <c r="U17">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V17">
+        <v>38090469965</v>
+      </c>
+      <c r="W17">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X17">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y17">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z17">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA17">
+        <v>248461.5</v>
+      </c>
+      <c r="AB17">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC17">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>573115788700</v>
       </c>
+      <c r="Q18">
+        <v>1107055451800</v>
+      </c>
+      <c r="R18">
+        <v>533939663100</v>
+      </c>
+      <c r="S18">
+        <v>71619400</v>
+      </c>
+      <c r="T18">
+        <v>34532200</v>
+      </c>
+      <c r="U18">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V18">
+        <v>38090469965</v>
+      </c>
+      <c r="W18">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X18">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y18">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z18">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA18">
+        <v>248461.5</v>
+      </c>
+      <c r="AB18">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC18">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>549252422500</v>
       </c>
+      <c r="Q19">
+        <v>1149629674900</v>
+      </c>
+      <c r="R19">
+        <v>600377252400</v>
+      </c>
+      <c r="S19">
+        <v>74299800</v>
+      </c>
+      <c r="T19">
+        <v>38681000</v>
+      </c>
+      <c r="U19">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V19">
+        <v>38090469965</v>
+      </c>
+      <c r="W19">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X19">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y19">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z19">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA19">
+        <v>248461.5</v>
+      </c>
+      <c r="AB19">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC19">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>519579558000</v>
       </c>
+      <c r="Q20">
+        <v>1186347347400</v>
+      </c>
+      <c r="R20">
+        <v>666767789400</v>
+      </c>
+      <c r="S20">
+        <v>76398200</v>
+      </c>
+      <c r="T20">
+        <v>43618900</v>
+      </c>
+      <c r="U20">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V20">
+        <v>38090469965</v>
+      </c>
+      <c r="W20">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X20">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y20">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z20">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA20">
+        <v>248461.5</v>
+      </c>
+      <c r="AB20">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC20">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>516547750500</v>
       </c>
+      <c r="Q21">
+        <v>1233648385300</v>
+      </c>
+      <c r="R21">
+        <v>717100634800</v>
+      </c>
+      <c r="S21">
+        <v>79366800</v>
+      </c>
+      <c r="T21">
+        <v>46964700</v>
+      </c>
+      <c r="U21">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V21">
+        <v>38090469965</v>
+      </c>
+      <c r="W21">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X21">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y21">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z21">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA21">
+        <v>248461.5</v>
+      </c>
+      <c r="AB21">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC21">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>517707446500</v>
       </c>
+      <c r="Q22">
+        <v>1263423071700</v>
+      </c>
+      <c r="R22">
+        <v>745715625200</v>
+      </c>
+      <c r="S22">
+        <v>81061600</v>
+      </c>
+      <c r="T22">
+        <v>48731100</v>
+      </c>
+      <c r="U22">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V22">
+        <v>38090469965</v>
+      </c>
+      <c r="W22">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X22">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y22">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z22">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA22">
+        <v>248461.5</v>
+      </c>
+      <c r="AB22">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC22">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>518648693600</v>
       </c>
+      <c r="Q23">
+        <v>1295627440100</v>
+      </c>
+      <c r="R23">
+        <v>776978746500</v>
+      </c>
+      <c r="S23">
+        <v>83120100</v>
+      </c>
+      <c r="T23">
+        <v>50684500</v>
+      </c>
+      <c r="U23">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V23">
+        <v>38090469965</v>
+      </c>
+      <c r="W23">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X23">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y23">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z23">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA23">
+        <v>248461.5</v>
+      </c>
+      <c r="AB23">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC23">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>560985984300</v>
       </c>
+      <c r="Q24">
+        <v>1367399832900</v>
+      </c>
+      <c r="R24">
+        <v>806413848600</v>
+      </c>
+      <c r="S24">
+        <v>86557700</v>
+      </c>
+      <c r="T24">
+        <v>52370700</v>
+      </c>
+      <c r="U24">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V24">
+        <v>38090469965</v>
+      </c>
+      <c r="W24">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X24">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y24">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z24">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA24">
+        <v>248461.5</v>
+      </c>
+      <c r="AB24">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC24">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>586299214600</v>
       </c>
+      <c r="Q25">
+        <v>1414746048900</v>
+      </c>
+      <c r="R25">
+        <v>828446834300</v>
+      </c>
+      <c r="S25">
+        <v>89290700</v>
+      </c>
+      <c r="T25">
+        <v>53687000</v>
+      </c>
+      <c r="U25">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V25">
+        <v>38090469965</v>
+      </c>
+      <c r="W25">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X25">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y25">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z25">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA25">
+        <v>248461.5</v>
+      </c>
+      <c r="AB25">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC25">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>613843802300</v>
       </c>
+      <c r="Q26">
+        <v>1467151421900</v>
+      </c>
+      <c r="R26">
+        <v>853307619600</v>
+      </c>
+      <c r="S26">
+        <v>92093000</v>
+      </c>
+      <c r="T26">
+        <v>55162100</v>
+      </c>
+      <c r="U26">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V26">
+        <v>38090469965</v>
+      </c>
+      <c r="W26">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X26">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y26">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z26">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA26">
+        <v>248461.5</v>
+      </c>
+      <c r="AB26">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC26">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>620269040600</v>
       </c>
+      <c r="Q27">
+        <v>1519620031000</v>
+      </c>
+      <c r="R27">
+        <v>899350990400</v>
+      </c>
+      <c r="S27">
+        <v>94849000</v>
+      </c>
+      <c r="T27">
+        <v>57849400</v>
+      </c>
+      <c r="U27">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V27">
+        <v>38090469965</v>
+      </c>
+      <c r="W27">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X27">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y27">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z27">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA27">
+        <v>248461.5</v>
+      </c>
+      <c r="AB27">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC27">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>602700599200</v>
       </c>
+      <c r="Q28">
+        <v>1550747025600</v>
+      </c>
+      <c r="R28">
+        <v>948046426400</v>
+      </c>
+      <c r="S28">
+        <v>96572500</v>
+      </c>
+      <c r="T28">
+        <v>60646100</v>
+      </c>
+      <c r="U28">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V28">
+        <v>38090469965</v>
+      </c>
+      <c r="W28">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X28">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y28">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z28">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA28">
+        <v>248461.5</v>
+      </c>
+      <c r="AB28">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC28">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>613958225400</v>
       </c>
+      <c r="Q29">
+        <v>1591306822700</v>
+      </c>
+      <c r="R29">
+        <v>977348597300</v>
+      </c>
+      <c r="S29">
+        <v>98456700</v>
+      </c>
+      <c r="T29">
+        <v>62483500</v>
+      </c>
+      <c r="U29">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V29">
+        <v>38090469965</v>
+      </c>
+      <c r="W29">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X29">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y29">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z29">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA29">
+        <v>248461.5</v>
+      </c>
+      <c r="AB29">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC29">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>632627642200</v>
       </c>
+      <c r="Q30">
+        <v>1641030952200</v>
+      </c>
+      <c r="R30">
+        <v>1008403310000</v>
+      </c>
+      <c r="S30">
+        <v>100864000</v>
+      </c>
+      <c r="T30">
+        <v>64192200</v>
+      </c>
+      <c r="U30">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V30">
+        <v>38090469965</v>
+      </c>
+      <c r="W30">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X30">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y30">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z30">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA30">
+        <v>248461.5</v>
+      </c>
+      <c r="AB30">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC30">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>616298054300</v>
       </c>
+      <c r="Q31">
+        <v>1660720966900</v>
+      </c>
+      <c r="R31">
+        <v>1044422912600</v>
+      </c>
+      <c r="S31">
+        <v>102024700</v>
+      </c>
+      <c r="T31">
+        <v>66193900</v>
+      </c>
+      <c r="U31">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V31">
+        <v>38090469965</v>
+      </c>
+      <c r="W31">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X31">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y31">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z31">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA31">
+        <v>248461.5</v>
+      </c>
+      <c r="AB31">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC31">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>608325855000</v>
       </c>
+      <c r="Q32">
+        <v>1693456783500</v>
+      </c>
+      <c r="R32">
+        <v>1085130928500</v>
+      </c>
+      <c r="S32">
+        <v>103690100</v>
+      </c>
+      <c r="T32">
+        <v>68758500</v>
+      </c>
+      <c r="U32">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V32">
+        <v>38090469965</v>
+      </c>
+      <c r="W32">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X32">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y32">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z32">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA32">
+        <v>248461.5</v>
+      </c>
+      <c r="AB32">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>597041939000</v>
       </c>
+      <c r="Q33">
+        <v>1718799164300</v>
+      </c>
+      <c r="R33">
+        <v>1121757225300</v>
+      </c>
+      <c r="S33">
+        <v>105096000</v>
+      </c>
+      <c r="T33">
+        <v>71258600</v>
+      </c>
+      <c r="U33">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V33">
+        <v>38090469965</v>
+      </c>
+      <c r="W33">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X33">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y33">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z33">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA33">
+        <v>248461.5</v>
+      </c>
+      <c r="AB33">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC33">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>580179085200</v>
       </c>
+      <c r="Q34">
+        <v>1737812605500</v>
+      </c>
+      <c r="R34">
+        <v>1157633520300</v>
+      </c>
+      <c r="S34">
+        <v>106188400</v>
+      </c>
+      <c r="T34">
+        <v>73475200</v>
+      </c>
+      <c r="U34">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V34">
+        <v>38090469965</v>
+      </c>
+      <c r="W34">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X34">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y34">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z34">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA34">
+        <v>248461.5</v>
+      </c>
+      <c r="AB34">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC34">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>576844301300</v>
       </c>
+      <c r="Q35">
+        <v>1762240036500</v>
+      </c>
+      <c r="R35">
+        <v>1185395735200</v>
+      </c>
+      <c r="S35">
+        <v>107440600</v>
+      </c>
+      <c r="T35">
+        <v>75391100</v>
+      </c>
+      <c r="U35">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V35">
+        <v>38090469965</v>
+      </c>
+      <c r="W35">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X35">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y35">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z35">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA35">
+        <v>248461.5</v>
+      </c>
+      <c r="AB35">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC35">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>580260309200</v>
       </c>
+      <c r="Q36">
+        <v>1795539202400</v>
+      </c>
+      <c r="R36">
+        <v>1215278893200</v>
+      </c>
+      <c r="S36">
+        <v>109011300</v>
+      </c>
+      <c r="T36">
+        <v>77323000</v>
+      </c>
+      <c r="U36">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V36">
+        <v>38090469965</v>
+      </c>
+      <c r="W36">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X36">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y36">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z36">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA36">
+        <v>248461.5</v>
+      </c>
+      <c r="AB36">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC36">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>596741865600</v>
       </c>
+      <c r="Q37">
+        <v>1845041097700</v>
+      </c>
+      <c r="R37">
+        <v>1248299232100</v>
+      </c>
+      <c r="S37">
+        <v>111285100</v>
+      </c>
+      <c r="T37">
+        <v>79646600</v>
+      </c>
+      <c r="U37">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V37">
+        <v>38090469965</v>
+      </c>
+      <c r="W37">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X37">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y37">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z37">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA37">
+        <v>248461.5</v>
+      </c>
+      <c r="AB37">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC37">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>617970198600</v>
       </c>
+      <c r="Q38">
+        <v>1891913472800</v>
+      </c>
+      <c r="R38">
+        <v>1273943274200</v>
+      </c>
+      <c r="S38">
+        <v>113616900</v>
+      </c>
+      <c r="T38">
+        <v>81466500</v>
+      </c>
+      <c r="U38">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V38">
+        <v>38090469965</v>
+      </c>
+      <c r="W38">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X38">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y38">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z38">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA38">
+        <v>248461.5</v>
+      </c>
+      <c r="AB38">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC38">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>597919786000</v>
       </c>
+      <c r="Q39">
+        <v>1918911286200</v>
+      </c>
+      <c r="R39">
+        <v>1320991500200</v>
+      </c>
+      <c r="S39">
+        <v>114871100</v>
+      </c>
+      <c r="T39">
+        <v>83712000</v>
+      </c>
+      <c r="U39">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V39">
+        <v>38090469965</v>
+      </c>
+      <c r="W39">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X39">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y39">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z39">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA39">
+        <v>248461.5</v>
+      </c>
+      <c r="AB39">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC39">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>548849615800</v>
       </c>
+      <c r="Q40">
+        <v>1939723566300</v>
+      </c>
+      <c r="R40">
+        <v>1390873950500</v>
+      </c>
+      <c r="S40">
+        <v>116039200</v>
+      </c>
+      <c r="T40">
+        <v>87783900</v>
+      </c>
+      <c r="U40">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V40">
+        <v>38090469965</v>
+      </c>
+      <c r="W40">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X40">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y40">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z40">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA40">
+        <v>248461.5</v>
+      </c>
+      <c r="AB40">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC40">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>496066169900</v>
       </c>
+      <c r="Q41">
+        <v>1957283412400</v>
+      </c>
+      <c r="R41">
+        <v>1461217242500</v>
+      </c>
+      <c r="S41">
+        <v>116853000</v>
+      </c>
+      <c r="T41">
+        <v>91898400</v>
+      </c>
+      <c r="U41">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V41">
+        <v>38090469965</v>
+      </c>
+      <c r="W41">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X41">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y41">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z41">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA41">
+        <v>248461.5</v>
+      </c>
+      <c r="AB41">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC41">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>455370818700</v>
       </c>
+      <c r="Q42">
+        <v>1981659563700</v>
+      </c>
+      <c r="R42">
+        <v>1526288745000</v>
+      </c>
+      <c r="S42">
+        <v>118137300</v>
+      </c>
+      <c r="T42">
+        <v>96281900</v>
+      </c>
+      <c r="U42">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V42">
+        <v>38090469965</v>
+      </c>
+      <c r="W42">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X42">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y42">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z42">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA42">
+        <v>248461.5</v>
+      </c>
+      <c r="AB42">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC42">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>428585813400</v>
       </c>
+      <c r="Q43">
+        <v>2004107947500</v>
+      </c>
+      <c r="R43">
+        <v>1575522134100</v>
+      </c>
+      <c r="S43">
+        <v>119468100</v>
+      </c>
+      <c r="T43">
+        <v>99664500</v>
+      </c>
+      <c r="U43">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V43">
+        <v>38090469965</v>
+      </c>
+      <c r="W43">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X43">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y43">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z43">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA43">
+        <v>248461.5</v>
+      </c>
+      <c r="AB43">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC43">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>409645136300</v>
       </c>
+      <c r="Q44">
+        <v>2028301005700</v>
+      </c>
+      <c r="R44">
+        <v>1618655869400</v>
+      </c>
+      <c r="S44">
+        <v>120811600</v>
+      </c>
+      <c r="T44">
+        <v>103128900</v>
+      </c>
+      <c r="U44">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V44">
+        <v>38090469965</v>
+      </c>
+      <c r="W44">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X44">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y44">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z44">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA44">
+        <v>248461.5</v>
+      </c>
+      <c r="AB44">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC44">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>394806735400</v>
       </c>
+      <c r="Q45">
+        <v>2049907971500</v>
+      </c>
+      <c r="R45">
+        <v>1655101236100</v>
+      </c>
+      <c r="S45">
+        <v>122102400</v>
+      </c>
+      <c r="T45">
+        <v>105489900</v>
+      </c>
+      <c r="U45">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V45">
+        <v>38090469965</v>
+      </c>
+      <c r="W45">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X45">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y45">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z45">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA45">
+        <v>248461.5</v>
+      </c>
+      <c r="AB45">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC45">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>404829872600</v>
       </c>
+      <c r="Q46">
+        <v>2084304079800</v>
+      </c>
+      <c r="R46">
+        <v>1679474207200</v>
+      </c>
+      <c r="S46">
+        <v>124042200</v>
+      </c>
+      <c r="T46">
+        <v>107280500</v>
+      </c>
+      <c r="U46">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V46">
+        <v>38090469965</v>
+      </c>
+      <c r="W46">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X46">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y46">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z46">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA46">
+        <v>248461.5</v>
+      </c>
+      <c r="AB46">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC46">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>417827211900</v>
       </c>
+      <c r="Q47">
+        <v>2115131463500</v>
+      </c>
+      <c r="R47">
+        <v>1697304251600</v>
+      </c>
+      <c r="S47">
+        <v>126118700</v>
+      </c>
+      <c r="T47">
+        <v>108585900</v>
+      </c>
+      <c r="U47">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V47">
+        <v>38090469965</v>
+      </c>
+      <c r="W47">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X47">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y47">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z47">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA47">
+        <v>248461.5</v>
+      </c>
+      <c r="AB47">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC47">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>439059047300</v>
       </c>
+      <c r="Q48">
+        <v>2145977279100</v>
+      </c>
+      <c r="R48">
+        <v>1706918231800</v>
+      </c>
+      <c r="S48">
+        <v>127937500</v>
+      </c>
+      <c r="T48">
+        <v>109290100</v>
+      </c>
+      <c r="U48">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V48">
+        <v>38090469965</v>
+      </c>
+      <c r="W48">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X48">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y48">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z48">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA48">
+        <v>248461.5</v>
+      </c>
+      <c r="AB48">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC48">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>425361603700</v>
       </c>
+      <c r="Q49">
+        <v>2156436996900</v>
+      </c>
+      <c r="R49">
+        <v>1731075393200</v>
+      </c>
+      <c r="S49">
+        <v>128625000</v>
+      </c>
+      <c r="T49">
+        <v>110935200</v>
+      </c>
+      <c r="U49">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V49">
+        <v>38090469965</v>
+      </c>
+      <c r="W49">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X49">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y49">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z49">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA49">
+        <v>248461.5</v>
+      </c>
+      <c r="AB49">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC49">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>424351530400</v>
       </c>
+      <c r="Q50">
+        <v>2175469922400</v>
+      </c>
+      <c r="R50">
+        <v>1751118392000</v>
+      </c>
+      <c r="S50">
+        <v>129662700</v>
+      </c>
+      <c r="T50">
+        <v>112629700</v>
+      </c>
+      <c r="U50">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V50">
+        <v>38090469965</v>
+      </c>
+      <c r="W50">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X50">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y50">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z50">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA50">
+        <v>248461.5</v>
+      </c>
+      <c r="AB50">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC50">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>419572390400</v>
       </c>
+      <c r="Q51">
+        <v>2191329686500</v>
+      </c>
+      <c r="R51">
+        <v>1771757296100</v>
+      </c>
+      <c r="S51">
+        <v>130446200</v>
+      </c>
+      <c r="T51">
+        <v>113710300</v>
+      </c>
+      <c r="U51">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V51">
+        <v>38090469965</v>
+      </c>
+      <c r="W51">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X51">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y51">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z51">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA51">
+        <v>248461.5</v>
+      </c>
+      <c r="AB51">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>425177371300</v>
       </c>
+      <c r="Q52">
+        <v>2211282311400</v>
+      </c>
+      <c r="R52">
+        <v>1786104940100</v>
+      </c>
+      <c r="S52">
+        <v>131455800</v>
+      </c>
+      <c r="T52">
+        <v>114589300</v>
+      </c>
+      <c r="U52">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V52">
+        <v>38090469965</v>
+      </c>
+      <c r="W52">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X52">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y52">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z52">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA52">
+        <v>248461.5</v>
+      </c>
+      <c r="AB52">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>439044127100</v>
       </c>
+      <c r="Q53">
+        <v>2235169930000</v>
+      </c>
+      <c r="R53">
+        <v>1796125802900</v>
+      </c>
+      <c r="S53">
+        <v>132743100</v>
+      </c>
+      <c r="T53">
+        <v>115224800</v>
+      </c>
+      <c r="U53">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V53">
+        <v>38090469965</v>
+      </c>
+      <c r="W53">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X53">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y53">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z53">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA53">
+        <v>248461.5</v>
+      </c>
+      <c r="AB53">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC53">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>449112226400</v>
       </c>
+      <c r="Q54">
+        <v>2255442416000</v>
+      </c>
+      <c r="R54">
+        <v>1806330189600</v>
+      </c>
+      <c r="S54">
+        <v>134048600</v>
+      </c>
+      <c r="T54">
+        <v>115725700</v>
+      </c>
+      <c r="U54">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V54">
+        <v>38090469965</v>
+      </c>
+      <c r="W54">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X54">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y54">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z54">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA54">
+        <v>248461.5</v>
+      </c>
+      <c r="AB54">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC54">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>444750875000</v>
       </c>
+      <c r="Q55">
+        <v>2269539801400</v>
+      </c>
+      <c r="R55">
+        <v>1824788926400</v>
+      </c>
+      <c r="S55">
+        <v>134853600</v>
+      </c>
+      <c r="T55">
+        <v>116838500</v>
+      </c>
+      <c r="U55">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V55">
+        <v>38090469965</v>
+      </c>
+      <c r="W55">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X55">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y55">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z55">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA55">
+        <v>248461.5</v>
+      </c>
+      <c r="AB55">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC55">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>439923193100</v>
       </c>
+      <c r="Q56">
+        <v>2281842672900</v>
+      </c>
+      <c r="R56">
+        <v>1841919479800</v>
+      </c>
+      <c r="S56">
+        <v>135533700</v>
+      </c>
+      <c r="T56">
+        <v>117974100</v>
+      </c>
+      <c r="U56">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V56">
+        <v>38090469965</v>
+      </c>
+      <c r="W56">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X56">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y56">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z56">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA56">
+        <v>248461.5</v>
+      </c>
+      <c r="AB56">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>441385916000</v>
       </c>
+      <c r="Q57">
+        <v>2300483254700</v>
+      </c>
+      <c r="R57">
+        <v>1859097338700</v>
+      </c>
+      <c r="S57">
+        <v>136538500</v>
+      </c>
+      <c r="T57">
+        <v>118999800</v>
+      </c>
+      <c r="U57">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V57">
+        <v>38090469965</v>
+      </c>
+      <c r="W57">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X57">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y57">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z57">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA57">
+        <v>248461.5</v>
+      </c>
+      <c r="AB57">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC57">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>436976583900</v>
       </c>
+      <c r="Q58">
+        <v>2313722189800</v>
+      </c>
+      <c r="R58">
+        <v>1876745605900</v>
+      </c>
+      <c r="S58">
+        <v>137268200</v>
+      </c>
+      <c r="T58">
+        <v>120180100</v>
+      </c>
+      <c r="U58">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V58">
+        <v>38090469965</v>
+      </c>
+      <c r="W58">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X58">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y58">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z58">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA58">
+        <v>248461.5</v>
+      </c>
+      <c r="AB58">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC58">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>434292703300</v>
       </c>
+      <c r="Q59">
+        <v>2328211701900</v>
+      </c>
+      <c r="R59">
+        <v>1893918998600</v>
+      </c>
+      <c r="S59">
+        <v>138140400</v>
+      </c>
+      <c r="T59">
+        <v>121195700</v>
+      </c>
+      <c r="U59">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V59">
+        <v>38090469965</v>
+      </c>
+      <c r="W59">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X59">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y59">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z59">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA59">
+        <v>248461.5</v>
+      </c>
+      <c r="AB59">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC59">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>428387082900</v>
       </c>
+      <c r="Q60">
+        <v>2339729080400</v>
+      </c>
+      <c r="R60">
+        <v>1911341997500</v>
+      </c>
+      <c r="S60">
+        <v>138768600</v>
+      </c>
+      <c r="T60">
+        <v>122505700</v>
+      </c>
+      <c r="U60">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V60">
+        <v>38090469965</v>
+      </c>
+      <c r="W60">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X60">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y60">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z60">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA60">
+        <v>248461.5</v>
+      </c>
+      <c r="AB60">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>416155283800</v>
       </c>
+      <c r="Q61">
+        <v>2351888064200</v>
+      </c>
+      <c r="R61">
+        <v>1935732780400</v>
+      </c>
+      <c r="S61">
+        <v>139520400</v>
+      </c>
+      <c r="T61">
+        <v>124122200</v>
+      </c>
+      <c r="U61">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V61">
+        <v>38090469965</v>
+      </c>
+      <c r="W61">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X61">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y61">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z61">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA61">
+        <v>248461.5</v>
+      </c>
+      <c r="AB61">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC61">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>413320421600</v>
       </c>
+      <c r="Q62">
+        <v>2370347812100</v>
+      </c>
+      <c r="R62">
+        <v>1957027390500</v>
+      </c>
+      <c r="S62">
+        <v>140447800</v>
+      </c>
+      <c r="T62">
+        <v>125665700</v>
+      </c>
+      <c r="U62">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V62">
+        <v>38090469965</v>
+      </c>
+      <c r="W62">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X62">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y62">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z62">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA62">
+        <v>248461.5</v>
+      </c>
+      <c r="AB62">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC62">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>411445844200</v>
       </c>
+      <c r="Q63">
+        <v>2383529968600</v>
+      </c>
+      <c r="R63">
+        <v>1972084124400</v>
+      </c>
+      <c r="S63">
+        <v>141120700</v>
+      </c>
+      <c r="T63">
+        <v>126592400</v>
+      </c>
+      <c r="U63">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V63">
+        <v>38090469965</v>
+      </c>
+      <c r="W63">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X63">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y63">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z63">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA63">
+        <v>248461.5</v>
+      </c>
+      <c r="AB63">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC63">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>433127344200</v>
       </c>
+      <c r="Q64">
+        <v>2412105523500</v>
+      </c>
+      <c r="R64">
+        <v>1978978179300</v>
+      </c>
+      <c r="S64">
+        <v>142720000</v>
+      </c>
+      <c r="T64">
+        <v>127323300</v>
+      </c>
+      <c r="U64">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V64">
+        <v>38090469965</v>
+      </c>
+      <c r="W64">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X64">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y64">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z64">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA64">
+        <v>248461.5</v>
+      </c>
+      <c r="AB64">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC64">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>436765377400</v>
       </c>
+      <c r="Q65">
+        <v>2430254041300</v>
+      </c>
+      <c r="R65">
+        <v>1993488663900</v>
+      </c>
+      <c r="S65">
+        <v>143846900</v>
+      </c>
+      <c r="T65">
+        <v>128328900</v>
+      </c>
+      <c r="U65">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V65">
+        <v>38090469965</v>
+      </c>
+      <c r="W65">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X65">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y65">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z65">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA65">
+        <v>248461.5</v>
+      </c>
+      <c r="AB65">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC65">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>426016752500</v>
       </c>
+      <c r="Q66">
+        <v>2438777117400</v>
+      </c>
+      <c r="R66">
+        <v>2012760364900</v>
+      </c>
+      <c r="S66">
+        <v>144426400</v>
+      </c>
+      <c r="T66">
+        <v>129635700</v>
+      </c>
+      <c r="U66">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V66">
+        <v>38090469965</v>
+      </c>
+      <c r="W66">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X66">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y66">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z66">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA66">
+        <v>248461.5</v>
+      </c>
+      <c r="AB66">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC66">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>413179612000</v>
       </c>
+      <c r="Q67">
+        <v>2450467562300</v>
+      </c>
+      <c r="R67">
+        <v>2037287950300</v>
+      </c>
+      <c r="S67">
+        <v>145222400</v>
+      </c>
+      <c r="T67">
+        <v>130823500</v>
+      </c>
+      <c r="U67">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V67">
+        <v>38090469965</v>
+      </c>
+      <c r="W67">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X67">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y67">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z67">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA67">
+        <v>248461.5</v>
+      </c>
+      <c r="AB67">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC67">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>400772180200</v>
       </c>
+      <c r="Q68">
+        <v>2459829634200</v>
+      </c>
+      <c r="R68">
+        <v>2059057454000</v>
+      </c>
+      <c r="S68">
+        <v>145847400</v>
+      </c>
+      <c r="T68">
+        <v>132022600</v>
+      </c>
+      <c r="U68">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V68">
+        <v>38090469965</v>
+      </c>
+      <c r="W68">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X68">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y68">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z68">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA68">
+        <v>248461.5</v>
+      </c>
+      <c r="AB68">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC68">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>378765038600</v>
       </c>
+      <c r="Q69">
+        <v>2468846323600</v>
+      </c>
+      <c r="R69">
+        <v>2090081285000</v>
+      </c>
+      <c r="S69">
+        <v>146400500</v>
+      </c>
+      <c r="T69">
+        <v>133960800</v>
+      </c>
+      <c r="U69">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V69">
+        <v>38090469965</v>
+      </c>
+      <c r="W69">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X69">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y69">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z69">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA69">
+        <v>248461.5</v>
+      </c>
+      <c r="AB69">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC69">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>378731878600</v>
       </c>
+      <c r="Q70">
+        <v>2468848658600</v>
+      </c>
+      <c r="R70">
+        <v>2090116780000</v>
+      </c>
+      <c r="S70">
+        <v>146400600</v>
+      </c>
+      <c r="T70">
+        <v>133963900</v>
+      </c>
+      <c r="U70">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V70">
+        <v>38090469965</v>
+      </c>
+      <c r="W70">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X70">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y70">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z70">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA70">
+        <v>248461.5</v>
+      </c>
+      <c r="AB70">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>317042834800</v>
       </c>
+      <c r="Q71">
+        <v>2532927391400</v>
+      </c>
+      <c r="R71">
+        <v>2215884556600</v>
+      </c>
+      <c r="S71">
+        <v>150724000</v>
+      </c>
+      <c r="T71">
+        <v>142780000</v>
+      </c>
+      <c r="U71">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V71">
+        <v>38090469965</v>
+      </c>
+      <c r="W71">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X71">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y71">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z71">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA71">
+        <v>248461.5</v>
+      </c>
+      <c r="AB71">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC71">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>293760058300</v>
       </c>
+      <c r="Q72">
+        <v>2570096934500</v>
+      </c>
+      <c r="R72">
+        <v>2276336876200</v>
+      </c>
+      <c r="S72">
+        <v>153167800</v>
+      </c>
+      <c r="T72">
+        <v>147323200</v>
+      </c>
+      <c r="U72">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V72">
+        <v>38090469965</v>
+      </c>
+      <c r="W72">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X72">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y72">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z72">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA72">
+        <v>248461.5</v>
+      </c>
+      <c r="AB72">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC72">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>273661870700</v>
       </c>
+      <c r="Q73">
+        <v>2607674193800</v>
+      </c>
+      <c r="R73">
+        <v>2334012323100</v>
+      </c>
+      <c r="S73">
+        <v>155394200</v>
+      </c>
+      <c r="T73">
+        <v>151425300</v>
+      </c>
+      <c r="U73">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V73">
+        <v>38090469965</v>
+      </c>
+      <c r="W73">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X73">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y73">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z73">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA73">
+        <v>248461.5</v>
+      </c>
+      <c r="AB73">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC73">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>298764159100</v>
       </c>
+      <c r="Q74">
+        <v>2668936903800</v>
+      </c>
+      <c r="R74">
+        <v>2370172744700</v>
+      </c>
+      <c r="S74">
+        <v>158984900</v>
+      </c>
+      <c r="T74">
+        <v>154105000</v>
+      </c>
+      <c r="U74">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V74">
+        <v>38090469965</v>
+      </c>
+      <c r="W74">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X74">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y74">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z74">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA74">
+        <v>248461.5</v>
+      </c>
+      <c r="AB74">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC74">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>312092731800</v>
       </c>
+      <c r="Q75">
+        <v>2710334277500</v>
+      </c>
+      <c r="R75">
+        <v>2398241545700</v>
+      </c>
+      <c r="S75">
+        <v>161559100</v>
+      </c>
+      <c r="T75">
+        <v>156088900</v>
+      </c>
+      <c r="U75">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V75">
+        <v>38090469965</v>
+      </c>
+      <c r="W75">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X75">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y75">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z75">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA75">
+        <v>248461.5</v>
+      </c>
+      <c r="AB75">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC75">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>299234883900</v>
       </c>
+      <c r="Q76">
+        <v>2740825327000</v>
+      </c>
+      <c r="R76">
+        <v>2441590443100</v>
+      </c>
+      <c r="S76">
+        <v>163785300</v>
+      </c>
+      <c r="T76">
+        <v>158809700</v>
+      </c>
+      <c r="U76">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V76">
+        <v>38090469965</v>
+      </c>
+      <c r="W76">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X76">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y76">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z76">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA76">
+        <v>248461.5</v>
+      </c>
+      <c r="AB76">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC76">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>285729700600</v>
       </c>
+      <c r="Q77">
+        <v>2763662373100</v>
+      </c>
+      <c r="R77">
+        <v>2477932672500</v>
+      </c>
+      <c r="S77">
+        <v>165241100</v>
+      </c>
+      <c r="T77">
+        <v>161475500</v>
+      </c>
+      <c r="U77">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V77">
+        <v>38090469965</v>
+      </c>
+      <c r="W77">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X77">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y77">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z77">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA77">
+        <v>248461.5</v>
+      </c>
+      <c r="AB77">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC77">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>284557779400</v>
       </c>
+      <c r="Q78">
+        <v>2792005264200</v>
+      </c>
+      <c r="R78">
+        <v>2507447484800</v>
+      </c>
+      <c r="S78">
+        <v>166958500</v>
+      </c>
+      <c r="T78">
+        <v>163756800</v>
+      </c>
+      <c r="U78">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V78">
+        <v>38090469965</v>
+      </c>
+      <c r="W78">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X78">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y78">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z78">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA78">
+        <v>248461.5</v>
+      </c>
+      <c r="AB78">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC78">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>333512931600</v>
       </c>
+      <c r="Q79">
+        <v>2865582441700</v>
+      </c>
+      <c r="R79">
+        <v>2532069510100</v>
+      </c>
+      <c r="S79">
+        <v>171186900</v>
+      </c>
+      <c r="T79">
+        <v>165429600</v>
+      </c>
+      <c r="U79">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V79">
+        <v>38090469965</v>
+      </c>
+      <c r="W79">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X79">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y79">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z79">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA79">
+        <v>248461.5</v>
+      </c>
+      <c r="AB79">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC79">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>383137154000</v>
       </c>
+      <c r="Q80">
+        <v>2936135998200</v>
+      </c>
+      <c r="R80">
+        <v>2552998844200</v>
+      </c>
+      <c r="S80">
+        <v>175716900</v>
+      </c>
+      <c r="T80">
+        <v>166905000</v>
+      </c>
+      <c r="U80">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V80">
+        <v>38090469965</v>
+      </c>
+      <c r="W80">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X80">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y80">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z80">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA80">
+        <v>248461.5</v>
+      </c>
+      <c r="AB80">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC80">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>415300142100</v>
       </c>
+      <c r="Q81">
+        <v>2997172771400</v>
+      </c>
+      <c r="R81">
+        <v>2581872629300</v>
+      </c>
+      <c r="S81">
+        <v>179186400</v>
+      </c>
+      <c r="T81">
+        <v>168518100</v>
+      </c>
+      <c r="U81">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V81">
+        <v>38090469965</v>
+      </c>
+      <c r="W81">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X81">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y81">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z81">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA81">
+        <v>248461.5</v>
+      </c>
+      <c r="AB81">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC81">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>443947756600</v>
       </c>
+      <c r="Q82">
+        <v>3059725168000</v>
+      </c>
+      <c r="R82">
+        <v>2615777411400</v>
+      </c>
+      <c r="S82">
+        <v>182941100</v>
+      </c>
+      <c r="T82">
+        <v>170541700</v>
+      </c>
+      <c r="U82">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V82">
+        <v>38090469965</v>
+      </c>
+      <c r="W82">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X82">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y82">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z82">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA82">
+        <v>248461.5</v>
+      </c>
+      <c r="AB82">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC82">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>440974885900</v>
       </c>
+      <c r="Q83">
+        <v>3100530715600</v>
+      </c>
+      <c r="R83">
+        <v>2659555829700</v>
+      </c>
+      <c r="S83">
+        <v>185474400</v>
+      </c>
+      <c r="T83">
+        <v>173201500</v>
+      </c>
+      <c r="U83">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V83">
+        <v>38090469965</v>
+      </c>
+      <c r="W83">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X83">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y83">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z83">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA83">
+        <v>248461.5</v>
+      </c>
+      <c r="AB83">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC83">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>435793221800</v>
       </c>
+      <c r="Q84">
+        <v>3124513830000</v>
+      </c>
+      <c r="R84">
+        <v>2688720608200</v>
+      </c>
+      <c r="S84">
+        <v>187055700</v>
+      </c>
+      <c r="T84">
+        <v>175104200</v>
+      </c>
+      <c r="U84">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V84">
+        <v>38090469965</v>
+      </c>
+      <c r="W84">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X84">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y84">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z84">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA84">
+        <v>248461.5</v>
+      </c>
+      <c r="AB84">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>412324627400</v>
       </c>
+      <c r="Q85">
+        <v>3141659054900</v>
+      </c>
+      <c r="R85">
+        <v>2729334427500</v>
+      </c>
+      <c r="S85">
+        <v>188241600</v>
+      </c>
+      <c r="T85">
+        <v>177509900</v>
+      </c>
+      <c r="U85">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V85">
+        <v>38090469965</v>
+      </c>
+      <c r="W85">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X85">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y85">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z85">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA85">
+        <v>248461.5</v>
+      </c>
+      <c r="AB85">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC85">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>398412790600</v>
       </c>
+      <c r="Q86">
+        <v>3175127676300</v>
+      </c>
+      <c r="R86">
+        <v>2776714885700</v>
+      </c>
+      <c r="S86">
+        <v>190313400</v>
+      </c>
+      <c r="T86">
+        <v>180318300</v>
+      </c>
+      <c r="U86">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V86">
+        <v>38090469965</v>
+      </c>
+      <c r="W86">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X86">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y86">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z86">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA86">
+        <v>248461.5</v>
+      </c>
+      <c r="AB86">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC86">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>383652362200</v>
       </c>
+      <c r="Q87">
+        <v>3204968331000</v>
+      </c>
+      <c r="R87">
+        <v>2821315968800</v>
+      </c>
+      <c r="S87">
+        <v>192369200</v>
+      </c>
+      <c r="T87">
+        <v>183031100</v>
+      </c>
+      <c r="U87">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V87">
+        <v>38090469965</v>
+      </c>
+      <c r="W87">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X87">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y87">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z87">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA87">
+        <v>248461.5</v>
+      </c>
+      <c r="AB87">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>388626551300</v>
       </c>
+      <c r="Q88">
+        <v>3235701451000</v>
+      </c>
+      <c r="R88">
+        <v>2847074899700</v>
+      </c>
+      <c r="S88">
+        <v>194276600</v>
+      </c>
+      <c r="T88">
+        <v>184710200</v>
+      </c>
+      <c r="U88">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V88">
+        <v>38090469965</v>
+      </c>
+      <c r="W88">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X88">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y88">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z88">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA88">
+        <v>248461.5</v>
+      </c>
+      <c r="AB88">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>448097342700</v>
       </c>
+      <c r="Q89">
+        <v>3339365780800</v>
+      </c>
+      <c r="R89">
+        <v>2891268438100</v>
+      </c>
+      <c r="S89">
+        <v>200597500</v>
+      </c>
+      <c r="T89">
+        <v>187327700</v>
+      </c>
+      <c r="U89">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V89">
+        <v>38090469965</v>
+      </c>
+      <c r="W89">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X89">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y89">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z89">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA89">
+        <v>248461.5</v>
+      </c>
+      <c r="AB89">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC89">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>547156387400</v>
       </c>
+      <c r="Q90">
+        <v>3467192930400</v>
+      </c>
+      <c r="R90">
+        <v>2920036543000</v>
+      </c>
+      <c r="S90">
+        <v>209112500</v>
+      </c>
+      <c r="T90">
+        <v>189104900</v>
+      </c>
+      <c r="U90">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V90">
+        <v>38090469965</v>
+      </c>
+      <c r="W90">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X90">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y90">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z90">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA90">
+        <v>248461.5</v>
+      </c>
+      <c r="AB90">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC90">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>698578290600</v>
       </c>
+      <c r="Q91">
+        <v>3646483228600</v>
+      </c>
+      <c r="R91">
+        <v>2947904938000</v>
+      </c>
+      <c r="S91">
+        <v>222216900</v>
+      </c>
+      <c r="T91">
+        <v>191123600</v>
+      </c>
+      <c r="U91">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V91">
+        <v>38090469965</v>
+      </c>
+      <c r="W91">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X91">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y91">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z91">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA91">
+        <v>248461.5</v>
+      </c>
+      <c r="AB91">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC91">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>717568766700</v>
       </c>
+      <c r="Q92">
+        <v>3727515847800</v>
+      </c>
+      <c r="R92">
+        <v>3009947081100</v>
+      </c>
+      <c r="S92">
+        <v>227330900</v>
+      </c>
+      <c r="T92">
+        <v>195046000</v>
+      </c>
+      <c r="U92">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V92">
+        <v>38090469965</v>
+      </c>
+      <c r="W92">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X92">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y92">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z92">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA92">
+        <v>248461.5</v>
+      </c>
+      <c r="AB92">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC92">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>705300893500</v>
       </c>
+      <c r="Q93">
+        <v>3768730123800</v>
+      </c>
+      <c r="R93">
+        <v>3063429230300</v>
+      </c>
+      <c r="S93">
+        <v>229612500</v>
+      </c>
+      <c r="T93">
+        <v>198110900</v>
+      </c>
+      <c r="U93">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V93">
+        <v>38090469965</v>
+      </c>
+      <c r="W93">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X93">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y93">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z93">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA93">
+        <v>248461.5</v>
+      </c>
+      <c r="AB93">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC93">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>705073567800</v>
       </c>
+      <c r="Q94">
+        <v>3811789791500</v>
+      </c>
+      <c r="R94">
+        <v>3106716223700</v>
+      </c>
+      <c r="S94">
+        <v>232134900</v>
+      </c>
+      <c r="T94">
+        <v>200790800</v>
+      </c>
+      <c r="U94">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V94">
+        <v>38090469965</v>
+      </c>
+      <c r="W94">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X94">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y94">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z94">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA94">
+        <v>248461.5</v>
+      </c>
+      <c r="AB94">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>708522420700</v>
       </c>
+      <c r="Q95">
+        <v>3853459716200</v>
+      </c>
+      <c r="R95">
+        <v>3144937295500</v>
+      </c>
+      <c r="S95">
+        <v>234235700</v>
+      </c>
+      <c r="T95">
+        <v>202858300</v>
+      </c>
+      <c r="U95">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V95">
+        <v>38090469965</v>
+      </c>
+      <c r="W95">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X95">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y95">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z95">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA95">
+        <v>248461.5</v>
+      </c>
+      <c r="AB95">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC95">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>726636107300</v>
       </c>
+      <c r="Q96">
+        <v>3900503235600</v>
+      </c>
+      <c r="R96">
+        <v>3173867128300</v>
+      </c>
+      <c r="S96">
+        <v>237134800</v>
+      </c>
+      <c r="T96">
+        <v>204573000</v>
+      </c>
+      <c r="U96">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V96">
+        <v>38090469965</v>
+      </c>
+      <c r="W96">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X96">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y96">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z96">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA96">
+        <v>248461.5</v>
+      </c>
+      <c r="AB96">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC96">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>781077845300</v>
       </c>
+      <c r="Q97">
+        <v>3985320599000</v>
+      </c>
+      <c r="R97">
+        <v>3204242753700</v>
+      </c>
+      <c r="S97">
+        <v>241880800</v>
+      </c>
+      <c r="T97">
+        <v>206566000</v>
+      </c>
+      <c r="U97">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V97">
+        <v>38090469965</v>
+      </c>
+      <c r="W97">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X97">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y97">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z97">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA97">
+        <v>248461.5</v>
+      </c>
+      <c r="AB97">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC97">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>847852497900</v>
       </c>
+      <c r="Q98">
+        <v>4076061635000</v>
+      </c>
+      <c r="R98">
+        <v>3228209137100</v>
+      </c>
+      <c r="S98">
+        <v>248459800</v>
+      </c>
+      <c r="T98">
+        <v>208040300</v>
+      </c>
+      <c r="U98">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V98">
+        <v>38090469965</v>
+      </c>
+      <c r="W98">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X98">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y98">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z98">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA98">
+        <v>248461.5</v>
+      </c>
+      <c r="AB98">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC98">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>918273273800</v>
       </c>
+      <c r="Q99">
+        <v>4181041152200</v>
+      </c>
+      <c r="R99">
+        <v>3262767878400</v>
+      </c>
+      <c r="S99">
+        <v>255294800</v>
+      </c>
+      <c r="T99">
+        <v>209893600</v>
+      </c>
+      <c r="U99">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V99">
+        <v>38090469965</v>
+      </c>
+      <c r="W99">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X99">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y99">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z99">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA99">
+        <v>248461.5</v>
+      </c>
+      <c r="AB99">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC99">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>964835781200</v>
       </c>
+      <c r="Q100">
+        <v>4269153744700</v>
+      </c>
+      <c r="R100">
+        <v>3304317963500</v>
+      </c>
+      <c r="S100">
+        <v>261338600</v>
+      </c>
+      <c r="T100">
+        <v>212529700</v>
+      </c>
+      <c r="U100">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V100">
+        <v>38090469965</v>
+      </c>
+      <c r="W100">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X100">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y100">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z100">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA100">
+        <v>248461.5</v>
+      </c>
+      <c r="AB100">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC100">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>942287618800</v>
       </c>
+      <c r="Q101">
+        <v>4321393169500</v>
+      </c>
+      <c r="R101">
+        <v>3379105550700</v>
+      </c>
+      <c r="S101">
+        <v>264551000</v>
+      </c>
+      <c r="T101">
+        <v>217202900</v>
+      </c>
+      <c r="U101">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V101">
+        <v>38090469965</v>
+      </c>
+      <c r="W101">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X101">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y101">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z101">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA101">
+        <v>248461.5</v>
+      </c>
+      <c r="AB101">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC101">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>878696665500</v>
       </c>
+      <c r="Q102">
+        <v>4347667148700</v>
+      </c>
+      <c r="R102">
+        <v>3468970483200</v>
+      </c>
+      <c r="S102">
+        <v>266257400</v>
+      </c>
+      <c r="T102">
+        <v>222693300</v>
+      </c>
+      <c r="U102">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V102">
+        <v>38090469965</v>
+      </c>
+      <c r="W102">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X102">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y102">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z102">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA102">
+        <v>248461.5</v>
+      </c>
+      <c r="AB102">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC102">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>861426078000</v>
       </c>
+      <c r="Q103">
+        <v>4376437539300</v>
+      </c>
+      <c r="R103">
+        <v>3515011461300</v>
+      </c>
+      <c r="S103">
+        <v>268026900</v>
+      </c>
+      <c r="T103">
+        <v>225396500</v>
+      </c>
+      <c r="U103">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V103">
+        <v>38090469965</v>
+      </c>
+      <c r="W103">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X103">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y103">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z103">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA103">
+        <v>248461.5</v>
+      </c>
+      <c r="AB103">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC103">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>840092315100</v>
       </c>
+      <c r="Q104">
+        <v>4400384196200</v>
+      </c>
+      <c r="R104">
+        <v>3560291881100</v>
+      </c>
+      <c r="S104">
+        <v>269427400</v>
+      </c>
+      <c r="T104">
+        <v>227795700</v>
+      </c>
+      <c r="U104">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V104">
+        <v>38090469965</v>
+      </c>
+      <c r="W104">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X104">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y104">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z104">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA104">
+        <v>248461.5</v>
+      </c>
+      <c r="AB104">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC104">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>837166891800</v>
       </c>
+      <c r="Q105">
+        <v>4430784978500</v>
+      </c>
+      <c r="R105">
+        <v>3593618086700</v>
+      </c>
+      <c r="S105">
+        <v>271163700</v>
+      </c>
+      <c r="T105">
+        <v>229925200</v>
+      </c>
+      <c r="U105">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V105">
+        <v>38090469965</v>
+      </c>
+      <c r="W105">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X105">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y105">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z105">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA105">
+        <v>248461.5</v>
+      </c>
+      <c r="AB105">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC105">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>828388746800</v>
       </c>
+      <c r="Q106">
+        <v>4457121999700</v>
+      </c>
+      <c r="R106">
+        <v>3628733252900</v>
+      </c>
+      <c r="S106">
+        <v>272915300</v>
+      </c>
+      <c r="T106">
+        <v>231898200</v>
+      </c>
+      <c r="U106">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V106">
+        <v>38090469965</v>
+      </c>
+      <c r="W106">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X106">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y106">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z106">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA106">
+        <v>248461.5</v>
+      </c>
+      <c r="AB106">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC106">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>774344491300</v>
       </c>
+      <c r="Q107">
+        <v>4489127437300</v>
+      </c>
+      <c r="R107">
+        <v>3714782946000</v>
+      </c>
+      <c r="S107">
+        <v>274727800</v>
+      </c>
+      <c r="T107">
+        <v>237059300</v>
+      </c>
+      <c r="U107">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V107">
+        <v>38090469965</v>
+      </c>
+      <c r="W107">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X107">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y107">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z107">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA107">
+        <v>248461.5</v>
+      </c>
+      <c r="AB107">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC107">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>617331671400</v>
       </c>
+      <c r="Q108">
+        <v>4515675137600</v>
+      </c>
+      <c r="R108">
+        <v>3898343466200</v>
+      </c>
+      <c r="S108">
+        <v>276398600</v>
+      </c>
+      <c r="T108">
+        <v>248406900</v>
+      </c>
+      <c r="U108">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V108">
+        <v>38090469965</v>
+      </c>
+      <c r="W108">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X108">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y108">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z108">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA108">
+        <v>248461.5</v>
+      </c>
+      <c r="AB108">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC108">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>507785016600</v>
       </c>
+      <c r="Q109">
+        <v>4573075841100</v>
+      </c>
+      <c r="R109">
+        <v>4065290824500</v>
+      </c>
+      <c r="S109">
+        <v>279676000</v>
+      </c>
+      <c r="T109">
+        <v>258937000</v>
+      </c>
+      <c r="U109">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V109">
+        <v>38090469965</v>
+      </c>
+      <c r="W109">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X109">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y109">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z109">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA109">
+        <v>248461.5</v>
+      </c>
+      <c r="AB109">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC109">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>524116127000</v>
       </c>
+      <c r="Q110">
+        <v>4647366477100</v>
+      </c>
+      <c r="R110">
+        <v>4123250350100</v>
+      </c>
+      <c r="S110">
+        <v>284626200</v>
+      </c>
+      <c r="T110">
+        <v>261849900</v>
+      </c>
+      <c r="U110">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V110">
+        <v>38090469965</v>
+      </c>
+      <c r="W110">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X110">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y110">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z110">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA110">
+        <v>248461.5</v>
+      </c>
+      <c r="AB110">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC110">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>536145715900</v>
       </c>
+      <c r="Q111">
+        <v>4705263216700</v>
+      </c>
+      <c r="R111">
+        <v>4169117500800</v>
+      </c>
+      <c r="S111">
+        <v>288492500</v>
+      </c>
+      <c r="T111">
+        <v>264116700</v>
+      </c>
+      <c r="U111">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V111">
+        <v>38090469965</v>
+      </c>
+      <c r="W111">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X111">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y111">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z111">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA111">
+        <v>248461.5</v>
+      </c>
+      <c r="AB111">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC111">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>535627832700</v>
       </c>
+      <c r="Q112">
+        <v>4748722424500</v>
+      </c>
+      <c r="R112">
+        <v>4213094591800</v>
+      </c>
+      <c r="S112">
+        <v>291427700</v>
+      </c>
+      <c r="T112">
+        <v>266552200</v>
+      </c>
+      <c r="U112">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V112">
+        <v>38090469965</v>
+      </c>
+      <c r="W112">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X112">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y112">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z112">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA112">
+        <v>248461.5</v>
+      </c>
+      <c r="AB112">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC112">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>520046316800</v>
       </c>
+      <c r="Q113">
+        <v>4790854308100</v>
+      </c>
+      <c r="R113">
+        <v>4270807991300</v>
+      </c>
+      <c r="S113">
+        <v>293739300</v>
+      </c>
+      <c r="T113">
+        <v>269725400</v>
+      </c>
+      <c r="U113">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V113">
+        <v>38090469965</v>
+      </c>
+      <c r="W113">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X113">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y113">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z113">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA113">
+        <v>248461.5</v>
+      </c>
+      <c r="AB113">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC113">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>537824262600</v>
       </c>
+      <c r="Q114">
+        <v>4866016622600</v>
+      </c>
+      <c r="R114">
+        <v>4328192360000</v>
+      </c>
+      <c r="S114">
+        <v>298745100</v>
+      </c>
+      <c r="T114">
+        <v>273075900</v>
+      </c>
+      <c r="U114">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V114">
+        <v>38090469965</v>
+      </c>
+      <c r="W114">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X114">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y114">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z114">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA114">
+        <v>248461.5</v>
+      </c>
+      <c r="AB114">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC114">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>558161681500</v>
       </c>
+      <c r="Q115">
+        <v>4945284454400</v>
+      </c>
+      <c r="R115">
+        <v>4387122772900</v>
+      </c>
+      <c r="S115">
+        <v>304200500</v>
+      </c>
+      <c r="T115">
+        <v>276670900</v>
+      </c>
+      <c r="U115">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V115">
+        <v>38090469965</v>
+      </c>
+      <c r="W115">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X115">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y115">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z115">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA115">
+        <v>248461.5</v>
+      </c>
+      <c r="AB115">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC115">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>558053821500</v>
       </c>
+      <c r="Q116">
+        <v>4945285394400</v>
+      </c>
+      <c r="R116">
+        <v>4387231572900</v>
+      </c>
+      <c r="S116">
+        <v>304200700</v>
+      </c>
+      <c r="T116">
+        <v>276679900</v>
+      </c>
+      <c r="U116">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V116">
+        <v>38090469965</v>
+      </c>
+      <c r="W116">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X116">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y116">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z116">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA116">
+        <v>248461.5</v>
+      </c>
+      <c r="AB116">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>567173879400</v>
       </c>
+      <c r="Q117">
+        <v>5023753815300</v>
+      </c>
+      <c r="R117">
+        <v>4456579935900</v>
+      </c>
+      <c r="S117">
+        <v>309061400</v>
+      </c>
+      <c r="T117">
+        <v>279990900</v>
+      </c>
+      <c r="U117">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V117">
+        <v>38090469965</v>
+      </c>
+      <c r="W117">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X117">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y117">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z117">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA117">
+        <v>248461.5</v>
+      </c>
+      <c r="AB117">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC117">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,10 +10864,49 @@
       <c r="P118">
         <v>567168829400</v>
       </c>
+      <c r="Q118">
+        <v>5023753815300</v>
+      </c>
+      <c r="R118">
+        <v>4456584985900</v>
+      </c>
+      <c r="S118">
+        <v>309061400</v>
+      </c>
+      <c r="T118">
+        <v>279991400</v>
+      </c>
+      <c r="U118">
+        <v>42938066797.4</v>
+      </c>
+      <c r="V118">
+        <v>38090469965</v>
+      </c>
+      <c r="W118">
+        <v>86617875872.6</v>
+      </c>
+      <c r="X118">
+        <v>5379227.4</v>
+      </c>
+      <c r="Y118">
+        <v>2641550.4</v>
+      </c>
+      <c r="Z118">
+        <v>2393088.9</v>
+      </c>
+      <c r="AA118">
+        <v>248461.5</v>
+      </c>
+      <c r="AB118">
+        <v>4847596832.5</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC118"/>
   </ignoredErrors>
 </worksheet>
 </file>